--- a/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.986433115152111</v>
+        <v>0.9864331151521115</v>
       </c>
       <c r="D2">
-        <v>1.007093495489571</v>
+        <v>1.007093495489572</v>
       </c>
       <c r="E2">
-        <v>0.9643766604313332</v>
+        <v>0.9643766604313335</v>
       </c>
       <c r="F2">
-        <v>0.9697098878858534</v>
+        <v>0.9697098878858538</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.009027322435355</v>
       </c>
       <c r="K2">
-        <v>1.018454883381926</v>
+        <v>1.018454883381927</v>
       </c>
       <c r="L2">
-        <v>0.976355653024562</v>
+        <v>0.9763556530245622</v>
       </c>
       <c r="M2">
-        <v>0.9816079879730962</v>
+        <v>0.9816079879730967</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9930990775823244</v>
+        <v>0.9930990775823241</v>
       </c>
       <c r="D3">
         <v>1.01195861303945</v>
       </c>
       <c r="E3">
-        <v>0.9705511326409191</v>
+        <v>0.9705511326409194</v>
       </c>
       <c r="F3">
         <v>0.9776578369522162</v>
@@ -483,7 +483,7 @@
         <v>1.022440734021296</v>
       </c>
       <c r="L3">
-        <v>0.981575219841923</v>
+        <v>0.9815752198419233</v>
       </c>
       <c r="M3">
         <v>0.9885848035069384</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9972810948713009</v>
+        <v>0.9972810948713011</v>
       </c>
       <c r="D4">
         <v>1.015012341846508</v>
       </c>
       <c r="E4">
-        <v>0.9744387851031245</v>
+        <v>0.9744387851031246</v>
       </c>
       <c r="F4">
         <v>0.9826519685529912</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042360035835545</v>
+        <v>1.042360035835546</v>
       </c>
       <c r="J4">
         <v>1.016754607161394</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9990094402554388</v>
+        <v>0.9990094402554404</v>
       </c>
       <c r="D5">
-        <v>1.016274642304295</v>
+        <v>1.016274642304297</v>
       </c>
       <c r="E5">
-        <v>0.976048824424576</v>
+        <v>0.9760488244245767</v>
       </c>
       <c r="F5">
-        <v>0.9847179535250596</v>
+        <v>0.9847179535250608</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042911832548484</v>
+        <v>1.042911832548485</v>
       </c>
       <c r="J5">
-        <v>1.017982483887929</v>
+        <v>1.017982483887931</v>
       </c>
       <c r="K5">
-        <v>1.025960758590583</v>
+        <v>1.025960758590585</v>
       </c>
       <c r="L5">
-        <v>0.9862130757478316</v>
+        <v>0.9862130757478321</v>
       </c>
       <c r="M5">
-        <v>0.9947750568446558</v>
+        <v>0.9947750568446572</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9992979367883803</v>
+        <v>0.9992979367883796</v>
       </c>
       <c r="D6">
         <v>1.016485358292568</v>
       </c>
       <c r="E6">
-        <v>0.9763177701080309</v>
+        <v>0.9763177701080308</v>
       </c>
       <c r="F6">
-        <v>0.9850629308018177</v>
+        <v>0.9850629308018171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043003708583596</v>
+        <v>1.043003708583595</v>
       </c>
       <c r="J6">
         <v>1.018187345529597</v>
       </c>
       <c r="K6">
-        <v>1.026132204629679</v>
+        <v>1.026132204629678</v>
       </c>
       <c r="L6">
-        <v>0.9864397134364021</v>
+        <v>0.9864397134364019</v>
       </c>
       <c r="M6">
-        <v>0.9950773388694221</v>
+        <v>0.9950773388694214</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9973043040067191</v>
+        <v>0.9973043040067187</v>
       </c>
       <c r="D7">
-        <v>1.015029291813486</v>
+        <v>1.015029291813485</v>
       </c>
       <c r="E7">
         <v>0.9744603923089431</v>
       </c>
       <c r="F7">
-        <v>0.9826797035754672</v>
+        <v>0.9826797035754669</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>1.024946706702796</v>
       </c>
       <c r="L7">
-        <v>0.9848740459959383</v>
+        <v>0.9848740459959382</v>
       </c>
       <c r="M7">
-        <v>0.9929886907192985</v>
+        <v>0.9929886907192984</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9887141405396107</v>
+        <v>0.9887141405396095</v>
       </c>
       <c r="D8">
-        <v>1.008757904111924</v>
+        <v>1.008757904111923</v>
       </c>
       <c r="E8">
-        <v>0.9664865462771786</v>
+        <v>0.9664865462771784</v>
       </c>
       <c r="F8">
-        <v>0.9724280237521081</v>
+        <v>0.9724280237521071</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.039592352142783</v>
       </c>
       <c r="J8">
-        <v>1.010654864857574</v>
+        <v>1.010654864857573</v>
       </c>
       <c r="K8">
-        <v>1.019820536582262</v>
+        <v>1.019820536582261</v>
       </c>
       <c r="L8">
-        <v>0.9781404648227564</v>
+        <v>0.9781404648227562</v>
       </c>
       <c r="M8">
-        <v>0.9839948973050866</v>
+        <v>0.9839948973050858</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9724888789463404</v>
+        <v>0.9724888789463381</v>
       </c>
       <c r="D9">
-        <v>0.9969300978165172</v>
+        <v>0.996930097816515</v>
       </c>
       <c r="E9">
-        <v>0.9515395531663705</v>
+        <v>0.9515395531663697</v>
       </c>
       <c r="F9">
-        <v>0.9531215097243834</v>
+        <v>0.9531215097243818</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034224924836441</v>
+        <v>1.03422492483644</v>
       </c>
       <c r="J9">
-        <v>0.9990519827172157</v>
+        <v>0.9990519827172134</v>
       </c>
       <c r="K9">
-        <v>1.010073179179847</v>
+        <v>1.010073179179845</v>
       </c>
       <c r="L9">
-        <v>0.9654710512524434</v>
+        <v>0.9654710512524426</v>
       </c>
       <c r="M9">
-        <v>0.9670238845870708</v>
+        <v>0.9670238845870692</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9608101585223024</v>
+        <v>0.9608101585223032</v>
       </c>
       <c r="D10">
-        <v>0.9884372027806241</v>
+        <v>0.988437202780625</v>
       </c>
       <c r="E10">
-        <v>0.9408596931216018</v>
+        <v>0.940859693121602</v>
       </c>
       <c r="F10">
-        <v>0.9392531782340623</v>
+        <v>0.939253178234063</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030280747401535</v>
+        <v>1.030280747401536</v>
       </c>
       <c r="J10">
-        <v>0.990669812091671</v>
+        <v>0.990669812091672</v>
       </c>
       <c r="K10">
-        <v>1.00301841329767</v>
+        <v>1.003018413297672</v>
       </c>
       <c r="L10">
-        <v>0.9563856676877733</v>
+        <v>0.9563856676877738</v>
       </c>
       <c r="M10">
-        <v>0.9548132676408287</v>
+        <v>0.9548132676408292</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9555145464815998</v>
+        <v>0.9555145464815993</v>
       </c>
       <c r="D11">
-        <v>0.9845932229174854</v>
+        <v>0.984593222917485</v>
       </c>
       <c r="E11">
-        <v>0.9360359814820474</v>
+        <v>0.9360359814820469</v>
       </c>
       <c r="F11">
-        <v>0.9329685808172664</v>
+        <v>0.9329685808172656</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.028474312209485</v>
       </c>
       <c r="J11">
-        <v>0.9868626663929553</v>
+        <v>0.9868626663929547</v>
       </c>
       <c r="K11">
-        <v>0.9998116571421048</v>
+        <v>0.9998116571421044</v>
       </c>
       <c r="L11">
-        <v>0.9522741354348975</v>
+        <v>0.9522741354348967</v>
       </c>
       <c r="M11">
-        <v>0.9492759089563914</v>
+        <v>0.9492759089563905</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9535082888733104</v>
+        <v>0.9535082888733117</v>
       </c>
       <c r="D12">
-        <v>0.9831381839381125</v>
+        <v>0.9831381839381138</v>
       </c>
       <c r="E12">
-        <v>0.9342113802790488</v>
+        <v>0.934211380279049</v>
       </c>
       <c r="F12">
-        <v>0.9305879432053218</v>
+        <v>0.9305879432053228</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027787349545904</v>
+        <v>1.027787349545905</v>
       </c>
       <c r="J12">
-        <v>0.9854194561827444</v>
+        <v>0.9854194561827456</v>
       </c>
       <c r="K12">
-        <v>0.9985957201137043</v>
+        <v>0.9985957201137058</v>
       </c>
       <c r="L12">
-        <v>0.9507177036778918</v>
+        <v>0.9507177036778922</v>
       </c>
       <c r="M12">
-        <v>0.9471778080365759</v>
+        <v>0.947177808036577</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9539404724315002</v>
+        <v>0.9539404724315005</v>
       </c>
       <c r="D13">
-        <v>0.9834515646751861</v>
+        <v>0.9834515646751862</v>
       </c>
       <c r="E13">
         <v>0.9346043016426049</v>
       </c>
       <c r="F13">
-        <v>0.9311007662971559</v>
+        <v>0.931100766297156</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.027935448472331</v>
       </c>
       <c r="J13">
-        <v>0.9857303867369085</v>
+        <v>0.9857303867369089</v>
       </c>
       <c r="K13">
-        <v>0.9988576996843274</v>
+        <v>0.9988576996843275</v>
       </c>
       <c r="L13">
         <v>0.9510529309369741</v>
       </c>
       <c r="M13">
-        <v>0.9476297909048628</v>
+        <v>0.9476297909048629</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553495300530138</v>
+        <v>0.9553495300530145</v>
       </c>
       <c r="D14">
-        <v>0.9844735178327416</v>
+        <v>0.9844735178327422</v>
       </c>
       <c r="E14">
-        <v>0.935885848009656</v>
+        <v>0.9358858480096565</v>
       </c>
       <c r="F14">
-        <v>0.9327727669934998</v>
+        <v>0.9327727669935002</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.028417860751285</v>
       </c>
       <c r="J14">
-        <v>0.9867439780478207</v>
+        <v>0.9867439780478211</v>
       </c>
       <c r="K14">
-        <v>0.9997116657371531</v>
+        <v>0.9997116657371533</v>
       </c>
       <c r="L14">
-        <v>0.9521460925117283</v>
+        <v>0.9521460925117288</v>
       </c>
       <c r="M14">
-        <v>0.9491033446235634</v>
+        <v>0.9491033446235638</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -918,10 +918,10 @@
         <v>0.9562123897200155</v>
       </c>
       <c r="D15">
-        <v>0.9850995001744277</v>
+        <v>0.9850995001744276</v>
       </c>
       <c r="E15">
-        <v>0.9366710026857631</v>
+        <v>0.9366710026857629</v>
       </c>
       <c r="F15">
         <v>0.9337966745471047</v>
@@ -939,10 +939,10 @@
         <v>1.000234472187693</v>
       </c>
       <c r="L15">
-        <v>0.9528156704143015</v>
+        <v>0.9528156704143012</v>
       </c>
       <c r="M15">
-        <v>0.9500056602424432</v>
+        <v>0.950005660242443</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9611563045539719</v>
+        <v>0.9611563045539718</v>
       </c>
       <c r="D16">
-        <v>0.9886886257817176</v>
+        <v>0.9886886257817172</v>
       </c>
       <c r="E16">
-        <v>0.9411753879433353</v>
+        <v>0.9411753879433351</v>
       </c>
       <c r="F16">
-        <v>0.9396640263170395</v>
+        <v>0.9396640263170392</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.03039846182123</v>
       </c>
       <c r="J16">
-        <v>0.9909185414001324</v>
+        <v>0.9909185414001321</v>
       </c>
       <c r="K16">
-        <v>1.003227870435071</v>
+        <v>1.00322787043507</v>
       </c>
       <c r="L16">
-        <v>0.9566545860721255</v>
+        <v>0.9566545860721254</v>
       </c>
       <c r="M16">
-        <v>0.955175189824585</v>
+        <v>0.9551751898245848</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9641913502437791</v>
+        <v>0.9641913502437798</v>
       </c>
       <c r="D17">
-        <v>0.9908939466779978</v>
+        <v>0.9908939466779981</v>
       </c>
       <c r="E17">
         <v>0.9439455758489279</v>
       </c>
       <c r="F17">
-        <v>0.9432667936532921</v>
+        <v>0.9432667936532922</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031428580108301</v>
       </c>
       <c r="J17">
-        <v>0.9930987236362484</v>
+        <v>0.9930987236362488</v>
       </c>
       <c r="K17">
-        <v>1.005063544310874</v>
+        <v>1.005063544310875</v>
       </c>
       <c r="L17">
-        <v>0.9590134116735454</v>
+        <v>0.9590134116735451</v>
       </c>
       <c r="M17">
-        <v>0.9583484810519143</v>
+        <v>0.9583484810519145</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9659388651955393</v>
+        <v>0.9659388651955405</v>
       </c>
       <c r="D18">
-        <v>0.9921643708534654</v>
+        <v>0.9921643708534662</v>
       </c>
       <c r="E18">
-        <v>0.9455423703776065</v>
+        <v>0.9455423703776067</v>
       </c>
       <c r="F18">
-        <v>0.9453415744139908</v>
+        <v>0.9453415744139916</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032020005090739</v>
       </c>
       <c r="J18">
-        <v>0.9943534267236159</v>
+        <v>0.9943534267236169</v>
       </c>
       <c r="K18">
-        <v>1.006119742224819</v>
+        <v>1.00611974222482</v>
       </c>
       <c r="L18">
-        <v>0.960372338095222</v>
+        <v>0.9603723380952222</v>
       </c>
       <c r="M18">
-        <v>0.9601755543588758</v>
+        <v>0.9601755543588765</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9665309549113736</v>
+        <v>0.9665309549113743</v>
       </c>
       <c r="D19">
-        <v>0.9925949176357018</v>
+        <v>0.9925949176357022</v>
       </c>
       <c r="E19">
-        <v>0.9460836943710808</v>
+        <v>0.9460836943710809</v>
       </c>
       <c r="F19">
-        <v>0.9460446205075328</v>
+        <v>0.946044620507533</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.03222009985566</v>
       </c>
       <c r="J19">
-        <v>0.9947784386714782</v>
+        <v>0.9947784386714787</v>
       </c>
       <c r="K19">
-        <v>1.006477471360398</v>
+        <v>1.006477471360399</v>
       </c>
       <c r="L19">
-        <v>0.9608328964231526</v>
+        <v>0.9608328964231527</v>
       </c>
       <c r="M19">
-        <v>0.9607945977137866</v>
+        <v>0.9607945977137869</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9638680973701502</v>
+        <v>0.9638680973701512</v>
       </c>
       <c r="D20">
-        <v>0.9906589964471202</v>
+        <v>0.9906589964471212</v>
       </c>
       <c r="E20">
-        <v>0.9436503470146211</v>
+        <v>0.9436503470146217</v>
       </c>
       <c r="F20">
-        <v>0.9428830365673525</v>
+        <v>0.9428830365673536</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031319041014499</v>
+        <v>1.0313190410145</v>
       </c>
       <c r="J20">
-        <v>0.9928665812311492</v>
+        <v>0.9928665812311503</v>
       </c>
       <c r="K20">
         <v>1.004868109125924</v>
       </c>
       <c r="L20">
-        <v>0.9587621012583788</v>
+        <v>0.9587621012583796</v>
       </c>
       <c r="M20">
-        <v>0.9580105094426203</v>
+        <v>0.9580105094426212</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9549357100771185</v>
+        <v>0.9549357100771172</v>
       </c>
       <c r="D21">
-        <v>0.9841733484338888</v>
+        <v>0.9841733484338874</v>
       </c>
       <c r="E21">
-        <v>0.9355093970838236</v>
+        <v>0.9355093970838233</v>
       </c>
       <c r="F21">
-        <v>0.9322817186348692</v>
+        <v>0.9322817186348682</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028276253366297</v>
+        <v>1.028276253366296</v>
       </c>
       <c r="J21">
-        <v>0.9864463237818176</v>
+        <v>0.9864463237818164</v>
       </c>
       <c r="K21">
-        <v>0.9994608958801063</v>
+        <v>0.999460895880105</v>
       </c>
       <c r="L21">
-        <v>0.951825012714358</v>
+        <v>0.9518250127143577</v>
       </c>
       <c r="M21">
-        <v>0.9486705916286738</v>
+        <v>0.9486705916286727</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9490905622921559</v>
+        <v>0.9490905622921542</v>
       </c>
       <c r="D22">
-        <v>0.9799368042862673</v>
+        <v>0.9799368042862658</v>
       </c>
       <c r="E22">
-        <v>0.9301989924318991</v>
+        <v>0.9301989924318986</v>
       </c>
       <c r="F22">
-        <v>0.9253460451525016</v>
+        <v>0.9253460451525007</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026270029153651</v>
+        <v>1.02627002915365</v>
       </c>
       <c r="J22">
-        <v>0.9822400582949536</v>
+        <v>0.9822400582949522</v>
       </c>
       <c r="K22">
-        <v>0.9959164771758789</v>
+        <v>0.9959164771758777</v>
       </c>
       <c r="L22">
-        <v>0.9472927681895525</v>
+        <v>0.9472927681895519</v>
       </c>
       <c r="M22">
-        <v>0.9425571563311131</v>
+        <v>0.9425571563311121</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9522121431139849</v>
+        <v>0.9522121431139855</v>
       </c>
       <c r="D23">
-        <v>0.9821985375171641</v>
+        <v>0.9821985375171648</v>
       </c>
       <c r="E23">
-        <v>0.9330334078447413</v>
+        <v>0.9330334078447416</v>
       </c>
       <c r="F23">
-        <v>0.9290499742993722</v>
+        <v>0.929049974299373</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02734282108024</v>
+        <v>1.027342821080241</v>
       </c>
       <c r="J23">
-        <v>0.9844868366460489</v>
+        <v>0.9844868366460494</v>
       </c>
       <c r="K23">
-        <v>0.9978098837531276</v>
+        <v>0.9978098837531282</v>
       </c>
       <c r="L23">
-        <v>0.9497125174883106</v>
+        <v>0.9497125174883109</v>
       </c>
       <c r="M23">
-        <v>0.9458222305036884</v>
+        <v>0.9458222305036891</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9640142315635957</v>
+        <v>0.9640142315635953</v>
       </c>
       <c r="D24">
-        <v>0.9907652093230159</v>
+        <v>0.9907652093230156</v>
       </c>
       <c r="E24">
         <v>0.9437838067447987</v>
       </c>
       <c r="F24">
-        <v>0.9430565219244668</v>
+        <v>0.9430565219244663</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.031368566057687</v>
       </c>
       <c r="J24">
-        <v>0.9929715286275913</v>
+        <v>0.9929715286275911</v>
       </c>
       <c r="K24">
         <v>1.004956462597674</v>
       </c>
       <c r="L24">
-        <v>0.9588757097674682</v>
+        <v>0.9588757097674681</v>
       </c>
       <c r="M24">
-        <v>0.958163297705944</v>
+        <v>0.9581632977059436</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9768249592631462</v>
+        <v>0.9768249592631466</v>
       </c>
       <c r="D25">
-        <v>1.000088135891059</v>
+        <v>1.00008813589106</v>
       </c>
       <c r="E25">
-        <v>0.9555207196956477</v>
+        <v>0.9555207196956479</v>
       </c>
       <c r="F25">
-        <v>0.9582754125089066</v>
+        <v>0.9582754125089069</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1.012685083817347</v>
       </c>
       <c r="L25">
-        <v>0.9688511334838394</v>
+        <v>0.9688511334838397</v>
       </c>
       <c r="M25">
-        <v>0.9715579318089442</v>
+        <v>0.9715579318089446</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9864331151521115</v>
+        <v>0.986433115152111</v>
       </c>
       <c r="D2">
-        <v>1.007093495489572</v>
+        <v>1.007093495489571</v>
       </c>
       <c r="E2">
-        <v>0.9643766604313335</v>
+        <v>0.9643766604313332</v>
       </c>
       <c r="F2">
-        <v>0.9697098878858538</v>
+        <v>0.9697098878858534</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.009027322435355</v>
       </c>
       <c r="K2">
-        <v>1.018454883381927</v>
+        <v>1.018454883381926</v>
       </c>
       <c r="L2">
-        <v>0.9763556530245622</v>
+        <v>0.976355653024562</v>
       </c>
       <c r="M2">
-        <v>0.9816079879730967</v>
+        <v>0.9816079879730962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9930990775823241</v>
+        <v>0.9930990775823244</v>
       </c>
       <c r="D3">
         <v>1.01195861303945</v>
       </c>
       <c r="E3">
-        <v>0.9705511326409194</v>
+        <v>0.9705511326409191</v>
       </c>
       <c r="F3">
         <v>0.9776578369522162</v>
@@ -483,7 +483,7 @@
         <v>1.022440734021296</v>
       </c>
       <c r="L3">
-        <v>0.9815752198419233</v>
+        <v>0.981575219841923</v>
       </c>
       <c r="M3">
         <v>0.9885848035069384</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9972810948713011</v>
+        <v>0.9972810948713009</v>
       </c>
       <c r="D4">
         <v>1.015012341846508</v>
       </c>
       <c r="E4">
-        <v>0.9744387851031246</v>
+        <v>0.9744387851031245</v>
       </c>
       <c r="F4">
         <v>0.9826519685529912</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042360035835546</v>
+        <v>1.042360035835545</v>
       </c>
       <c r="J4">
         <v>1.016754607161394</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9990094402554404</v>
+        <v>0.9990094402554388</v>
       </c>
       <c r="D5">
-        <v>1.016274642304297</v>
+        <v>1.016274642304295</v>
       </c>
       <c r="E5">
-        <v>0.9760488244245767</v>
+        <v>0.976048824424576</v>
       </c>
       <c r="F5">
-        <v>0.9847179535250608</v>
+        <v>0.9847179535250596</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042911832548485</v>
+        <v>1.042911832548484</v>
       </c>
       <c r="J5">
-        <v>1.017982483887931</v>
+        <v>1.017982483887929</v>
       </c>
       <c r="K5">
-        <v>1.025960758590585</v>
+        <v>1.025960758590583</v>
       </c>
       <c r="L5">
-        <v>0.9862130757478321</v>
+        <v>0.9862130757478316</v>
       </c>
       <c r="M5">
-        <v>0.9947750568446572</v>
+        <v>0.9947750568446558</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9992979367883796</v>
+        <v>0.9992979367883803</v>
       </c>
       <c r="D6">
         <v>1.016485358292568</v>
       </c>
       <c r="E6">
-        <v>0.9763177701080308</v>
+        <v>0.9763177701080309</v>
       </c>
       <c r="F6">
-        <v>0.9850629308018171</v>
+        <v>0.9850629308018177</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043003708583595</v>
+        <v>1.043003708583596</v>
       </c>
       <c r="J6">
         <v>1.018187345529597</v>
       </c>
       <c r="K6">
-        <v>1.026132204629678</v>
+        <v>1.026132204629679</v>
       </c>
       <c r="L6">
-        <v>0.9864397134364019</v>
+        <v>0.9864397134364021</v>
       </c>
       <c r="M6">
-        <v>0.9950773388694214</v>
+        <v>0.9950773388694221</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9973043040067187</v>
+        <v>0.9973043040067191</v>
       </c>
       <c r="D7">
-        <v>1.015029291813485</v>
+        <v>1.015029291813486</v>
       </c>
       <c r="E7">
         <v>0.9744603923089431</v>
       </c>
       <c r="F7">
-        <v>0.9826797035754669</v>
+        <v>0.9826797035754672</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>1.024946706702796</v>
       </c>
       <c r="L7">
-        <v>0.9848740459959382</v>
+        <v>0.9848740459959383</v>
       </c>
       <c r="M7">
-        <v>0.9929886907192984</v>
+        <v>0.9929886907192985</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9887141405396095</v>
+        <v>0.9887141405396107</v>
       </c>
       <c r="D8">
-        <v>1.008757904111923</v>
+        <v>1.008757904111924</v>
       </c>
       <c r="E8">
-        <v>0.9664865462771784</v>
+        <v>0.9664865462771786</v>
       </c>
       <c r="F8">
-        <v>0.9724280237521071</v>
+        <v>0.9724280237521081</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.039592352142783</v>
       </c>
       <c r="J8">
-        <v>1.010654864857573</v>
+        <v>1.010654864857574</v>
       </c>
       <c r="K8">
-        <v>1.019820536582261</v>
+        <v>1.019820536582262</v>
       </c>
       <c r="L8">
-        <v>0.9781404648227562</v>
+        <v>0.9781404648227564</v>
       </c>
       <c r="M8">
-        <v>0.9839948973050858</v>
+        <v>0.9839948973050866</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9724888789463381</v>
+        <v>0.9724888789463404</v>
       </c>
       <c r="D9">
-        <v>0.996930097816515</v>
+        <v>0.9969300978165172</v>
       </c>
       <c r="E9">
-        <v>0.9515395531663697</v>
+        <v>0.9515395531663705</v>
       </c>
       <c r="F9">
-        <v>0.9531215097243818</v>
+        <v>0.9531215097243834</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03422492483644</v>
+        <v>1.034224924836441</v>
       </c>
       <c r="J9">
-        <v>0.9990519827172134</v>
+        <v>0.9990519827172157</v>
       </c>
       <c r="K9">
-        <v>1.010073179179845</v>
+        <v>1.010073179179847</v>
       </c>
       <c r="L9">
-        <v>0.9654710512524426</v>
+        <v>0.9654710512524434</v>
       </c>
       <c r="M9">
-        <v>0.9670238845870692</v>
+        <v>0.9670238845870708</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9608101585223032</v>
+        <v>0.9608101585223024</v>
       </c>
       <c r="D10">
-        <v>0.988437202780625</v>
+        <v>0.9884372027806241</v>
       </c>
       <c r="E10">
-        <v>0.940859693121602</v>
+        <v>0.9408596931216018</v>
       </c>
       <c r="F10">
-        <v>0.939253178234063</v>
+        <v>0.9392531782340623</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030280747401536</v>
+        <v>1.030280747401535</v>
       </c>
       <c r="J10">
-        <v>0.990669812091672</v>
+        <v>0.990669812091671</v>
       </c>
       <c r="K10">
-        <v>1.003018413297672</v>
+        <v>1.00301841329767</v>
       </c>
       <c r="L10">
-        <v>0.9563856676877738</v>
+        <v>0.9563856676877733</v>
       </c>
       <c r="M10">
-        <v>0.9548132676408292</v>
+        <v>0.9548132676408287</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9555145464815993</v>
+        <v>0.9555145464815998</v>
       </c>
       <c r="D11">
-        <v>0.984593222917485</v>
+        <v>0.9845932229174854</v>
       </c>
       <c r="E11">
-        <v>0.9360359814820469</v>
+        <v>0.9360359814820474</v>
       </c>
       <c r="F11">
-        <v>0.9329685808172656</v>
+        <v>0.9329685808172664</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.028474312209485</v>
       </c>
       <c r="J11">
-        <v>0.9868626663929547</v>
+        <v>0.9868626663929553</v>
       </c>
       <c r="K11">
-        <v>0.9998116571421044</v>
+        <v>0.9998116571421048</v>
       </c>
       <c r="L11">
-        <v>0.9522741354348967</v>
+        <v>0.9522741354348975</v>
       </c>
       <c r="M11">
-        <v>0.9492759089563905</v>
+        <v>0.9492759089563914</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9535082888733117</v>
+        <v>0.9535082888733104</v>
       </c>
       <c r="D12">
-        <v>0.9831381839381138</v>
+        <v>0.9831381839381125</v>
       </c>
       <c r="E12">
-        <v>0.934211380279049</v>
+        <v>0.9342113802790488</v>
       </c>
       <c r="F12">
-        <v>0.9305879432053228</v>
+        <v>0.9305879432053218</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027787349545905</v>
+        <v>1.027787349545904</v>
       </c>
       <c r="J12">
-        <v>0.9854194561827456</v>
+        <v>0.9854194561827444</v>
       </c>
       <c r="K12">
-        <v>0.9985957201137058</v>
+        <v>0.9985957201137043</v>
       </c>
       <c r="L12">
-        <v>0.9507177036778922</v>
+        <v>0.9507177036778918</v>
       </c>
       <c r="M12">
-        <v>0.947177808036577</v>
+        <v>0.9471778080365759</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9539404724315005</v>
+        <v>0.9539404724315002</v>
       </c>
       <c r="D13">
-        <v>0.9834515646751862</v>
+        <v>0.9834515646751861</v>
       </c>
       <c r="E13">
         <v>0.9346043016426049</v>
       </c>
       <c r="F13">
-        <v>0.931100766297156</v>
+        <v>0.9311007662971559</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.027935448472331</v>
       </c>
       <c r="J13">
-        <v>0.9857303867369089</v>
+        <v>0.9857303867369085</v>
       </c>
       <c r="K13">
-        <v>0.9988576996843275</v>
+        <v>0.9988576996843274</v>
       </c>
       <c r="L13">
         <v>0.9510529309369741</v>
       </c>
       <c r="M13">
-        <v>0.9476297909048629</v>
+        <v>0.9476297909048628</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553495300530145</v>
+        <v>0.9553495300530138</v>
       </c>
       <c r="D14">
-        <v>0.9844735178327422</v>
+        <v>0.9844735178327416</v>
       </c>
       <c r="E14">
-        <v>0.9358858480096565</v>
+        <v>0.935885848009656</v>
       </c>
       <c r="F14">
-        <v>0.9327727669935002</v>
+        <v>0.9327727669934998</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.028417860751285</v>
       </c>
       <c r="J14">
-        <v>0.9867439780478211</v>
+        <v>0.9867439780478207</v>
       </c>
       <c r="K14">
-        <v>0.9997116657371533</v>
+        <v>0.9997116657371531</v>
       </c>
       <c r="L14">
-        <v>0.9521460925117288</v>
+        <v>0.9521460925117283</v>
       </c>
       <c r="M14">
-        <v>0.9491033446235638</v>
+        <v>0.9491033446235634</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -918,10 +918,10 @@
         <v>0.9562123897200155</v>
       </c>
       <c r="D15">
-        <v>0.9850995001744276</v>
+        <v>0.9850995001744277</v>
       </c>
       <c r="E15">
-        <v>0.9366710026857629</v>
+        <v>0.9366710026857631</v>
       </c>
       <c r="F15">
         <v>0.9337966745471047</v>
@@ -939,10 +939,10 @@
         <v>1.000234472187693</v>
       </c>
       <c r="L15">
-        <v>0.9528156704143012</v>
+        <v>0.9528156704143015</v>
       </c>
       <c r="M15">
-        <v>0.950005660242443</v>
+        <v>0.9500056602424432</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9611563045539718</v>
+        <v>0.9611563045539719</v>
       </c>
       <c r="D16">
-        <v>0.9886886257817172</v>
+        <v>0.9886886257817176</v>
       </c>
       <c r="E16">
-        <v>0.9411753879433351</v>
+        <v>0.9411753879433353</v>
       </c>
       <c r="F16">
-        <v>0.9396640263170392</v>
+        <v>0.9396640263170395</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.03039846182123</v>
       </c>
       <c r="J16">
-        <v>0.9909185414001321</v>
+        <v>0.9909185414001324</v>
       </c>
       <c r="K16">
-        <v>1.00322787043507</v>
+        <v>1.003227870435071</v>
       </c>
       <c r="L16">
-        <v>0.9566545860721254</v>
+        <v>0.9566545860721255</v>
       </c>
       <c r="M16">
-        <v>0.9551751898245848</v>
+        <v>0.955175189824585</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9641913502437798</v>
+        <v>0.9641913502437791</v>
       </c>
       <c r="D17">
-        <v>0.9908939466779981</v>
+        <v>0.9908939466779978</v>
       </c>
       <c r="E17">
         <v>0.9439455758489279</v>
       </c>
       <c r="F17">
-        <v>0.9432667936532922</v>
+        <v>0.9432667936532921</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031428580108301</v>
       </c>
       <c r="J17">
-        <v>0.9930987236362488</v>
+        <v>0.9930987236362484</v>
       </c>
       <c r="K17">
-        <v>1.005063544310875</v>
+        <v>1.005063544310874</v>
       </c>
       <c r="L17">
-        <v>0.9590134116735451</v>
+        <v>0.9590134116735454</v>
       </c>
       <c r="M17">
-        <v>0.9583484810519145</v>
+        <v>0.9583484810519143</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9659388651955405</v>
+        <v>0.9659388651955393</v>
       </c>
       <c r="D18">
-        <v>0.9921643708534662</v>
+        <v>0.9921643708534654</v>
       </c>
       <c r="E18">
-        <v>0.9455423703776067</v>
+        <v>0.9455423703776065</v>
       </c>
       <c r="F18">
-        <v>0.9453415744139916</v>
+        <v>0.9453415744139908</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032020005090739</v>
       </c>
       <c r="J18">
-        <v>0.9943534267236169</v>
+        <v>0.9943534267236159</v>
       </c>
       <c r="K18">
-        <v>1.00611974222482</v>
+        <v>1.006119742224819</v>
       </c>
       <c r="L18">
-        <v>0.9603723380952222</v>
+        <v>0.960372338095222</v>
       </c>
       <c r="M18">
-        <v>0.9601755543588765</v>
+        <v>0.9601755543588758</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9665309549113743</v>
+        <v>0.9665309549113736</v>
       </c>
       <c r="D19">
-        <v>0.9925949176357022</v>
+        <v>0.9925949176357018</v>
       </c>
       <c r="E19">
-        <v>0.9460836943710809</v>
+        <v>0.9460836943710808</v>
       </c>
       <c r="F19">
-        <v>0.946044620507533</v>
+        <v>0.9460446205075328</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.03222009985566</v>
       </c>
       <c r="J19">
-        <v>0.9947784386714787</v>
+        <v>0.9947784386714782</v>
       </c>
       <c r="K19">
-        <v>1.006477471360399</v>
+        <v>1.006477471360398</v>
       </c>
       <c r="L19">
-        <v>0.9608328964231527</v>
+        <v>0.9608328964231526</v>
       </c>
       <c r="M19">
-        <v>0.9607945977137869</v>
+        <v>0.9607945977137866</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9638680973701512</v>
+        <v>0.9638680973701502</v>
       </c>
       <c r="D20">
-        <v>0.9906589964471212</v>
+        <v>0.9906589964471202</v>
       </c>
       <c r="E20">
-        <v>0.9436503470146217</v>
+        <v>0.9436503470146211</v>
       </c>
       <c r="F20">
-        <v>0.9428830365673536</v>
+        <v>0.9428830365673525</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0313190410145</v>
+        <v>1.031319041014499</v>
       </c>
       <c r="J20">
-        <v>0.9928665812311503</v>
+        <v>0.9928665812311492</v>
       </c>
       <c r="K20">
         <v>1.004868109125924</v>
       </c>
       <c r="L20">
-        <v>0.9587621012583796</v>
+        <v>0.9587621012583788</v>
       </c>
       <c r="M20">
-        <v>0.9580105094426212</v>
+        <v>0.9580105094426203</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9549357100771172</v>
+        <v>0.9549357100771185</v>
       </c>
       <c r="D21">
-        <v>0.9841733484338874</v>
+        <v>0.9841733484338888</v>
       </c>
       <c r="E21">
-        <v>0.9355093970838233</v>
+        <v>0.9355093970838236</v>
       </c>
       <c r="F21">
-        <v>0.9322817186348682</v>
+        <v>0.9322817186348692</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028276253366296</v>
+        <v>1.028276253366297</v>
       </c>
       <c r="J21">
-        <v>0.9864463237818164</v>
+        <v>0.9864463237818176</v>
       </c>
       <c r="K21">
-        <v>0.999460895880105</v>
+        <v>0.9994608958801063</v>
       </c>
       <c r="L21">
-        <v>0.9518250127143577</v>
+        <v>0.951825012714358</v>
       </c>
       <c r="M21">
-        <v>0.9486705916286727</v>
+        <v>0.9486705916286738</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9490905622921542</v>
+        <v>0.9490905622921559</v>
       </c>
       <c r="D22">
-        <v>0.9799368042862658</v>
+        <v>0.9799368042862673</v>
       </c>
       <c r="E22">
-        <v>0.9301989924318986</v>
+        <v>0.9301989924318991</v>
       </c>
       <c r="F22">
-        <v>0.9253460451525007</v>
+        <v>0.9253460451525016</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02627002915365</v>
+        <v>1.026270029153651</v>
       </c>
       <c r="J22">
-        <v>0.9822400582949522</v>
+        <v>0.9822400582949536</v>
       </c>
       <c r="K22">
-        <v>0.9959164771758777</v>
+        <v>0.9959164771758789</v>
       </c>
       <c r="L22">
-        <v>0.9472927681895519</v>
+        <v>0.9472927681895525</v>
       </c>
       <c r="M22">
-        <v>0.9425571563311121</v>
+        <v>0.9425571563311131</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9522121431139855</v>
+        <v>0.9522121431139849</v>
       </c>
       <c r="D23">
-        <v>0.9821985375171648</v>
+        <v>0.9821985375171641</v>
       </c>
       <c r="E23">
-        <v>0.9330334078447416</v>
+        <v>0.9330334078447413</v>
       </c>
       <c r="F23">
-        <v>0.929049974299373</v>
+        <v>0.9290499742993722</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027342821080241</v>
+        <v>1.02734282108024</v>
       </c>
       <c r="J23">
-        <v>0.9844868366460494</v>
+        <v>0.9844868366460489</v>
       </c>
       <c r="K23">
-        <v>0.9978098837531282</v>
+        <v>0.9978098837531276</v>
       </c>
       <c r="L23">
-        <v>0.9497125174883109</v>
+        <v>0.9497125174883106</v>
       </c>
       <c r="M23">
-        <v>0.9458222305036891</v>
+        <v>0.9458222305036884</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9640142315635953</v>
+        <v>0.9640142315635957</v>
       </c>
       <c r="D24">
-        <v>0.9907652093230156</v>
+        <v>0.9907652093230159</v>
       </c>
       <c r="E24">
         <v>0.9437838067447987</v>
       </c>
       <c r="F24">
-        <v>0.9430565219244663</v>
+        <v>0.9430565219244668</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.031368566057687</v>
       </c>
       <c r="J24">
-        <v>0.9929715286275911</v>
+        <v>0.9929715286275913</v>
       </c>
       <c r="K24">
         <v>1.004956462597674</v>
       </c>
       <c r="L24">
-        <v>0.9588757097674681</v>
+        <v>0.9588757097674682</v>
       </c>
       <c r="M24">
-        <v>0.9581632977059436</v>
+        <v>0.958163297705944</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9768249592631466</v>
+        <v>0.9768249592631462</v>
       </c>
       <c r="D25">
-        <v>1.00008813589106</v>
+        <v>1.000088135891059</v>
       </c>
       <c r="E25">
-        <v>0.9555207196956479</v>
+        <v>0.9555207196956477</v>
       </c>
       <c r="F25">
-        <v>0.9582754125089069</v>
+        <v>0.9582754125089066</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1.012685083817347</v>
       </c>
       <c r="L25">
-        <v>0.9688511334838397</v>
+        <v>0.9688511334838394</v>
       </c>
       <c r="M25">
-        <v>0.9715579318089446</v>
+        <v>0.9715579318089442</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.986433115152111</v>
+        <v>0.9864396470066992</v>
       </c>
       <c r="D2">
-        <v>1.007093495489571</v>
+        <v>1.007098759050179</v>
       </c>
       <c r="E2">
-        <v>0.9643766604313332</v>
+        <v>0.9643808893886415</v>
       </c>
       <c r="F2">
-        <v>0.9697098878858534</v>
+        <v>0.9697150670128065</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038847014386175</v>
+        <v>1.038849975376788</v>
       </c>
       <c r="J2">
-        <v>1.009027322435355</v>
+        <v>1.00903365142909</v>
       </c>
       <c r="K2">
-        <v>1.018454883381926</v>
+        <v>1.018460074908546</v>
       </c>
       <c r="L2">
-        <v>0.976355653024562</v>
+        <v>0.9763598173865222</v>
       </c>
       <c r="M2">
-        <v>0.9816079879730962</v>
+        <v>0.9816130890955412</v>
+      </c>
+      <c r="N2">
+        <v>1.00833221239599</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9930990775823244</v>
+        <v>0.9931022511159064</v>
       </c>
       <c r="D3">
-        <v>1.01195861303945</v>
+        <v>1.011961272360181</v>
       </c>
       <c r="E3">
-        <v>0.9705511326409191</v>
+        <v>0.9705539966385576</v>
       </c>
       <c r="F3">
-        <v>0.9776578369522162</v>
+        <v>0.9776604974781196</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041015483944701</v>
+        <v>1.041016976222654</v>
       </c>
       <c r="J3">
-        <v>1.013779653059174</v>
+        <v>1.013782738430611</v>
       </c>
       <c r="K3">
-        <v>1.022440734021296</v>
+        <v>1.022443360310144</v>
       </c>
       <c r="L3">
-        <v>0.981575219841923</v>
+        <v>0.9815780443389208</v>
       </c>
       <c r="M3">
-        <v>0.9885848035069384</v>
+        <v>0.9885874280065291</v>
+      </c>
+      <c r="N3">
+        <v>1.011569734910791</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9972810948713009</v>
+        <v>0.9972821946943753</v>
       </c>
       <c r="D4">
-        <v>1.015012341846508</v>
+        <v>1.015013389020734</v>
       </c>
       <c r="E4">
-        <v>0.9744387851031245</v>
+        <v>0.9744408174642384</v>
       </c>
       <c r="F4">
-        <v>0.9826519685529912</v>
+        <v>0.9826530837896452</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042360035835545</v>
+        <v>1.042360617016351</v>
       </c>
       <c r="J4">
-        <v>1.016754607161394</v>
+        <v>1.016755678642917</v>
       </c>
       <c r="K4">
-        <v>1.024932895612811</v>
+        <v>1.024933930606706</v>
       </c>
       <c r="L4">
-        <v>0.9848558258251097</v>
+        <v>0.984857832022474</v>
       </c>
       <c r="M4">
-        <v>0.9929643787898179</v>
+        <v>0.9929654799672897</v>
+      </c>
+      <c r="N4">
+        <v>1.013595740813875</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9990094402554388</v>
+        <v>0.9990096900874686</v>
       </c>
       <c r="D5">
-        <v>1.016274642304295</v>
+        <v>1.016275027809485</v>
       </c>
       <c r="E5">
-        <v>0.976048824424576</v>
+        <v>0.9760505184340896</v>
       </c>
       <c r="F5">
-        <v>0.9847179535250596</v>
+        <v>0.9847184375078064</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042911832548484</v>
+        <v>1.042912039352173</v>
       </c>
       <c r="J5">
-        <v>1.017982483887929</v>
+        <v>1.017982727487136</v>
       </c>
       <c r="K5">
-        <v>1.025960758590583</v>
+        <v>1.025961139737206</v>
       </c>
       <c r="L5">
-        <v>0.9862130757478316</v>
+        <v>0.9862147485881473</v>
       </c>
       <c r="M5">
-        <v>0.9947750568446558</v>
+        <v>0.9947755349109979</v>
+      </c>
+      <c r="N5">
+        <v>1.014431778250384</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9992979367883803</v>
+        <v>0.9992980451276505</v>
       </c>
       <c r="D6">
-        <v>1.016485358292568</v>
+        <v>1.016485633605676</v>
       </c>
       <c r="E6">
-        <v>0.9763177701080309</v>
+        <v>0.9763194079385717</v>
       </c>
       <c r="F6">
-        <v>0.9850629308018177</v>
+        <v>0.9850633098233978</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043003708583596</v>
+        <v>1.043003853014507</v>
       </c>
       <c r="J6">
-        <v>1.018187345529597</v>
+        <v>1.0181874511808</v>
       </c>
       <c r="K6">
-        <v>1.026132204629679</v>
+        <v>1.02613247684501</v>
       </c>
       <c r="L6">
-        <v>0.9864397134364021</v>
+        <v>0.9864413309026349</v>
       </c>
       <c r="M6">
-        <v>0.9950773388694221</v>
+        <v>0.995077713281767</v>
+      </c>
+      <c r="N6">
+        <v>1.014571254173683</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9973043040067191</v>
+        <v>0.9973053923889851</v>
       </c>
       <c r="D7">
-        <v>1.015029291813486</v>
+        <v>1.015030330085013</v>
       </c>
       <c r="E7">
-        <v>0.9744603923089431</v>
+        <v>0.9744624201060403</v>
       </c>
       <c r="F7">
-        <v>0.9826797035754672</v>
+        <v>0.9826808103072792</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042367461105821</v>
+        <v>1.042368037251131</v>
       </c>
       <c r="J7">
-        <v>1.016771102191832</v>
+        <v>1.016772162539411</v>
       </c>
       <c r="K7">
-        <v>1.024946706702796</v>
+        <v>1.024947732902086</v>
       </c>
       <c r="L7">
-        <v>0.9848740459959383</v>
+        <v>0.9848760476983293</v>
       </c>
       <c r="M7">
-        <v>0.9929886907192985</v>
+        <v>0.99298978350484</v>
+      </c>
+      <c r="N7">
+        <v>1.0136069726542</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9887141405396107</v>
+        <v>0.9887195155939933</v>
       </c>
       <c r="D8">
-        <v>1.008757904111924</v>
+        <v>1.008762271561205</v>
       </c>
       <c r="E8">
-        <v>0.9664865462771786</v>
+        <v>0.9664903025656378</v>
       </c>
       <c r="F8">
-        <v>0.9724280237521081</v>
+        <v>0.9724323330580465</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039592352142783</v>
+        <v>1.03959480816836</v>
       </c>
       <c r="J8">
-        <v>1.010654864857574</v>
+        <v>1.010660079057401</v>
       </c>
       <c r="K8">
-        <v>1.019820536582262</v>
+        <v>1.019824846154068</v>
       </c>
       <c r="L8">
-        <v>0.9781404648227564</v>
+        <v>0.978144165650625</v>
       </c>
       <c r="M8">
-        <v>0.9839948973050866</v>
+        <v>0.9839991439675247</v>
+      </c>
+      <c r="N8">
+        <v>1.009441112758975</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9724888789463404</v>
+        <v>0.9725026715194831</v>
       </c>
       <c r="D9">
-        <v>0.9969300978165172</v>
+        <v>0.9969409622903663</v>
       </c>
       <c r="E9">
-        <v>0.9515395531663705</v>
+        <v>0.9515468070398547</v>
       </c>
       <c r="F9">
-        <v>0.9531215097243834</v>
+        <v>0.9531322044244539</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034224924836441</v>
+        <v>1.03423103274651</v>
       </c>
       <c r="J9">
-        <v>0.9990519827172157</v>
+        <v>0.9990652485324503</v>
       </c>
       <c r="K9">
-        <v>1.010073179179847</v>
+        <v>1.010083865989552</v>
       </c>
       <c r="L9">
-        <v>0.9654710512524434</v>
+        <v>0.9654781712968347</v>
       </c>
       <c r="M9">
-        <v>0.9670238845870708</v>
+        <v>0.9670343828303108</v>
+      </c>
+      <c r="N9">
+        <v>1.001533123619578</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9608101585223024</v>
+        <v>0.9608303139468941</v>
       </c>
       <c r="D10">
-        <v>0.9884372027806241</v>
+        <v>0.9884529404334038</v>
       </c>
       <c r="E10">
-        <v>0.9408596931216018</v>
+        <v>0.9408696776400064</v>
       </c>
       <c r="F10">
-        <v>0.9392531782340623</v>
+        <v>0.9392687890270967</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030280747401535</v>
+        <v>1.030289581433408</v>
       </c>
       <c r="J10">
-        <v>0.990669812091671</v>
+        <v>0.9906890714547163</v>
       </c>
       <c r="K10">
-        <v>1.00301841329767</v>
+        <v>1.003033858069032</v>
       </c>
       <c r="L10">
-        <v>0.9563856676877733</v>
+        <v>0.9563954406641437</v>
       </c>
       <c r="M10">
-        <v>0.9548132676408287</v>
+        <v>0.9548285461900377</v>
+      </c>
+      <c r="N10">
+        <v>0.9958174413480789</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9555145464815998</v>
+        <v>0.9555376830780186</v>
       </c>
       <c r="D11">
-        <v>0.9845932229174854</v>
+        <v>0.9846112320161141</v>
       </c>
       <c r="E11">
-        <v>0.9360359814820474</v>
+        <v>0.9360472702503242</v>
       </c>
       <c r="F11">
-        <v>0.9329685808172664</v>
+        <v>0.9329865224834583</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028474312209485</v>
+        <v>1.028484413449891</v>
       </c>
       <c r="J11">
-        <v>0.9868626663929553</v>
+        <v>0.9868847066205849</v>
       </c>
       <c r="K11">
-        <v>0.9998116571421048</v>
+        <v>0.9998293125274504</v>
       </c>
       <c r="L11">
-        <v>0.9522741354348975</v>
+        <v>0.9522851707414889</v>
       </c>
       <c r="M11">
-        <v>0.9492759089563914</v>
+        <v>0.9492934442485723</v>
+      </c>
+      <c r="N11">
+        <v>0.9932209141882109</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9535082888733104</v>
+        <v>0.9535325717685987</v>
       </c>
       <c r="D12">
-        <v>0.9831381839381125</v>
+        <v>0.9831570643965786</v>
       </c>
       <c r="E12">
-        <v>0.9342113802790488</v>
+        <v>0.9342231747064461</v>
       </c>
       <c r="F12">
-        <v>0.9305879432053218</v>
+        <v>0.9306067859014153</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027787349545904</v>
+        <v>1.02779793635023</v>
       </c>
       <c r="J12">
-        <v>0.9854194561827444</v>
+        <v>0.9854425610926346</v>
       </c>
       <c r="K12">
-        <v>0.9985957201137043</v>
+        <v>0.9986142223519934</v>
       </c>
       <c r="L12">
-        <v>0.9507177036778918</v>
+        <v>0.950729227588219</v>
       </c>
       <c r="M12">
-        <v>0.9471778080365759</v>
+        <v>0.9471962140475191</v>
+      </c>
+      <c r="N12">
+        <v>0.992236567114031</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9539404724315002</v>
+        <v>0.9539645075883614</v>
       </c>
       <c r="D13">
-        <v>0.9834515646751861</v>
+        <v>0.9834702569117176</v>
       </c>
       <c r="E13">
-        <v>0.9346043016426049</v>
+        <v>0.9346159865921635</v>
       </c>
       <c r="F13">
-        <v>0.9311007662971559</v>
+        <v>0.9311194140358886</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027935448472331</v>
+        <v>1.027945930415896</v>
       </c>
       <c r="J13">
-        <v>0.9857303867369085</v>
+        <v>0.9857532617628123</v>
       </c>
       <c r="K13">
-        <v>0.9988576996843274</v>
+        <v>0.9988760190488134</v>
       </c>
       <c r="L13">
-        <v>0.9510529309369741</v>
+        <v>0.9510643490995466</v>
       </c>
       <c r="M13">
-        <v>0.9476297909048628</v>
+        <v>0.9476480085946765</v>
+      </c>
+      <c r="N13">
+        <v>0.9924486408057498</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553495300530138</v>
+        <v>0.9553727605758737</v>
       </c>
       <c r="D14">
-        <v>0.9844735178327416</v>
+        <v>0.9844915983724545</v>
       </c>
       <c r="E14">
-        <v>0.935885848009656</v>
+        <v>0.9358971781245535</v>
       </c>
       <c r="F14">
-        <v>0.9327727669934998</v>
+        <v>0.9327907823886337</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028417860751285</v>
+        <v>1.028428001813553</v>
       </c>
       <c r="J14">
-        <v>0.9867439780478207</v>
+        <v>0.986766105610057</v>
       </c>
       <c r="K14">
-        <v>0.9997116657371531</v>
+        <v>0.9997293905785457</v>
       </c>
       <c r="L14">
-        <v>0.9521460925117283</v>
+        <v>0.952157167787011</v>
       </c>
       <c r="M14">
-        <v>0.9491033446235634</v>
+        <v>0.9491209511989058</v>
+      </c>
+      <c r="N14">
+        <v>0.9931399634096583</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9562123897200155</v>
+        <v>0.9562351298090577</v>
       </c>
       <c r="D15">
-        <v>0.9850995001744277</v>
+        <v>0.9851172076027978</v>
       </c>
       <c r="E15">
-        <v>0.9366710026857631</v>
+        <v>0.9366821170811938</v>
       </c>
       <c r="F15">
-        <v>0.9337966745471047</v>
+        <v>0.9338143051660102</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02871293706893</v>
+        <v>1.028722870133112</v>
       </c>
       <c r="J15">
-        <v>0.9873645568330168</v>
+        <v>0.9873862281918467</v>
       </c>
       <c r="K15">
-        <v>1.000234472187693</v>
+        <v>1.000251834236954</v>
       </c>
       <c r="L15">
-        <v>0.9528156704143015</v>
+        <v>0.9528265371264304</v>
       </c>
       <c r="M15">
-        <v>0.9500056602424432</v>
+        <v>0.9500228947377226</v>
+      </c>
+      <c r="N15">
+        <v>0.9935632237665816</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9611563045539719</v>
+        <v>0.9611762672965571</v>
       </c>
       <c r="D16">
-        <v>0.9886886257817176</v>
+        <v>0.9887042163624352</v>
       </c>
       <c r="E16">
-        <v>0.9411753879433353</v>
+        <v>0.9411852887048758</v>
       </c>
       <c r="F16">
-        <v>0.9396640263170395</v>
+        <v>0.93967948707135</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03039846182123</v>
+        <v>1.030407213729917</v>
       </c>
       <c r="J16">
-        <v>0.9909185414001324</v>
+        <v>0.9909376204313094</v>
       </c>
       <c r="K16">
-        <v>1.003227870435071</v>
+        <v>1.003243171919314</v>
       </c>
       <c r="L16">
-        <v>0.9566545860721255</v>
+        <v>0.9566642778799591</v>
       </c>
       <c r="M16">
-        <v>0.955175189824585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9551903228938613</v>
+      </c>
+      <c r="N16">
+        <v>0.9959870694660005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9641913502437791</v>
+        <v>0.9642096345986486</v>
       </c>
       <c r="D17">
-        <v>0.9908939466779978</v>
+        <v>0.9909082548320458</v>
       </c>
       <c r="E17">
-        <v>0.9439455758489279</v>
+        <v>0.9439547498292271</v>
       </c>
       <c r="F17">
-        <v>0.9432667936532921</v>
+        <v>0.9432809505858228</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031428580108301</v>
+        <v>1.031436615537154</v>
       </c>
       <c r="J17">
-        <v>0.9930987236362484</v>
+        <v>0.9931162287838663</v>
       </c>
       <c r="K17">
-        <v>1.005063544310874</v>
+        <v>1.00507759556949</v>
       </c>
       <c r="L17">
-        <v>0.9590134116735454</v>
+        <v>0.9590223986248041</v>
       </c>
       <c r="M17">
-        <v>0.9583484810519143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9583623488225056</v>
+      </c>
+      <c r="N17">
+        <v>0.9974738542752378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9659388651955393</v>
+        <v>0.965956192000465</v>
       </c>
       <c r="D18">
-        <v>0.9921643708534654</v>
+        <v>0.9921779462963292</v>
       </c>
       <c r="E18">
-        <v>0.9455423703776065</v>
+        <v>0.9455511319739819</v>
       </c>
       <c r="F18">
-        <v>0.9453415744139908</v>
+        <v>0.9453549899817398</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032020005090739</v>
+        <v>1.032027630842966</v>
       </c>
       <c r="J18">
-        <v>0.9943534267236159</v>
+        <v>0.9943700314676401</v>
       </c>
       <c r="K18">
-        <v>1.006119742224819</v>
+        <v>1.006133078519241</v>
       </c>
       <c r="L18">
-        <v>0.960372338095222</v>
+        <v>0.9603809246717973</v>
       </c>
       <c r="M18">
-        <v>0.9601755543588758</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9601887017920547</v>
+      </c>
+      <c r="N18">
+        <v>0.9983294575763176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9665309549113736</v>
+        <v>0.9665479587130095</v>
       </c>
       <c r="D19">
-        <v>0.9925949176357018</v>
+        <v>0.9926082457452533</v>
       </c>
       <c r="E19">
-        <v>0.9460836943710808</v>
+        <v>0.9460923172327799</v>
       </c>
       <c r="F19">
-        <v>0.9460446205075328</v>
+        <v>0.946057786401398</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03222009985566</v>
+        <v>1.032227587264879</v>
       </c>
       <c r="J19">
-        <v>0.9947784386714782</v>
+        <v>0.9947947392826397</v>
       </c>
       <c r="K19">
-        <v>1.006477471360398</v>
+        <v>1.006490566204514</v>
       </c>
       <c r="L19">
-        <v>0.9608328964231526</v>
+        <v>0.960841348234294</v>
       </c>
       <c r="M19">
-        <v>0.9607945977137866</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9608075024108668</v>
+      </c>
+      <c r="N19">
+        <v>0.9986192720098344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9638680973701502</v>
+        <v>0.9638865595507432</v>
       </c>
       <c r="D20">
-        <v>0.9906589964471202</v>
+        <v>0.9906734405874548</v>
       </c>
       <c r="E20">
-        <v>0.9436503470146211</v>
+        <v>0.943659597759388</v>
       </c>
       <c r="F20">
-        <v>0.9428830365673525</v>
+        <v>0.9428973313764949</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031319041014499</v>
+        <v>1.031327152450978</v>
       </c>
       <c r="J20">
-        <v>0.9928665812311492</v>
+        <v>0.9928842533937203</v>
       </c>
       <c r="K20">
-        <v>1.004868109125924</v>
+        <v>1.004882293024827</v>
       </c>
       <c r="L20">
-        <v>0.9587621012583788</v>
+        <v>0.9587711627039638</v>
       </c>
       <c r="M20">
-        <v>0.9580105094426203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9580245111089415</v>
+      </c>
+      <c r="N20">
+        <v>0.9973155485198661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9549357100771185</v>
+        <v>0.9549591764243652</v>
       </c>
       <c r="D21">
-        <v>0.9841733484338888</v>
+        <v>0.9841916083095604</v>
       </c>
       <c r="E21">
-        <v>0.9355093970838236</v>
+        <v>0.9355208310772575</v>
       </c>
       <c r="F21">
-        <v>0.9322817186348692</v>
+        <v>0.9322999192227174</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028276253366297</v>
+        <v>1.028286494382913</v>
       </c>
       <c r="J21">
-        <v>0.9864463237818176</v>
+        <v>0.9864686705427118</v>
       </c>
       <c r="K21">
-        <v>0.9994608958801063</v>
+        <v>0.9994787950553774</v>
       </c>
       <c r="L21">
-        <v>0.951825012714358</v>
+        <v>0.9518361883931648</v>
       </c>
       <c r="M21">
-        <v>0.9486705916286738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9486883772262478</v>
+      </c>
+      <c r="N21">
+        <v>0.9929369489766029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9490905622921559</v>
+        <v>0.9491174035612349</v>
       </c>
       <c r="D22">
-        <v>0.9799368042862673</v>
+        <v>0.9799576253652434</v>
       </c>
       <c r="E22">
-        <v>0.9301989924318991</v>
+        <v>0.9302119236767469</v>
       </c>
       <c r="F22">
-        <v>0.9253460451525016</v>
+        <v>0.9253669085121337</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026270029153651</v>
+        <v>1.026281696292399</v>
       </c>
       <c r="J22">
-        <v>0.9822400582949536</v>
+        <v>0.982265530276932</v>
       </c>
       <c r="K22">
-        <v>0.9959164771758789</v>
+        <v>0.9959368631632618</v>
       </c>
       <c r="L22">
-        <v>0.9472927681895525</v>
+        <v>0.9473053889763631</v>
       </c>
       <c r="M22">
-        <v>0.9425571563311131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9425775117099597</v>
+      </c>
+      <c r="N22">
+        <v>0.9900679599895417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9522121431139849</v>
+        <v>0.9522371716793515</v>
       </c>
       <c r="D23">
-        <v>0.9821985375171641</v>
+        <v>0.9822179841841748</v>
       </c>
       <c r="E23">
-        <v>0.9330334078447413</v>
+        <v>0.9330455324366426</v>
       </c>
       <c r="F23">
-        <v>0.9290499742993722</v>
+        <v>0.9290694045557938</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02734282108024</v>
+        <v>1.027353723241965</v>
       </c>
       <c r="J23">
-        <v>0.9844868366460489</v>
+        <v>0.9845106327702953</v>
       </c>
       <c r="K23">
-        <v>0.9978098837531276</v>
+        <v>0.9978289359318918</v>
       </c>
       <c r="L23">
-        <v>0.9497125174883106</v>
+        <v>0.9497243601893044</v>
       </c>
       <c r="M23">
-        <v>0.9458222305036884</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9458412038158435</v>
+      </c>
+      <c r="N23">
+        <v>0.9916004563640359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9640142315635957</v>
+        <v>0.9640326133265584</v>
       </c>
       <c r="D24">
-        <v>0.9907652093230159</v>
+        <v>0.9907795919699511</v>
       </c>
       <c r="E24">
-        <v>0.9437838067447987</v>
+        <v>0.9437930227675727</v>
       </c>
       <c r="F24">
-        <v>0.9430565219244668</v>
+        <v>0.9430707543743366</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031368566057687</v>
+        <v>1.031376643124282</v>
       </c>
       <c r="J24">
-        <v>0.9929715286275913</v>
+        <v>0.9929891252691407</v>
       </c>
       <c r="K24">
-        <v>1.004956462597674</v>
+        <v>1.004970586518271</v>
       </c>
       <c r="L24">
-        <v>0.9588757097674682</v>
+        <v>0.9588847375192292</v>
       </c>
       <c r="M24">
-        <v>0.958163297705944</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9581772388162051</v>
+      </c>
+      <c r="N24">
+        <v>0.9973871158451582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9768249592631462</v>
+        <v>0.9768364574191867</v>
       </c>
       <c r="D25">
-        <v>1.000088135891059</v>
+        <v>1.000097234949672</v>
       </c>
       <c r="E25">
-        <v>0.9555207196956477</v>
+        <v>0.955527007002</v>
       </c>
       <c r="F25">
-        <v>0.9582754125089066</v>
+        <v>0.9582843536361944</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035673418017954</v>
+        <v>1.035678535671467</v>
       </c>
       <c r="J25">
-        <v>1.00215824379065</v>
+        <v>1.002169328789428</v>
       </c>
       <c r="K25">
-        <v>1.012685083817347</v>
+        <v>1.012694041658245</v>
       </c>
       <c r="L25">
-        <v>0.9688511334838394</v>
+        <v>0.9688573110687114</v>
       </c>
       <c r="M25">
-        <v>0.9715579318089442</v>
+        <v>0.9715667180613394</v>
+      </c>
+      <c r="N25">
+        <v>1.003650731235195</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9864396470066992</v>
+        <v>1.03920470863941</v>
       </c>
       <c r="D2">
-        <v>1.007098759050179</v>
+        <v>1.055147131816814</v>
       </c>
       <c r="E2">
-        <v>0.9643808893886415</v>
+        <v>1.038817101764618</v>
       </c>
       <c r="F2">
-        <v>0.9697150670128065</v>
+        <v>1.056871988856567</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038849975376788</v>
+        <v>1.066971595225926</v>
       </c>
       <c r="J2">
-        <v>1.00903365142909</v>
+        <v>1.060272865133264</v>
       </c>
       <c r="K2">
-        <v>1.018460074908546</v>
+        <v>1.065888142950905</v>
       </c>
       <c r="L2">
-        <v>0.9763598173865222</v>
+        <v>1.049760897179343</v>
       </c>
       <c r="M2">
-        <v>0.9816130890955412</v>
+        <v>1.067592035572645</v>
       </c>
       <c r="N2">
-        <v>1.00833221239599</v>
+        <v>1.061778574216751</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9931022511159064</v>
+        <v>1.047794198248355</v>
       </c>
       <c r="D3">
-        <v>1.011961272360181</v>
+        <v>1.062078389280954</v>
       </c>
       <c r="E3">
-        <v>0.9705539966385576</v>
+        <v>1.046042279674604</v>
       </c>
       <c r="F3">
-        <v>0.9776604974781196</v>
+        <v>1.064301724058669</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041016976222654</v>
+        <v>1.070447726195451</v>
       </c>
       <c r="J3">
-        <v>1.013782738430611</v>
+        <v>1.067061629947353</v>
       </c>
       <c r="K3">
-        <v>1.022443360310144</v>
+        <v>1.071974113266929</v>
       </c>
       <c r="L3">
-        <v>0.9815780443389208</v>
+        <v>1.056118078640189</v>
       </c>
       <c r="M3">
-        <v>0.9885874280065291</v>
+        <v>1.074173007680372</v>
       </c>
       <c r="N3">
-        <v>1.011569734910791</v>
+        <v>1.068576979855558</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9972821946943753</v>
+        <v>1.053165216791669</v>
       </c>
       <c r="D4">
-        <v>1.015013389020734</v>
+        <v>1.066413828924897</v>
       </c>
       <c r="E4">
-        <v>0.9744408174642384</v>
+        <v>1.050557007148547</v>
       </c>
       <c r="F4">
-        <v>0.9826530837896452</v>
+        <v>1.068948889313748</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042360617016351</v>
+        <v>1.072606604722653</v>
       </c>
       <c r="J4">
-        <v>1.016755678642917</v>
+        <v>1.071300235827524</v>
       </c>
       <c r="K4">
-        <v>1.024933930606706</v>
+        <v>1.075771703230701</v>
       </c>
       <c r="L4">
-        <v>0.984857832022474</v>
+        <v>1.060081267532795</v>
       </c>
       <c r="M4">
-        <v>0.9929654799672897</v>
+        <v>1.078280721218948</v>
       </c>
       <c r="N4">
-        <v>1.013595740813875</v>
+        <v>1.072821605042253</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9990096900874686</v>
+        <v>1.05538127216502</v>
       </c>
       <c r="D5">
-        <v>1.016275027809485</v>
+        <v>1.068202820550898</v>
       </c>
       <c r="E5">
-        <v>0.9760505184340896</v>
+        <v>1.052418900995332</v>
       </c>
       <c r="F5">
-        <v>0.9847184375078064</v>
+        <v>1.070866509494622</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042912039352173</v>
+        <v>1.073493753303491</v>
       </c>
       <c r="J5">
-        <v>1.017982727487136</v>
+        <v>1.073047469541336</v>
       </c>
       <c r="K5">
-        <v>1.025961139737206</v>
+        <v>1.077336586440187</v>
       </c>
       <c r="L5">
-        <v>0.9862147485881473</v>
+        <v>1.061713516679591</v>
       </c>
       <c r="M5">
-        <v>0.9947755349109979</v>
+        <v>1.079973698781343</v>
       </c>
       <c r="N5">
-        <v>1.014431778250384</v>
+        <v>1.074571320028349</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9992980451276505</v>
+        <v>1.055750976744706</v>
       </c>
       <c r="D6">
-        <v>1.016485633605676</v>
+        <v>1.068501287590234</v>
       </c>
       <c r="E6">
-        <v>0.9763194079385717</v>
+        <v>1.052729467585716</v>
       </c>
       <c r="F6">
-        <v>0.9850633098233978</v>
+        <v>1.071186436525853</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043003853014507</v>
+        <v>1.073641543384609</v>
       </c>
       <c r="J6">
-        <v>1.0181874511808</v>
+        <v>1.073338865333004</v>
       </c>
       <c r="K6">
-        <v>1.02613247684501</v>
+        <v>1.077597537338107</v>
       </c>
       <c r="L6">
-        <v>0.9864413309026349</v>
+        <v>1.061985649775774</v>
       </c>
       <c r="M6">
-        <v>0.995077713281767</v>
+        <v>1.080256027722442</v>
       </c>
       <c r="N6">
-        <v>1.014571254173683</v>
+        <v>1.074863129635465</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9973053923889851</v>
+        <v>1.053194989006328</v>
       </c>
       <c r="D7">
-        <v>1.015030330085013</v>
+        <v>1.066437862929316</v>
       </c>
       <c r="E7">
-        <v>0.9744624201060403</v>
+        <v>1.050582024808435</v>
       </c>
       <c r="F7">
-        <v>0.9826808103072792</v>
+        <v>1.068974651358549</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042368037251131</v>
+        <v>1.072618537674168</v>
       </c>
       <c r="J7">
-        <v>1.016772162539411</v>
+        <v>1.071323715908962</v>
       </c>
       <c r="K7">
-        <v>1.024947732902086</v>
+        <v>1.075792735036542</v>
       </c>
       <c r="L7">
-        <v>0.9848760476983293</v>
+        <v>1.060103208186874</v>
       </c>
       <c r="M7">
-        <v>0.99298978350484</v>
+        <v>1.078303473399143</v>
       </c>
       <c r="N7">
-        <v>1.0136069726542</v>
+        <v>1.0728451184681</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9887195155939933</v>
+        <v>1.042148075844547</v>
       </c>
       <c r="D8">
-        <v>1.008762271561205</v>
+        <v>1.05752192528252</v>
       </c>
       <c r="E8">
-        <v>0.9664903025656378</v>
+        <v>1.041293571022845</v>
       </c>
       <c r="F8">
-        <v>0.9724323330580465</v>
+        <v>1.059417593762402</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03959480816836</v>
+        <v>1.068165850842951</v>
       </c>
       <c r="J8">
-        <v>1.010660079057401</v>
+        <v>1.062600499935936</v>
       </c>
       <c r="K8">
-        <v>1.019824846154068</v>
+        <v>1.067975270143762</v>
       </c>
       <c r="L8">
-        <v>0.978144165650625</v>
+        <v>1.051941803095328</v>
       </c>
       <c r="M8">
-        <v>0.9839991439675247</v>
+        <v>1.069848655511154</v>
       </c>
       <c r="N8">
-        <v>1.009441112758975</v>
+        <v>1.064109514527826</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9725026715194831</v>
+        <v>1.021105910245987</v>
       </c>
       <c r="D9">
-        <v>0.9969409622903663</v>
+        <v>1.040555203891403</v>
       </c>
       <c r="E9">
-        <v>0.9515468070398547</v>
+        <v>1.023580017700799</v>
       </c>
       <c r="F9">
-        <v>0.9531322044244539</v>
+        <v>1.041229647450589</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03423103274651</v>
+        <v>1.059566263954258</v>
       </c>
       <c r="J9">
-        <v>0.9990652485324503</v>
+        <v>1.04593476328606</v>
       </c>
       <c r="K9">
-        <v>1.010083865989552</v>
+        <v>1.053022867594298</v>
       </c>
       <c r="L9">
-        <v>0.9654781712968347</v>
+        <v>1.036301768821489</v>
       </c>
       <c r="M9">
-        <v>0.9670343828303108</v>
+        <v>1.053687433163125</v>
       </c>
       <c r="N9">
-        <v>1.001533123619578</v>
+        <v>1.047420110620321</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9608303139468941</v>
+        <v>1.005784602816808</v>
       </c>
       <c r="D10">
-        <v>0.9884529404334038</v>
+        <v>1.028221611343796</v>
       </c>
       <c r="E10">
-        <v>0.9408696776400064</v>
+        <v>1.010676734853415</v>
       </c>
       <c r="F10">
-        <v>0.9392687890270967</v>
+        <v>1.028006567604984</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030289581433408</v>
+        <v>1.053228218723756</v>
       </c>
       <c r="J10">
-        <v>0.9906890714547163</v>
+        <v>1.033770578516662</v>
       </c>
       <c r="K10">
-        <v>1.003033858069032</v>
+        <v>1.042099349657686</v>
       </c>
       <c r="L10">
-        <v>0.9563954406641437</v>
+        <v>1.02485585671173</v>
       </c>
       <c r="M10">
-        <v>0.9548285461900377</v>
+        <v>1.041887919612458</v>
       </c>
       <c r="N10">
-        <v>0.9958174413480789</v>
+        <v>1.035238651313298</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9555376830780186</v>
+        <v>0.9987797867826229</v>
       </c>
       <c r="D11">
-        <v>0.9846112320161141</v>
+        <v>1.022590019182659</v>
       </c>
       <c r="E11">
-        <v>0.9360472702503242</v>
+        <v>1.004778506384536</v>
       </c>
       <c r="F11">
-        <v>0.9329865224834583</v>
+        <v>1.021968208562195</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028484413449891</v>
+        <v>1.050313472926406</v>
       </c>
       <c r="J11">
-        <v>0.9868847066205849</v>
+        <v>1.028203416303729</v>
       </c>
       <c r="K11">
-        <v>0.9998293125274504</v>
+        <v>1.037098134892736</v>
       </c>
       <c r="L11">
-        <v>0.9522851707414889</v>
+        <v>1.019610866225013</v>
       </c>
       <c r="M11">
-        <v>0.9492934442485723</v>
+        <v>1.036487396672366</v>
       </c>
       <c r="N11">
-        <v>0.9932209141882109</v>
+        <v>1.029663583091461</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9535325717685987</v>
+        <v>0.9961156718261717</v>
       </c>
       <c r="D12">
-        <v>0.9831570643965786</v>
+        <v>1.020449510574211</v>
       </c>
       <c r="E12">
-        <v>0.9342231747064461</v>
+        <v>1.002535666970014</v>
       </c>
       <c r="F12">
-        <v>0.9306067859014153</v>
+        <v>1.019672981457716</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02779793635023</v>
+        <v>1.049202477034042</v>
       </c>
       <c r="J12">
-        <v>0.9854425610926346</v>
+        <v>1.026085338040939</v>
       </c>
       <c r="K12">
-        <v>0.9986142223519934</v>
+        <v>1.03519514419395</v>
       </c>
       <c r="L12">
-        <v>0.950729227588219</v>
+        <v>1.017614448307116</v>
       </c>
       <c r="M12">
-        <v>0.9471962140475191</v>
+        <v>1.034432740521843</v>
       </c>
       <c r="N12">
-        <v>0.992236567114031</v>
+        <v>1.027542496914591</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9539645075883614</v>
+        <v>0.9966900658575856</v>
       </c>
       <c r="D13">
-        <v>0.9834702569117176</v>
+        <v>1.020910948544004</v>
       </c>
       <c r="E13">
-        <v>0.9346159865921635</v>
+        <v>1.003019209281633</v>
       </c>
       <c r="F13">
-        <v>0.9311194140358886</v>
+        <v>1.020167777976351</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027945930415896</v>
+        <v>1.049442120334117</v>
       </c>
       <c r="J13">
-        <v>0.9857532617628123</v>
+        <v>1.026542035521486</v>
       </c>
       <c r="K13">
-        <v>0.9988760190488134</v>
+        <v>1.035605474388332</v>
       </c>
       <c r="L13">
-        <v>0.9510643490995466</v>
+        <v>1.018044953362656</v>
       </c>
       <c r="M13">
-        <v>0.9476480085946765</v>
+        <v>1.03487576087263</v>
       </c>
       <c r="N13">
-        <v>0.9924486408057498</v>
+        <v>1.027999842957944</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9553727605758737</v>
+        <v>0.9985608810855625</v>
       </c>
       <c r="D14">
-        <v>0.9844915983724545</v>
+        <v>1.022414108797092</v>
       </c>
       <c r="E14">
-        <v>0.9358971781245535</v>
+        <v>1.004594206259767</v>
       </c>
       <c r="F14">
-        <v>0.9327907823886337</v>
+        <v>1.021779585505451</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028428001813553</v>
+        <v>1.050222233027218</v>
       </c>
       <c r="J14">
-        <v>0.986766105610057</v>
+        <v>1.028029391699419</v>
       </c>
       <c r="K14">
-        <v>0.9997293905785457</v>
+        <v>1.036941786620984</v>
       </c>
       <c r="L14">
-        <v>0.952157167787011</v>
+        <v>1.01944685543017</v>
       </c>
       <c r="M14">
-        <v>0.9491209511989058</v>
+        <v>1.036318582075257</v>
       </c>
       <c r="N14">
-        <v>0.9931399634096583</v>
+        <v>1.029489311352252</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9562351298090577</v>
+        <v>0.9997050939408545</v>
       </c>
       <c r="D15">
-        <v>0.9851172076027978</v>
+        <v>1.02333364218817</v>
       </c>
       <c r="E15">
-        <v>0.9366821170811938</v>
+        <v>1.005557555199359</v>
       </c>
       <c r="F15">
-        <v>0.9338143051660102</v>
+        <v>1.022765567035236</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028722870133112</v>
+        <v>1.05069904267029</v>
       </c>
       <c r="J15">
-        <v>0.9873862281918467</v>
+        <v>1.02893898331588</v>
       </c>
       <c r="K15">
-        <v>1.000251834236954</v>
+        <v>1.037758978480359</v>
       </c>
       <c r="L15">
-        <v>0.9528265371264304</v>
+        <v>1.020304070329259</v>
       </c>
       <c r="M15">
-        <v>0.9500228947377226</v>
+        <v>1.037200943344954</v>
       </c>
       <c r="N15">
-        <v>0.9935632237665816</v>
+        <v>1.030400194693139</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9611762672965571</v>
+        <v>1.006241147632315</v>
       </c>
       <c r="D16">
-        <v>0.9887042163624352</v>
+        <v>1.028588824206068</v>
       </c>
       <c r="E16">
-        <v>0.9411852887048758</v>
+        <v>1.011061199034389</v>
       </c>
       <c r="F16">
-        <v>0.93967948707135</v>
+        <v>1.028400289785724</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030407213729917</v>
+        <v>1.053417848276396</v>
       </c>
       <c r="J16">
-        <v>0.9909376204313094</v>
+        <v>1.03413331430624</v>
       </c>
       <c r="K16">
-        <v>1.003243171919314</v>
+        <v>1.042425175818256</v>
       </c>
       <c r="L16">
-        <v>0.9566642778799591</v>
+        <v>1.025197471606117</v>
       </c>
       <c r="M16">
-        <v>0.9551903228938613</v>
+        <v>1.042239797365552</v>
       </c>
       <c r="N16">
-        <v>0.9959870694660005</v>
+        <v>1.035601902229303</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9642096345986486</v>
+        <v>1.010237534606775</v>
       </c>
       <c r="D17">
-        <v>0.9909082548320458</v>
+        <v>1.031804079288865</v>
       </c>
       <c r="E17">
-        <v>0.9439547498292271</v>
+        <v>1.014426771140277</v>
       </c>
       <c r="F17">
-        <v>0.9432809505858228</v>
+        <v>1.031847584124866</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031436615537154</v>
+        <v>1.055075881351392</v>
       </c>
       <c r="J17">
-        <v>0.9931162287838663</v>
+        <v>1.037307905579546</v>
       </c>
       <c r="K17">
-        <v>1.00507759556949</v>
+        <v>1.045276537097674</v>
       </c>
       <c r="L17">
-        <v>0.9590223986248041</v>
+        <v>1.028186488408862</v>
       </c>
       <c r="M17">
-        <v>0.9583623488225056</v>
+        <v>1.045319338354921</v>
       </c>
       <c r="N17">
-        <v>0.9974738542752378</v>
+        <v>1.038781001786349</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.965956192000465</v>
+        <v>1.012533297034693</v>
       </c>
       <c r="D18">
-        <v>0.9921779462963292</v>
+        <v>1.033651773422958</v>
       </c>
       <c r="E18">
-        <v>0.9455511319739819</v>
+        <v>1.016360238884869</v>
       </c>
       <c r="F18">
-        <v>0.9453549899817398</v>
+        <v>1.03382856608077</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032027630842966</v>
+        <v>1.056026756232068</v>
       </c>
       <c r="J18">
-        <v>0.9943700314676401</v>
+        <v>1.039131032480789</v>
       </c>
       <c r="K18">
-        <v>1.006133078519241</v>
+        <v>1.046913859618371</v>
       </c>
       <c r="L18">
-        <v>0.9603809246717973</v>
+        <v>1.029902424897403</v>
       </c>
       <c r="M18">
-        <v>0.9601887017920547</v>
+        <v>1.047087850447706</v>
       </c>
       <c r="N18">
-        <v>0.9983294575763176</v>
+        <v>1.040606717736907</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9665479587130095</v>
+        <v>1.013310293070727</v>
       </c>
       <c r="D19">
-        <v>0.9926082457452533</v>
+        <v>1.034277227096731</v>
       </c>
       <c r="E19">
-        <v>0.9460923172327799</v>
+        <v>1.017014624440819</v>
       </c>
       <c r="F19">
-        <v>0.946057786401398</v>
+        <v>1.034499129191509</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032227587264879</v>
+        <v>1.056348303648522</v>
       </c>
       <c r="J19">
-        <v>0.9947947392826397</v>
+        <v>1.039747969798143</v>
       </c>
       <c r="K19">
-        <v>1.006490566204514</v>
+        <v>1.047467890209223</v>
       </c>
       <c r="L19">
-        <v>0.960841348234294</v>
+        <v>1.030482982880652</v>
       </c>
       <c r="M19">
-        <v>0.9608075024108668</v>
+        <v>1.047686299881769</v>
       </c>
       <c r="N19">
-        <v>0.9986192720098344</v>
+        <v>1.041224531176016</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9638865595507432</v>
+        <v>1.009812451310437</v>
       </c>
       <c r="D20">
-        <v>0.9906734405874548</v>
+        <v>1.031462012269092</v>
       </c>
       <c r="E20">
-        <v>0.943659597759388</v>
+        <v>1.014068775420861</v>
       </c>
       <c r="F20">
-        <v>0.9428973313764949</v>
+        <v>1.031480836785642</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031327152450978</v>
+        <v>1.054899687000127</v>
       </c>
       <c r="J20">
-        <v>0.9928842533937203</v>
+        <v>1.036970290252828</v>
       </c>
       <c r="K20">
-        <v>1.004882293024827</v>
+        <v>1.04497331518961</v>
       </c>
       <c r="L20">
-        <v>0.9587711627039638</v>
+        <v>1.027868672562748</v>
       </c>
       <c r="M20">
-        <v>0.9580245111089415</v>
+        <v>1.044991834135472</v>
       </c>
       <c r="N20">
-        <v>0.9973155485198661</v>
+        <v>1.038442907007142</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9549591764243652</v>
+        <v>0.9980117480599114</v>
       </c>
       <c r="D21">
-        <v>0.9841916083095604</v>
+        <v>1.02197285339876</v>
       </c>
       <c r="E21">
-        <v>0.9355208310772575</v>
+        <v>1.00413189011755</v>
       </c>
       <c r="F21">
-        <v>0.9322999192227174</v>
+        <v>1.021306439677386</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028286494382913</v>
+        <v>1.049993315584142</v>
       </c>
       <c r="J21">
-        <v>0.9864686705427118</v>
+        <v>1.027592833118168</v>
       </c>
       <c r="K21">
-        <v>0.9994787950553774</v>
+        <v>1.036549567378194</v>
       </c>
       <c r="L21">
-        <v>0.9518361883931648</v>
+        <v>1.019035403133762</v>
       </c>
       <c r="M21">
-        <v>0.9486883772262478</v>
+        <v>1.03589509392509</v>
       </c>
       <c r="N21">
-        <v>0.9929369489766029</v>
+        <v>1.029052132807741</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9491174035612349</v>
+        <v>0.9902281314903667</v>
       </c>
       <c r="D22">
-        <v>0.9799576253652434</v>
+        <v>1.015721877932459</v>
       </c>
       <c r="E22">
-        <v>0.9302119236767469</v>
+        <v>0.9975801981492599</v>
       </c>
       <c r="F22">
-        <v>0.9253669085121337</v>
+        <v>1.014603406554482</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026281696292399</v>
+        <v>1.046742870619306</v>
       </c>
       <c r="J22">
-        <v>0.982265530276932</v>
+        <v>1.02140329509375</v>
       </c>
       <c r="K22">
-        <v>0.9959368631632618</v>
+        <v>1.030988185444252</v>
       </c>
       <c r="L22">
-        <v>0.9473053889763631</v>
+        <v>1.01319974468497</v>
       </c>
       <c r="M22">
-        <v>0.9425775117099597</v>
+        <v>1.029891013968822</v>
       </c>
       <c r="N22">
-        <v>0.9900679599895417</v>
+        <v>1.022853804929379</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9522371716793515</v>
+        <v>0.9943913657089072</v>
       </c>
       <c r="D23">
-        <v>0.9822179841841748</v>
+        <v>1.019064509918207</v>
       </c>
       <c r="E23">
-        <v>0.9330455324366426</v>
+        <v>1.001084175765714</v>
       </c>
       <c r="F23">
-        <v>0.9290694045557938</v>
+        <v>1.018187837974646</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027353723241965</v>
+        <v>1.048482730161463</v>
       </c>
       <c r="J23">
-        <v>0.9845106327702953</v>
+        <v>1.024714254091562</v>
       </c>
       <c r="K23">
-        <v>0.9978289359318918</v>
+        <v>1.033963232796838</v>
       </c>
       <c r="L23">
-        <v>0.9497243601893044</v>
+        <v>1.016321871179175</v>
       </c>
       <c r="M23">
-        <v>0.9458412038158435</v>
+        <v>1.033102726381749</v>
       </c>
       <c r="N23">
-        <v>0.9916004563640359</v>
+        <v>1.02616946586874</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9640326133265584</v>
+        <v>1.010004636644687</v>
       </c>
       <c r="D24">
-        <v>0.9907795919699511</v>
+        <v>1.03161666289758</v>
       </c>
       <c r="E24">
-        <v>0.9437930227675727</v>
+        <v>1.01423062940445</v>
       </c>
       <c r="F24">
-        <v>0.9430707543743366</v>
+        <v>1.031646645716008</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031376643124282</v>
+        <v>1.054979351589886</v>
       </c>
       <c r="J24">
-        <v>0.9929891252691407</v>
+        <v>1.037122931963745</v>
       </c>
       <c r="K24">
-        <v>1.004970586518271</v>
+        <v>1.045110407598612</v>
       </c>
       <c r="L24">
-        <v>0.9588847375192292</v>
+        <v>1.028012364512407</v>
       </c>
       <c r="M24">
-        <v>0.9581772388162051</v>
+        <v>1.045139904533881</v>
       </c>
       <c r="N24">
-        <v>0.9973871158451582</v>
+        <v>1.038595765486797</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9768364574191867</v>
+        <v>1.026754659579199</v>
       </c>
       <c r="D25">
-        <v>1.000097234949672</v>
+        <v>1.045107179397121</v>
       </c>
       <c r="E25">
-        <v>0.955527007002</v>
+        <v>1.028336834066085</v>
       </c>
       <c r="F25">
-        <v>0.9582843536361944</v>
+        <v>1.046109492492508</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035678535671467</v>
+        <v>1.061888059979415</v>
       </c>
       <c r="J25">
-        <v>1.002169328789428</v>
+        <v>1.05041399276418</v>
       </c>
       <c r="K25">
-        <v>1.012694041658245</v>
+        <v>1.057043412350129</v>
       </c>
       <c r="L25">
-        <v>0.9688573110687114</v>
+        <v>1.040510625089364</v>
       </c>
       <c r="M25">
-        <v>0.9715667180613394</v>
+        <v>1.058031831547942</v>
       </c>
       <c r="N25">
-        <v>1.003650731235195</v>
+        <v>1.051905701118074</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03920470863941</v>
+        <v>1.010644247177338</v>
       </c>
       <c r="D2">
-        <v>1.055147131816814</v>
+        <v>1.029948380203854</v>
       </c>
       <c r="E2">
-        <v>1.038817101764618</v>
+        <v>1.028177003313641</v>
       </c>
       <c r="F2">
-        <v>1.056871988856567</v>
+        <v>1.037167112725724</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066971595225926</v>
+        <v>1.047985824786164</v>
       </c>
       <c r="J2">
-        <v>1.060272865133264</v>
+        <v>1.032511185702203</v>
       </c>
       <c r="K2">
-        <v>1.065888142950905</v>
+        <v>1.041005676611104</v>
       </c>
       <c r="L2">
-        <v>1.049760897179343</v>
+        <v>1.039257263282266</v>
       </c>
       <c r="M2">
-        <v>1.067592035572645</v>
+        <v>1.048131840978822</v>
       </c>
       <c r="N2">
-        <v>1.061778574216751</v>
+        <v>1.014745118856842</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047794198248355</v>
+        <v>1.014049039973789</v>
       </c>
       <c r="D3">
-        <v>1.062078389280954</v>
+        <v>1.032459555583943</v>
       </c>
       <c r="E3">
-        <v>1.046042279674604</v>
+        <v>1.031504120077434</v>
       </c>
       <c r="F3">
-        <v>1.064301724058669</v>
+        <v>1.040325148193744</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070447726195451</v>
+        <v>1.048856087561325</v>
       </c>
       <c r="J3">
-        <v>1.067061629947353</v>
+        <v>1.034163905527779</v>
       </c>
       <c r="K3">
-        <v>1.071974113266929</v>
+        <v>1.042693295840243</v>
       </c>
       <c r="L3">
-        <v>1.056118078640189</v>
+        <v>1.041749164182909</v>
       </c>
       <c r="M3">
-        <v>1.074173007680372</v>
+        <v>1.050466805305405</v>
       </c>
       <c r="N3">
-        <v>1.068576979855558</v>
+        <v>1.015297400304759</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053165216791669</v>
+        <v>1.0162151832437</v>
       </c>
       <c r="D4">
-        <v>1.066413828924897</v>
+        <v>1.034060445424525</v>
       </c>
       <c r="E4">
-        <v>1.050557007148547</v>
+        <v>1.0336290049913</v>
       </c>
       <c r="F4">
-        <v>1.068948889313748</v>
+        <v>1.042340246197802</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072606604722653</v>
+        <v>1.049402289139076</v>
       </c>
       <c r="J4">
-        <v>1.071300235827524</v>
+        <v>1.035213005301839</v>
       </c>
       <c r="K4">
-        <v>1.075771703230701</v>
+        <v>1.043764461337298</v>
       </c>
       <c r="L4">
-        <v>1.060081267532795</v>
+        <v>1.043337816801977</v>
       </c>
       <c r="M4">
-        <v>1.078280721218948</v>
+        <v>1.051953168010026</v>
       </c>
       <c r="N4">
-        <v>1.072821605042253</v>
+        <v>1.015647928808613</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05538127216502</v>
+        <v>1.017117213079454</v>
       </c>
       <c r="D5">
-        <v>1.068202820550898</v>
+        <v>1.034727843403066</v>
       </c>
       <c r="E5">
-        <v>1.052418900995332</v>
+        <v>1.034515793809918</v>
       </c>
       <c r="F5">
-        <v>1.070866509494622</v>
+        <v>1.043180779262734</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073493753303491</v>
+        <v>1.049627921966306</v>
       </c>
       <c r="J5">
-        <v>1.073047469541336</v>
+        <v>1.035649284517358</v>
       </c>
       <c r="K5">
-        <v>1.077336586440187</v>
+        <v>1.04420989088877</v>
       </c>
       <c r="L5">
-        <v>1.061713516679591</v>
+        <v>1.04400013556987</v>
       </c>
       <c r="M5">
-        <v>1.079973698781343</v>
+        <v>1.052572299841734</v>
       </c>
       <c r="N5">
-        <v>1.074571320028349</v>
+        <v>1.015793687912169</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.055750976744706</v>
+        <v>1.017268169307787</v>
       </c>
       <c r="D6">
-        <v>1.068501287590234</v>
+        <v>1.034839576869563</v>
       </c>
       <c r="E6">
-        <v>1.052729467585716</v>
+        <v>1.034664312937837</v>
       </c>
       <c r="F6">
-        <v>1.071186436525853</v>
+        <v>1.043321525607057</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.073641543384609</v>
+        <v>1.049665574405019</v>
       </c>
       <c r="J6">
-        <v>1.073338865333004</v>
+        <v>1.035722261359223</v>
       </c>
       <c r="K6">
-        <v>1.077597537338107</v>
+        <v>1.044284396649897</v>
       </c>
       <c r="L6">
-        <v>1.061985649775774</v>
+        <v>1.044111020305859</v>
       </c>
       <c r="M6">
-        <v>1.080256027722442</v>
+        <v>1.052675922302285</v>
       </c>
       <c r="N6">
-        <v>1.074863129635465</v>
+        <v>1.015818068441254</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053194989006328</v>
+        <v>1.016227269759445</v>
       </c>
       <c r="D7">
-        <v>1.066437862929316</v>
+        <v>1.034069385124551</v>
       </c>
       <c r="E7">
-        <v>1.050582024808435</v>
+        <v>1.033640879654738</v>
       </c>
       <c r="F7">
-        <v>1.068974651358549</v>
+        <v>1.042351503201273</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.072618537674168</v>
+        <v>1.049405319657371</v>
       </c>
       <c r="J7">
-        <v>1.071323715908962</v>
+        <v>1.03521885346518</v>
       </c>
       <c r="K7">
-        <v>1.075792735036542</v>
+        <v>1.043770432266403</v>
       </c>
       <c r="L7">
-        <v>1.060103208186874</v>
+        <v>1.043346688364873</v>
       </c>
       <c r="M7">
-        <v>1.078303473399143</v>
+        <v>1.051961463239782</v>
       </c>
       <c r="N7">
-        <v>1.0728451184681</v>
+        <v>1.015649882704697</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042148075844547</v>
+        <v>1.011802716820428</v>
       </c>
       <c r="D8">
-        <v>1.05752192528252</v>
+        <v>1.030802095530489</v>
       </c>
       <c r="E8">
-        <v>1.041293571022845</v>
+        <v>1.029307326015331</v>
       </c>
       <c r="F8">
-        <v>1.059417593762402</v>
+        <v>1.038240365971579</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.068165850842951</v>
+        <v>1.048283473486475</v>
       </c>
       <c r="J8">
-        <v>1.062600499935936</v>
+        <v>1.033074000508965</v>
       </c>
       <c r="K8">
-        <v>1.067975270143762</v>
+        <v>1.041580391271784</v>
       </c>
       <c r="L8">
-        <v>1.051941803095328</v>
+        <v>1.040104421706247</v>
       </c>
       <c r="M8">
-        <v>1.069848655511154</v>
+        <v>1.048926111371133</v>
       </c>
       <c r="N8">
-        <v>1.064109514527826</v>
+        <v>1.014933200440674</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021105910245987</v>
+        <v>1.003711703485495</v>
       </c>
       <c r="D9">
-        <v>1.040555203891403</v>
+        <v>1.024854695228069</v>
       </c>
       <c r="E9">
-        <v>1.023580017700799</v>
+        <v>1.021448065322021</v>
       </c>
       <c r="F9">
-        <v>1.041229647450589</v>
+        <v>1.030770598515455</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059566263954258</v>
+        <v>1.046174280764035</v>
       </c>
       <c r="J9">
-        <v>1.04593476328606</v>
+        <v>1.029134069351632</v>
       </c>
       <c r="K9">
-        <v>1.053022867594298</v>
+        <v>1.037556994129504</v>
       </c>
       <c r="L9">
-        <v>1.036301768821489</v>
+        <v>1.034202489579655</v>
       </c>
       <c r="M9">
-        <v>1.053687433163125</v>
+        <v>1.043383419429993</v>
       </c>
       <c r="N9">
-        <v>1.047420110620321</v>
+        <v>1.013616418613983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005784602816808</v>
+        <v>0.9981035167820973</v>
       </c>
       <c r="D10">
-        <v>1.028221611343796</v>
+        <v>1.02075306129287</v>
       </c>
       <c r="E10">
-        <v>1.010676734853415</v>
+        <v>1.016046023977344</v>
       </c>
       <c r="F10">
-        <v>1.028006567604984</v>
+        <v>1.025627269425586</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053228218723756</v>
+        <v>1.044675069736312</v>
       </c>
       <c r="J10">
-        <v>1.033770578516662</v>
+        <v>1.026392581250888</v>
       </c>
       <c r="K10">
-        <v>1.042099349657686</v>
+        <v>1.034757456913734</v>
       </c>
       <c r="L10">
-        <v>1.02485585671173</v>
+        <v>1.030131482796877</v>
       </c>
       <c r="M10">
-        <v>1.041887919612458</v>
+        <v>1.039548734749743</v>
       </c>
       <c r="N10">
-        <v>1.035238651313298</v>
+        <v>1.01270005845908</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9987797867826229</v>
+        <v>0.9956204749528271</v>
       </c>
       <c r="D11">
-        <v>1.022590019182659</v>
+        <v>1.01894248465775</v>
       </c>
       <c r="E11">
-        <v>1.004778506384536</v>
+        <v>1.013665373162234</v>
       </c>
       <c r="F11">
-        <v>1.021968208562195</v>
+        <v>1.023358577052412</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050313472926406</v>
+        <v>1.044002848641423</v>
       </c>
       <c r="J11">
-        <v>1.028203416303729</v>
+        <v>1.025176589108224</v>
       </c>
       <c r="K11">
-        <v>1.037098134892736</v>
+        <v>1.03351580154004</v>
       </c>
       <c r="L11">
-        <v>1.019610866225013</v>
+        <v>1.028334101324163</v>
       </c>
       <c r="M11">
-        <v>1.036487396672366</v>
+        <v>1.037853031404007</v>
       </c>
       <c r="N11">
-        <v>1.029663583091461</v>
+        <v>1.012293595648674</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9961156718261717</v>
+        <v>0.9946896051247153</v>
       </c>
       <c r="D12">
-        <v>1.020449510574211</v>
+        <v>1.018264577803797</v>
       </c>
       <c r="E12">
-        <v>1.002535666970014</v>
+        <v>1.012774588942344</v>
       </c>
       <c r="F12">
-        <v>1.019672981457716</v>
+        <v>1.022509383343946</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049202477034042</v>
+        <v>1.043749604939746</v>
       </c>
       <c r="J12">
-        <v>1.026085338040939</v>
+        <v>1.024720423291091</v>
       </c>
       <c r="K12">
-        <v>1.03519514419395</v>
+        <v>1.033050027987181</v>
       </c>
       <c r="L12">
-        <v>1.017614448307116</v>
+        <v>1.02766107316905</v>
       </c>
       <c r="M12">
-        <v>1.034432740521843</v>
+        <v>1.03721768201969</v>
       </c>
       <c r="N12">
-        <v>1.027542496914591</v>
+        <v>1.012141115741245</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9966900658575856</v>
+        <v>0.9948896728541193</v>
       </c>
       <c r="D13">
-        <v>1.020910948544004</v>
+        <v>1.018410237621384</v>
       </c>
       <c r="E13">
-        <v>1.003019209281633</v>
+        <v>1.012965963916242</v>
       </c>
       <c r="F13">
-        <v>1.020167777976351</v>
+        <v>1.022691836591969</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049442120334117</v>
+        <v>1.043804088710385</v>
       </c>
       <c r="J13">
-        <v>1.026542035521486</v>
+        <v>1.024818478161562</v>
       </c>
       <c r="K13">
-        <v>1.035605474388332</v>
+        <v>1.033150147087997</v>
       </c>
       <c r="L13">
-        <v>1.018044953362656</v>
+        <v>1.027805687718701</v>
       </c>
       <c r="M13">
-        <v>1.03487576087263</v>
+        <v>1.037354218228863</v>
       </c>
       <c r="N13">
-        <v>1.027999842957944</v>
+        <v>1.012173891948624</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9985608810855625</v>
+        <v>0.9955437055937686</v>
       </c>
       <c r="D14">
-        <v>1.022414108797092</v>
+        <v>1.018886559498355</v>
       </c>
       <c r="E14">
-        <v>1.004594206259767</v>
+        <v>1.013591874926137</v>
       </c>
       <c r="F14">
-        <v>1.021779585505451</v>
+        <v>1.023288516532937</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050222233027218</v>
+        <v>1.043981988395556</v>
       </c>
       <c r="J14">
-        <v>1.028029391699419</v>
+        <v>1.025138974825724</v>
       </c>
       <c r="K14">
-        <v>1.036941786620984</v>
+        <v>1.03347739459033</v>
       </c>
       <c r="L14">
-        <v>1.01944685543017</v>
+        <v>1.028278579974666</v>
       </c>
       <c r="M14">
-        <v>1.036318582075257</v>
+        <v>1.037800626357509</v>
       </c>
       <c r="N14">
-        <v>1.029489311352252</v>
+        <v>1.01228102253037</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9997050939408545</v>
+        <v>0.9959455321610681</v>
       </c>
       <c r="D15">
-        <v>1.02333364218817</v>
+        <v>1.019179318690721</v>
       </c>
       <c r="E15">
-        <v>1.005557555199359</v>
+        <v>1.01397664931391</v>
       </c>
       <c r="F15">
-        <v>1.022765567035236</v>
+        <v>1.02365528167507</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05069904267029</v>
+        <v>1.044091125050362</v>
       </c>
       <c r="J15">
-        <v>1.02893898331588</v>
+        <v>1.025335843561493</v>
       </c>
       <c r="K15">
-        <v>1.037758978480359</v>
+        <v>1.033678412891361</v>
       </c>
       <c r="L15">
-        <v>1.020304070329259</v>
+        <v>1.028569222687881</v>
       </c>
       <c r="M15">
-        <v>1.037200943344954</v>
+        <v>1.038074939798211</v>
       </c>
       <c r="N15">
-        <v>1.030400194693139</v>
+        <v>1.012346828765765</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006241147632315</v>
+        <v>0.9982671273792276</v>
       </c>
       <c r="D16">
-        <v>1.028588824206068</v>
+        <v>1.020872479650784</v>
       </c>
       <c r="E16">
-        <v>1.011061199034389</v>
+        <v>1.016203122585331</v>
       </c>
       <c r="F16">
-        <v>1.028400289785724</v>
+        <v>1.025776937521179</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053417848276396</v>
+        <v>1.044719189777658</v>
       </c>
       <c r="J16">
-        <v>1.03413331430624</v>
+        <v>1.026472661015201</v>
       </c>
       <c r="K16">
-        <v>1.042425175818256</v>
+        <v>1.034839229080293</v>
       </c>
       <c r="L16">
-        <v>1.025197471606117</v>
+        <v>1.030250022972397</v>
       </c>
       <c r="M16">
-        <v>1.042239797365552</v>
+        <v>1.039660513911691</v>
       </c>
       <c r="N16">
-        <v>1.035601902229303</v>
+        <v>1.012726826195442</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010237534606775</v>
+        <v>0.9997085302981817</v>
       </c>
       <c r="D17">
-        <v>1.031804079288865</v>
+        <v>1.021925176589232</v>
       </c>
       <c r="E17">
-        <v>1.014426771140277</v>
+        <v>1.017588428193162</v>
       </c>
       <c r="F17">
-        <v>1.031847584124866</v>
+        <v>1.027096486069222</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055075881351392</v>
+        <v>1.045106925947892</v>
       </c>
       <c r="J17">
-        <v>1.037307905579546</v>
+        <v>1.027177913866566</v>
       </c>
       <c r="K17">
-        <v>1.045276537097674</v>
+        <v>1.035559397175947</v>
       </c>
       <c r="L17">
-        <v>1.028186488408862</v>
+        <v>1.031294939860322</v>
       </c>
       <c r="M17">
-        <v>1.045319338354921</v>
+        <v>1.040645529779063</v>
       </c>
       <c r="N17">
-        <v>1.038781001786349</v>
+        <v>1.012962565523821</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012533297034693</v>
+        <v>1.000544026583335</v>
       </c>
       <c r="D18">
-        <v>1.033651773422958</v>
+        <v>1.022535877285933</v>
       </c>
       <c r="E18">
-        <v>1.016360238884869</v>
+        <v>1.018392464878032</v>
       </c>
       <c r="F18">
-        <v>1.03382856608077</v>
+        <v>1.027862160461399</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056026756232068</v>
+        <v>1.045330867767379</v>
       </c>
       <c r="J18">
-        <v>1.039131032480789</v>
+        <v>1.027586496992346</v>
       </c>
       <c r="K18">
-        <v>1.046913859618371</v>
+        <v>1.035976628921183</v>
       </c>
       <c r="L18">
-        <v>1.029902424897403</v>
+        <v>1.031901097036391</v>
       </c>
       <c r="M18">
-        <v>1.047087850447706</v>
+        <v>1.041216684293666</v>
       </c>
       <c r="N18">
-        <v>1.040606717736907</v>
+        <v>1.013099138386694</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013310293070727</v>
+        <v>1.000828028995</v>
       </c>
       <c r="D19">
-        <v>1.034277227096731</v>
+        <v>1.022743552954493</v>
       </c>
       <c r="E19">
-        <v>1.017014624440819</v>
+        <v>1.018665951907624</v>
       </c>
       <c r="F19">
-        <v>1.034499129191509</v>
+        <v>1.028122565283684</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056348303648522</v>
+        <v>1.045406852489578</v>
       </c>
       <c r="J19">
-        <v>1.039747969798143</v>
+        <v>1.027725346321951</v>
       </c>
       <c r="K19">
-        <v>1.047467890209223</v>
+        <v>1.036118418407635</v>
       </c>
       <c r="L19">
-        <v>1.030482982880652</v>
+        <v>1.03210722291311</v>
       </c>
       <c r="M19">
-        <v>1.047686299881769</v>
+        <v>1.041410864150229</v>
       </c>
       <c r="N19">
-        <v>1.041224531176016</v>
+        <v>1.013145549902919</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009812451310437</v>
+        <v>0.9995544268433157</v>
       </c>
       <c r="D20">
-        <v>1.031462012269092</v>
+        <v>1.021812576868442</v>
       </c>
       <c r="E20">
-        <v>1.014068775420861</v>
+        <v>1.01744021245099</v>
       </c>
       <c r="F20">
-        <v>1.031480836785642</v>
+        <v>1.026955326094059</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054899687000127</v>
+        <v>1.045065555575845</v>
       </c>
       <c r="J20">
-        <v>1.036970290252828</v>
+        <v>1.02710253540017</v>
       </c>
       <c r="K20">
-        <v>1.04497331518961</v>
+        <v>1.035482423712026</v>
       </c>
       <c r="L20">
-        <v>1.027868672562748</v>
+        <v>1.031183175528221</v>
       </c>
       <c r="M20">
-        <v>1.044991834135472</v>
+        <v>1.040540198755829</v>
       </c>
       <c r="N20">
-        <v>1.038442907007142</v>
+        <v>1.012937369450075</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9980117480599114</v>
+        <v>0.9953513483475589</v>
       </c>
       <c r="D21">
-        <v>1.02197285339876</v>
+        <v>1.018746444598179</v>
       </c>
       <c r="E21">
-        <v>1.00413189011755</v>
+        <v>1.013407741480821</v>
       </c>
       <c r="F21">
-        <v>1.021306439677386</v>
+        <v>1.023112990678405</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049993315584142</v>
+        <v>1.043929700117919</v>
       </c>
       <c r="J21">
-        <v>1.027592833118168</v>
+        <v>1.025044721785922</v>
       </c>
       <c r="K21">
-        <v>1.036549567378194</v>
+        <v>1.033381155641043</v>
       </c>
       <c r="L21">
-        <v>1.019035403133762</v>
+        <v>1.028139475739289</v>
       </c>
       <c r="M21">
-        <v>1.03589509392509</v>
+        <v>1.037669323422727</v>
       </c>
       <c r="N21">
-        <v>1.029052132807741</v>
+        <v>1.012249517093749</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9902281314903667</v>
+        <v>0.9926590106075559</v>
       </c>
       <c r="D22">
-        <v>1.015721877932459</v>
+        <v>1.016787429696874</v>
       </c>
       <c r="E22">
-        <v>0.9975801981492599</v>
+        <v>1.010834593500075</v>
       </c>
       <c r="F22">
-        <v>1.014603406554482</v>
+        <v>1.020659419916177</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046742870619306</v>
+        <v>1.043194951984848</v>
       </c>
       <c r="J22">
-        <v>1.02140329509375</v>
+        <v>1.023724823031005</v>
       </c>
       <c r="K22">
-        <v>1.030988185444252</v>
+        <v>1.032033502079857</v>
       </c>
       <c r="L22">
-        <v>1.01319974468497</v>
+        <v>1.026194427790501</v>
       </c>
       <c r="M22">
-        <v>1.029891013968822</v>
+        <v>1.035832426631815</v>
       </c>
       <c r="N22">
-        <v>1.022853804929379</v>
+        <v>1.011808323956635</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9943913657089072</v>
+        <v>0.9940911004025366</v>
       </c>
       <c r="D23">
-        <v>1.019064509918207</v>
+        <v>1.017828964778515</v>
       </c>
       <c r="E23">
-        <v>1.001084175765714</v>
+        <v>1.01220234015482</v>
       </c>
       <c r="F23">
-        <v>1.018187837974646</v>
+        <v>1.021963768606968</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048482730161463</v>
+        <v>1.04358643799988</v>
       </c>
       <c r="J23">
-        <v>1.024714254091562</v>
+        <v>1.024427049109457</v>
       </c>
       <c r="K23">
-        <v>1.033963232796838</v>
+        <v>1.03275048115488</v>
       </c>
       <c r="L23">
-        <v>1.016321871179175</v>
+        <v>1.027228576081972</v>
       </c>
       <c r="M23">
-        <v>1.033102726381749</v>
+        <v>1.036809287323037</v>
       </c>
       <c r="N23">
-        <v>1.02616946586874</v>
+        <v>1.012043051454491</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010004636644687</v>
+        <v>0.9996240757597677</v>
       </c>
       <c r="D24">
-        <v>1.03161666289758</v>
+        <v>1.021863466081086</v>
       </c>
       <c r="E24">
-        <v>1.01423062940445</v>
+        <v>1.01750719707271</v>
       </c>
       <c r="F24">
-        <v>1.031646645716008</v>
+        <v>1.027019122541957</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054979351589886</v>
+        <v>1.045084255914704</v>
       </c>
       <c r="J24">
-        <v>1.037122931963745</v>
+        <v>1.027136604261793</v>
       </c>
       <c r="K24">
-        <v>1.045110407598612</v>
+        <v>1.035517213442892</v>
       </c>
       <c r="L24">
-        <v>1.028012364512407</v>
+        <v>1.031233687280847</v>
       </c>
       <c r="M24">
-        <v>1.045139904533881</v>
+        <v>1.040587803769637</v>
       </c>
       <c r="N24">
-        <v>1.038595765486797</v>
+        <v>1.012948757341537</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026754659579199</v>
+        <v>1.005839935110045</v>
       </c>
       <c r="D25">
-        <v>1.045107179397121</v>
+        <v>1.026415654763462</v>
       </c>
       <c r="E25">
-        <v>1.028336834066085</v>
+        <v>1.02350756169765</v>
       </c>
       <c r="F25">
-        <v>1.046109492492508</v>
+        <v>1.032729620759098</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061888059979415</v>
+        <v>1.046735651550596</v>
       </c>
       <c r="J25">
-        <v>1.05041399276418</v>
+        <v>1.030172347934041</v>
       </c>
       <c r="K25">
-        <v>1.057043412350129</v>
+        <v>1.038617288299254</v>
       </c>
       <c r="L25">
-        <v>1.040510625089364</v>
+        <v>1.035751592847548</v>
       </c>
       <c r="M25">
-        <v>1.058031831547942</v>
+        <v>1.044840242428494</v>
       </c>
       <c r="N25">
-        <v>1.051905701118074</v>
+        <v>1.013963452059476</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010644247177338</v>
+        <v>1.033235929787689</v>
       </c>
       <c r="D2">
-        <v>1.029948380203854</v>
+        <v>1.04269230669643</v>
       </c>
       <c r="E2">
-        <v>1.028177003313641</v>
+        <v>1.05163808281508</v>
       </c>
       <c r="F2">
-        <v>1.037167112725724</v>
+        <v>1.056795298537894</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047985824786164</v>
+        <v>1.039494626632202</v>
       </c>
       <c r="J2">
-        <v>1.032511185702203</v>
+        <v>1.038361765971013</v>
       </c>
       <c r="K2">
-        <v>1.041005676611104</v>
+        <v>1.045468276411395</v>
       </c>
       <c r="L2">
-        <v>1.039257263282266</v>
+        <v>1.054389030588654</v>
       </c>
       <c r="M2">
-        <v>1.048131840978822</v>
+        <v>1.059532029798143</v>
       </c>
       <c r="N2">
-        <v>1.014745118856842</v>
+        <v>1.016771103568964</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014049039973789</v>
+        <v>1.033963217885662</v>
       </c>
       <c r="D3">
-        <v>1.032459555583943</v>
+        <v>1.043257659258271</v>
       </c>
       <c r="E3">
-        <v>1.031504120077434</v>
+        <v>1.052432034380864</v>
       </c>
       <c r="F3">
-        <v>1.040325148193744</v>
+        <v>1.057534019563753</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048856087561325</v>
+        <v>1.039641478269304</v>
       </c>
       <c r="J3">
-        <v>1.034163905527779</v>
+        <v>1.038732810342065</v>
       </c>
       <c r="K3">
-        <v>1.042693295840243</v>
+        <v>1.045845155496561</v>
       </c>
       <c r="L3">
-        <v>1.041749164182909</v>
+        <v>1.054995716485527</v>
       </c>
       <c r="M3">
-        <v>1.050466805305405</v>
+        <v>1.060084651120864</v>
       </c>
       <c r="N3">
-        <v>1.015297400304759</v>
+        <v>1.016894642806203</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.0162151832437</v>
+        <v>1.034434533970591</v>
       </c>
       <c r="D4">
-        <v>1.034060445424525</v>
+        <v>1.043624145020133</v>
       </c>
       <c r="E4">
-        <v>1.0336290049913</v>
+        <v>1.052947264268356</v>
       </c>
       <c r="F4">
-        <v>1.042340246197802</v>
+        <v>1.058013187118987</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049402289139076</v>
+        <v>1.039735709682618</v>
       </c>
       <c r="J4">
-        <v>1.035213005301839</v>
+        <v>1.038972903136704</v>
       </c>
       <c r="K4">
-        <v>1.043764461337298</v>
+        <v>1.046088980714887</v>
       </c>
       <c r="L4">
-        <v>1.043337816801977</v>
+        <v>1.055389113260234</v>
       </c>
       <c r="M4">
-        <v>1.051953168010026</v>
+        <v>1.060442728390216</v>
       </c>
       <c r="N4">
-        <v>1.015647928808613</v>
+        <v>1.016974563225571</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017117213079454</v>
+        <v>1.034632843700113</v>
       </c>
       <c r="D5">
-        <v>1.034727843403066</v>
+        <v>1.043778372829037</v>
       </c>
       <c r="E5">
-        <v>1.034515793809918</v>
+        <v>1.053164221400292</v>
       </c>
       <c r="F5">
-        <v>1.043180779262734</v>
+        <v>1.058214905979286</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049627921966306</v>
+        <v>1.039775134329093</v>
       </c>
       <c r="J5">
-        <v>1.035649284517358</v>
+        <v>1.039073837379775</v>
       </c>
       <c r="K5">
-        <v>1.04420989088877</v>
+        <v>1.046191473685293</v>
       </c>
       <c r="L5">
-        <v>1.04400013556987</v>
+        <v>1.055554694222171</v>
       </c>
       <c r="M5">
-        <v>1.052572299841734</v>
+        <v>1.060593380613003</v>
       </c>
       <c r="N5">
-        <v>1.015793687912169</v>
+        <v>1.017008157060938</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017268169307787</v>
+        <v>1.034666150595437</v>
       </c>
       <c r="D6">
-        <v>1.034839576869563</v>
+        <v>1.043804277517348</v>
       </c>
       <c r="E6">
-        <v>1.034664312937837</v>
+        <v>1.053200670179137</v>
       </c>
       <c r="F6">
-        <v>1.043321525607057</v>
+        <v>1.058248791631227</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049665574405019</v>
+        <v>1.039781742722513</v>
       </c>
       <c r="J6">
-        <v>1.035722261359223</v>
+        <v>1.039090784600116</v>
       </c>
       <c r="K6">
-        <v>1.044284396649897</v>
+        <v>1.046208682011498</v>
       </c>
       <c r="L6">
-        <v>1.044111020305859</v>
+        <v>1.055582507490187</v>
       </c>
       <c r="M6">
-        <v>1.052675922302285</v>
+        <v>1.060618682565563</v>
       </c>
       <c r="N6">
-        <v>1.015818068441254</v>
+        <v>1.017013797324056</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016227269759445</v>
+        <v>1.034437183135551</v>
       </c>
       <c r="D7">
-        <v>1.034069385124551</v>
+        <v>1.043626205204481</v>
       </c>
       <c r="E7">
-        <v>1.033640879654738</v>
+        <v>1.052950161870115</v>
       </c>
       <c r="F7">
-        <v>1.042351503201273</v>
+        <v>1.058015881411376</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049405319657371</v>
+        <v>1.03973623722515</v>
       </c>
       <c r="J7">
-        <v>1.03521885346518</v>
+        <v>1.038974251829665</v>
       </c>
       <c r="K7">
-        <v>1.043770432266403</v>
+        <v>1.046090350276544</v>
       </c>
       <c r="L7">
-        <v>1.043346688364873</v>
+        <v>1.055391324989567</v>
       </c>
       <c r="M7">
-        <v>1.051961463239782</v>
+        <v>1.060444740956939</v>
       </c>
       <c r="N7">
-        <v>1.015649882704697</v>
+        <v>1.01697501212713</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011802716820428</v>
+        <v>1.033481571555759</v>
       </c>
       <c r="D8">
-        <v>1.030802095530489</v>
+        <v>1.042883231395439</v>
       </c>
       <c r="E8">
-        <v>1.029307326015331</v>
+        <v>1.051906092566975</v>
       </c>
       <c r="F8">
-        <v>1.038240365971579</v>
+        <v>1.057044710064492</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048283473486475</v>
+        <v>1.039544419233081</v>
       </c>
       <c r="J8">
-        <v>1.033074000508965</v>
+        <v>1.038487160893309</v>
       </c>
       <c r="K8">
-        <v>1.041580391271784</v>
+        <v>1.045595652061739</v>
       </c>
       <c r="L8">
-        <v>1.040104421706247</v>
+        <v>1.05459388987013</v>
       </c>
       <c r="M8">
-        <v>1.048926111371133</v>
+        <v>1.059718687325565</v>
       </c>
       <c r="N8">
-        <v>1.014933200440674</v>
+        <v>1.016812857623974</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003711703485495</v>
+        <v>1.031803204751315</v>
       </c>
       <c r="D9">
-        <v>1.024854695228069</v>
+        <v>1.041579195740075</v>
       </c>
       <c r="E9">
-        <v>1.021448065322021</v>
+        <v>1.050077821461379</v>
       </c>
       <c r="F9">
-        <v>1.030770598515455</v>
+        <v>1.055342408695926</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046174280764035</v>
+        <v>1.039200384398546</v>
       </c>
       <c r="J9">
-        <v>1.029134069351632</v>
+        <v>1.037628919926467</v>
       </c>
       <c r="K9">
-        <v>1.037556994129504</v>
+        <v>1.044723680236104</v>
       </c>
       <c r="L9">
-        <v>1.034202489579655</v>
+        <v>1.053195149252653</v>
       </c>
       <c r="M9">
-        <v>1.043383419429993</v>
+        <v>1.058443153737695</v>
       </c>
       <c r="N9">
-        <v>1.013616418613983</v>
+        <v>1.016527005448728</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9981035167820973</v>
+        <v>1.030688141287255</v>
       </c>
       <c r="D10">
-        <v>1.02075306129287</v>
+        <v>1.040713438854014</v>
       </c>
       <c r="E10">
-        <v>1.016046023977344</v>
+        <v>1.048866849520593</v>
       </c>
       <c r="F10">
-        <v>1.025627269425586</v>
+        <v>1.054213744385397</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044675069736312</v>
+        <v>1.038967022047901</v>
       </c>
       <c r="J10">
-        <v>1.026392581250888</v>
+        <v>1.037056888658564</v>
       </c>
       <c r="K10">
-        <v>1.034757456913734</v>
+        <v>1.044142280965547</v>
       </c>
       <c r="L10">
-        <v>1.030131482796877</v>
+        <v>1.052267097588147</v>
       </c>
       <c r="M10">
-        <v>1.039548734749743</v>
+        <v>1.057595505138311</v>
       </c>
       <c r="N10">
-        <v>1.01270005845908</v>
+        <v>1.016336387681764</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9956204749528271</v>
+        <v>1.030206244801616</v>
       </c>
       <c r="D11">
-        <v>1.01894248465775</v>
+        <v>1.040339435580239</v>
       </c>
       <c r="E11">
-        <v>1.013665373162234</v>
+        <v>1.048344382001881</v>
       </c>
       <c r="F11">
-        <v>1.023358577052412</v>
+        <v>1.053726520157134</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044002848641423</v>
+        <v>1.038865033306206</v>
       </c>
       <c r="J11">
-        <v>1.025176589108224</v>
+        <v>1.036809240176841</v>
       </c>
       <c r="K11">
-        <v>1.03351580154004</v>
+        <v>1.043890526322737</v>
       </c>
       <c r="L11">
-        <v>1.028334101324163</v>
+        <v>1.051866318144268</v>
       </c>
       <c r="M11">
-        <v>1.037853031404007</v>
+        <v>1.057229128994575</v>
       </c>
       <c r="N11">
-        <v>1.012293595648674</v>
+        <v>1.016253842211098</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9946896051247153</v>
+        <v>1.03002738930533</v>
       </c>
       <c r="D12">
-        <v>1.018264577803797</v>
+        <v>1.040200647648386</v>
       </c>
       <c r="E12">
-        <v>1.012774588942344</v>
+        <v>1.048150600809922</v>
       </c>
       <c r="F12">
-        <v>1.022509383343946</v>
+        <v>1.053545770309299</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043749604939746</v>
+        <v>1.038827009515918</v>
       </c>
       <c r="J12">
-        <v>1.024720423291091</v>
+        <v>1.036717260595125</v>
       </c>
       <c r="K12">
-        <v>1.033050027987181</v>
+        <v>1.04379701414246</v>
       </c>
       <c r="L12">
-        <v>1.02766107316905</v>
+        <v>1.051717613955572</v>
       </c>
       <c r="M12">
-        <v>1.03721768201969</v>
+        <v>1.057093141807602</v>
       </c>
       <c r="N12">
-        <v>1.012141115741245</v>
+        <v>1.0162231806179</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9948896728541193</v>
+        <v>1.030065747942825</v>
       </c>
       <c r="D13">
-        <v>1.018410237621384</v>
+        <v>1.040230412055187</v>
       </c>
       <c r="E13">
-        <v>1.012965963916242</v>
+        <v>1.048192154530514</v>
       </c>
       <c r="F13">
-        <v>1.022691836591969</v>
+        <v>1.053584531458931</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043804088710385</v>
+        <v>1.038835172099148</v>
       </c>
       <c r="J13">
-        <v>1.024818478161562</v>
+        <v>1.036736990139753</v>
       </c>
       <c r="K13">
-        <v>1.033150147087997</v>
+        <v>1.043817072767579</v>
       </c>
       <c r="L13">
-        <v>1.027805687718701</v>
+        <v>1.051749504095408</v>
       </c>
       <c r="M13">
-        <v>1.037354218228863</v>
+        <v>1.057122306910082</v>
       </c>
       <c r="N13">
-        <v>1.012173891948624</v>
+        <v>1.016229757650019</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9955437055937686</v>
+        <v>1.030191457635234</v>
       </c>
       <c r="D14">
-        <v>1.018886559498355</v>
+        <v>1.040327960590544</v>
       </c>
       <c r="E14">
-        <v>1.013591874926137</v>
+        <v>1.048328358129817</v>
       </c>
       <c r="F14">
-        <v>1.023288516532937</v>
+        <v>1.053711574675636</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043981988395556</v>
+        <v>1.038861893112089</v>
       </c>
       <c r="J14">
-        <v>1.025138974825724</v>
+        <v>1.036801636943037</v>
       </c>
       <c r="K14">
-        <v>1.03347739459033</v>
+        <v>1.043882796554056</v>
       </c>
       <c r="L14">
-        <v>1.028278579974666</v>
+        <v>1.051854022870466</v>
       </c>
       <c r="M14">
-        <v>1.037800626357509</v>
+        <v>1.057217886175476</v>
       </c>
       <c r="N14">
-        <v>1.01228102253037</v>
+        <v>1.016251307722282</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9959455321610681</v>
+        <v>1.030268930446278</v>
       </c>
       <c r="D15">
-        <v>1.019179318690721</v>
+        <v>1.040388081218867</v>
       </c>
       <c r="E15">
-        <v>1.01397664931391</v>
+        <v>1.048412315698113</v>
       </c>
       <c r="F15">
-        <v>1.02365528167507</v>
+        <v>1.053789880333926</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044091125050362</v>
+        <v>1.038878338198793</v>
       </c>
       <c r="J15">
-        <v>1.025335843561493</v>
+        <v>1.036841469084805</v>
       </c>
       <c r="K15">
-        <v>1.033678412891361</v>
+        <v>1.04392329128441</v>
       </c>
       <c r="L15">
-        <v>1.028569222687881</v>
+        <v>1.051918442012789</v>
       </c>
       <c r="M15">
-        <v>1.038074939798211</v>
+        <v>1.057276789184806</v>
       </c>
       <c r="N15">
-        <v>1.012346828765765</v>
+        <v>1.016264585377137</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9982671273792276</v>
+        <v>1.030720143012913</v>
       </c>
       <c r="D16">
-        <v>1.020872479650784</v>
+        <v>1.040738278833649</v>
       </c>
       <c r="E16">
-        <v>1.016203122585331</v>
+        <v>1.048901564018387</v>
       </c>
       <c r="F16">
-        <v>1.025776937521179</v>
+        <v>1.054246111547493</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044719189777658</v>
+        <v>1.038973770939984</v>
       </c>
       <c r="J16">
-        <v>1.026472661015201</v>
+        <v>1.03707332533297</v>
       </c>
       <c r="K16">
-        <v>1.034839229080293</v>
+        <v>1.044158989111553</v>
       </c>
       <c r="L16">
-        <v>1.030250022972397</v>
+        <v>1.052293718772437</v>
       </c>
       <c r="M16">
-        <v>1.039660513911691</v>
+        <v>1.057619834409021</v>
       </c>
       <c r="N16">
-        <v>1.012726826195442</v>
+        <v>1.016341865852166</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9997085302981817</v>
+        <v>1.031003428094779</v>
       </c>
       <c r="D17">
-        <v>1.021925176589232</v>
+        <v>1.04095818430335</v>
       </c>
       <c r="E17">
-        <v>1.017588428193162</v>
+        <v>1.049208964589614</v>
       </c>
       <c r="F17">
-        <v>1.027096486069222</v>
+        <v>1.054532695203348</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045106925947892</v>
+        <v>1.039033381920508</v>
       </c>
       <c r="J17">
-        <v>1.027177913866566</v>
+        <v>1.037218775591881</v>
       </c>
       <c r="K17">
-        <v>1.035559397175947</v>
+        <v>1.044306835832711</v>
       </c>
       <c r="L17">
-        <v>1.031294939860322</v>
+        <v>1.052529408616603</v>
       </c>
       <c r="M17">
-        <v>1.040645529779063</v>
+        <v>1.057835195985354</v>
       </c>
       <c r="N17">
-        <v>1.012962565523821</v>
+        <v>1.01639034039209</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000544026583335</v>
+        <v>1.031168753405084</v>
       </c>
       <c r="D18">
-        <v>1.022535877285933</v>
+        <v>1.041086535747256</v>
       </c>
       <c r="E18">
-        <v>1.018392464878032</v>
+        <v>1.04938844846924</v>
       </c>
       <c r="F18">
-        <v>1.027862160461399</v>
+        <v>1.054699998677498</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045330867767379</v>
+        <v>1.039068061121703</v>
       </c>
       <c r="J18">
-        <v>1.027586496992346</v>
+        <v>1.03730361850189</v>
       </c>
       <c r="K18">
-        <v>1.035976628921183</v>
+        <v>1.044393071752197</v>
       </c>
       <c r="L18">
-        <v>1.031901097036391</v>
+        <v>1.052666985919819</v>
       </c>
       <c r="M18">
-        <v>1.041216684293666</v>
+        <v>1.057960876428841</v>
       </c>
       <c r="N18">
-        <v>1.013099138386694</v>
+        <v>1.016418614090632</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000828028995</v>
+        <v>1.031225140251073</v>
       </c>
       <c r="D19">
-        <v>1.022743552954493</v>
+        <v>1.041130314509649</v>
       </c>
       <c r="E19">
-        <v>1.018665951907624</v>
+        <v>1.049449678688025</v>
       </c>
       <c r="F19">
-        <v>1.028122565283684</v>
+        <v>1.054757069205363</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045406852489578</v>
+        <v>1.039079870395101</v>
       </c>
       <c r="J19">
-        <v>1.027725346321951</v>
+        <v>1.03733254841871</v>
       </c>
       <c r="K19">
-        <v>1.036118418407635</v>
+        <v>1.044422475831336</v>
       </c>
       <c r="L19">
-        <v>1.03210722291311</v>
+        <v>1.052713913705458</v>
       </c>
       <c r="M19">
-        <v>1.041410864150229</v>
+        <v>1.058003740956338</v>
       </c>
       <c r="N19">
-        <v>1.013145549902919</v>
+        <v>1.01642825456116</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9995544268433157</v>
+        <v>1.030973024971107</v>
       </c>
       <c r="D20">
-        <v>1.021812576868442</v>
+        <v>1.040934581792871</v>
       </c>
       <c r="E20">
-        <v>1.01744021245099</v>
+        <v>1.049175964541581</v>
       </c>
       <c r="F20">
-        <v>1.026955326094059</v>
+        <v>1.054501932569941</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045065555575845</v>
+        <v>1.039026995620413</v>
       </c>
       <c r="J20">
-        <v>1.02710253540017</v>
+        <v>1.037203169707832</v>
       </c>
       <c r="K20">
-        <v>1.035482423712026</v>
+        <v>1.044290973327461</v>
       </c>
       <c r="L20">
-        <v>1.031183175528221</v>
+        <v>1.052504110617348</v>
       </c>
       <c r="M20">
-        <v>1.040540198755829</v>
+        <v>1.057812083126186</v>
       </c>
       <c r="N20">
-        <v>1.012937369450075</v>
+        <v>1.016385139599642</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9953513483475589</v>
+        <v>1.030154435318683</v>
       </c>
       <c r="D21">
-        <v>1.018746444598179</v>
+        <v>1.040299231275496</v>
       </c>
       <c r="E21">
-        <v>1.013407741480821</v>
+        <v>1.04828824163668</v>
       </c>
       <c r="F21">
-        <v>1.023112990678405</v>
+        <v>1.053674157331808</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043929700117919</v>
+        <v>1.038854028315526</v>
       </c>
       <c r="J21">
-        <v>1.025044721785922</v>
+        <v>1.03678259983652</v>
       </c>
       <c r="K21">
-        <v>1.033381155641043</v>
+        <v>1.043863442506062</v>
       </c>
       <c r="L21">
-        <v>1.028139475739289</v>
+        <v>1.051823240177297</v>
       </c>
       <c r="M21">
-        <v>1.037669323422727</v>
+        <v>1.057189737654703</v>
       </c>
       <c r="N21">
-        <v>1.012249517093749</v>
+        <v>1.016244961773907</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9926590106075559</v>
+        <v>1.029640579939189</v>
       </c>
       <c r="D22">
-        <v>1.016787429696874</v>
+        <v>1.039900534801826</v>
       </c>
       <c r="E22">
-        <v>1.010834593500075</v>
+        <v>1.047731753821288</v>
       </c>
       <c r="F22">
-        <v>1.020659419916177</v>
+        <v>1.053155016253701</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043194951984848</v>
+        <v>1.038744463652549</v>
       </c>
       <c r="J22">
-        <v>1.023724823031005</v>
+        <v>1.036518218347854</v>
       </c>
       <c r="K22">
-        <v>1.032033502079857</v>
+        <v>1.043594641693069</v>
       </c>
       <c r="L22">
-        <v>1.026194427790501</v>
+        <v>1.051396094747153</v>
       </c>
       <c r="M22">
-        <v>1.035832426631815</v>
+        <v>1.056799030943012</v>
       </c>
       <c r="N22">
-        <v>1.011808323956635</v>
+        <v>1.016156823581315</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9940911004025366</v>
+        <v>1.029912905554641</v>
       </c>
       <c r="D23">
-        <v>1.017828964778515</v>
+        <v>1.040111817332465</v>
       </c>
       <c r="E23">
-        <v>1.01220234015482</v>
+        <v>1.048026600518817</v>
       </c>
       <c r="F23">
-        <v>1.021963768606968</v>
+        <v>1.053430097423406</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04358643799988</v>
+        <v>1.038802622776425</v>
       </c>
       <c r="J23">
-        <v>1.024427049109457</v>
+        <v>1.036658367024233</v>
       </c>
       <c r="K23">
-        <v>1.03275048115488</v>
+        <v>1.043737137155093</v>
       </c>
       <c r="L23">
-        <v>1.027228576081972</v>
+        <v>1.051622442418444</v>
       </c>
       <c r="M23">
-        <v>1.036809287323037</v>
+        <v>1.057006095736349</v>
       </c>
       <c r="N23">
-        <v>1.012043051454491</v>
+        <v>1.016203547413156</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9996240757597677</v>
+        <v>1.030986762556471</v>
       </c>
       <c r="D24">
-        <v>1.021863466081086</v>
+        <v>1.040945246491198</v>
       </c>
       <c r="E24">
-        <v>1.01750719707271</v>
+        <v>1.049190875279784</v>
       </c>
       <c r="F24">
-        <v>1.027019122541957</v>
+        <v>1.054515832434969</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045084255914704</v>
+        <v>1.039029881595428</v>
       </c>
       <c r="J24">
-        <v>1.027136604261793</v>
+        <v>1.037210221322188</v>
       </c>
       <c r="K24">
-        <v>1.035517213442892</v>
+        <v>1.044298140912755</v>
       </c>
       <c r="L24">
-        <v>1.031233687280847</v>
+        <v>1.052515541375036</v>
       </c>
       <c r="M24">
-        <v>1.040587803769637</v>
+        <v>1.057822526635862</v>
       </c>
       <c r="N24">
-        <v>1.012948757341537</v>
+        <v>1.016387489616052</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005839935110045</v>
+        <v>1.032236433472838</v>
       </c>
       <c r="D25">
-        <v>1.026415654763462</v>
+        <v>1.041915694281897</v>
       </c>
       <c r="E25">
-        <v>1.02350756169765</v>
+        <v>1.05054909515263</v>
       </c>
       <c r="F25">
-        <v>1.032729620759098</v>
+        <v>1.055781410858242</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046735651550596</v>
+        <v>1.03929003510362</v>
       </c>
       <c r="J25">
-        <v>1.030172347934041</v>
+        <v>1.037850778737814</v>
       </c>
       <c r="K25">
-        <v>1.038617288299254</v>
+        <v>1.044949126904552</v>
       </c>
       <c r="L25">
-        <v>1.035751592847548</v>
+        <v>1.053555982396828</v>
       </c>
       <c r="M25">
-        <v>1.044840242428494</v>
+        <v>1.058772440502859</v>
       </c>
       <c r="N25">
-        <v>1.013963452059476</v>
+        <v>1.016600915873663</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033235929787689</v>
+        <v>1.010644247177338</v>
       </c>
       <c r="D2">
-        <v>1.04269230669643</v>
+        <v>1.029948380203854</v>
       </c>
       <c r="E2">
-        <v>1.05163808281508</v>
+        <v>1.02817700331364</v>
       </c>
       <c r="F2">
-        <v>1.056795298537894</v>
+        <v>1.037167112725723</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039494626632202</v>
+        <v>1.047985824786164</v>
       </c>
       <c r="J2">
-        <v>1.038361765971013</v>
+        <v>1.032511185702202</v>
       </c>
       <c r="K2">
-        <v>1.045468276411395</v>
+        <v>1.041005676611103</v>
       </c>
       <c r="L2">
-        <v>1.054389030588654</v>
+        <v>1.039257263282265</v>
       </c>
       <c r="M2">
-        <v>1.059532029798143</v>
+        <v>1.048131840978821</v>
       </c>
       <c r="N2">
-        <v>1.016771103568964</v>
+        <v>1.014745118856842</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033963217885662</v>
+        <v>1.014049039973789</v>
       </c>
       <c r="D3">
-        <v>1.043257659258271</v>
+        <v>1.032459555583943</v>
       </c>
       <c r="E3">
-        <v>1.052432034380864</v>
+        <v>1.031504120077433</v>
       </c>
       <c r="F3">
-        <v>1.057534019563753</v>
+        <v>1.040325148193743</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039641478269304</v>
+        <v>1.048856087561325</v>
       </c>
       <c r="J3">
-        <v>1.038732810342065</v>
+        <v>1.034163905527779</v>
       </c>
       <c r="K3">
-        <v>1.045845155496561</v>
+        <v>1.042693295840243</v>
       </c>
       <c r="L3">
-        <v>1.054995716485527</v>
+        <v>1.041749164182909</v>
       </c>
       <c r="M3">
-        <v>1.060084651120864</v>
+        <v>1.050466805305405</v>
       </c>
       <c r="N3">
-        <v>1.016894642806203</v>
+        <v>1.015297400304759</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034434533970591</v>
+        <v>1.016215183243701</v>
       </c>
       <c r="D4">
-        <v>1.043624145020133</v>
+        <v>1.034060445424525</v>
       </c>
       <c r="E4">
-        <v>1.052947264268356</v>
+        <v>1.0336290049913</v>
       </c>
       <c r="F4">
-        <v>1.058013187118987</v>
+        <v>1.042340246197802</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039735709682618</v>
+        <v>1.049402289139076</v>
       </c>
       <c r="J4">
-        <v>1.038972903136704</v>
+        <v>1.035213005301839</v>
       </c>
       <c r="K4">
-        <v>1.046088980714887</v>
+        <v>1.043764461337298</v>
       </c>
       <c r="L4">
-        <v>1.055389113260234</v>
+        <v>1.043337816801977</v>
       </c>
       <c r="M4">
-        <v>1.060442728390216</v>
+        <v>1.051953168010025</v>
       </c>
       <c r="N4">
-        <v>1.016974563225571</v>
+        <v>1.015647928808613</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034632843700113</v>
+        <v>1.017117213079454</v>
       </c>
       <c r="D5">
-        <v>1.043778372829037</v>
+        <v>1.034727843403066</v>
       </c>
       <c r="E5">
-        <v>1.053164221400292</v>
+        <v>1.034515793809918</v>
       </c>
       <c r="F5">
-        <v>1.058214905979286</v>
+        <v>1.043180779262734</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039775134329093</v>
+        <v>1.049627921966306</v>
       </c>
       <c r="J5">
-        <v>1.039073837379775</v>
+        <v>1.035649284517358</v>
       </c>
       <c r="K5">
-        <v>1.046191473685293</v>
+        <v>1.04420989088877</v>
       </c>
       <c r="L5">
-        <v>1.055554694222171</v>
+        <v>1.04400013556987</v>
       </c>
       <c r="M5">
-        <v>1.060593380613003</v>
+        <v>1.052572299841734</v>
       </c>
       <c r="N5">
-        <v>1.017008157060938</v>
+        <v>1.015793687912169</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034666150595437</v>
+        <v>1.017268169307787</v>
       </c>
       <c r="D6">
-        <v>1.043804277517348</v>
+        <v>1.034839576869563</v>
       </c>
       <c r="E6">
-        <v>1.053200670179137</v>
+        <v>1.034664312937837</v>
       </c>
       <c r="F6">
-        <v>1.058248791631227</v>
+        <v>1.043321525607056</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039781742722513</v>
+        <v>1.049665574405019</v>
       </c>
       <c r="J6">
-        <v>1.039090784600116</v>
+        <v>1.035722261359222</v>
       </c>
       <c r="K6">
-        <v>1.046208682011498</v>
+        <v>1.044284396649896</v>
       </c>
       <c r="L6">
-        <v>1.055582507490187</v>
+        <v>1.044111020305859</v>
       </c>
       <c r="M6">
-        <v>1.060618682565563</v>
+        <v>1.052675922302285</v>
       </c>
       <c r="N6">
-        <v>1.017013797324056</v>
+        <v>1.015818068441253</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034437183135551</v>
+        <v>1.016227269759444</v>
       </c>
       <c r="D7">
-        <v>1.043626205204481</v>
+        <v>1.034069385124551</v>
       </c>
       <c r="E7">
-        <v>1.052950161870115</v>
+        <v>1.033640879654738</v>
       </c>
       <c r="F7">
-        <v>1.058015881411376</v>
+        <v>1.042351503201273</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03973623722515</v>
+        <v>1.04940531965737</v>
       </c>
       <c r="J7">
-        <v>1.038974251829665</v>
+        <v>1.035218853465179</v>
       </c>
       <c r="K7">
-        <v>1.046090350276544</v>
+        <v>1.043770432266402</v>
       </c>
       <c r="L7">
-        <v>1.055391324989567</v>
+        <v>1.043346688364873</v>
       </c>
       <c r="M7">
-        <v>1.060444740956939</v>
+        <v>1.051961463239782</v>
       </c>
       <c r="N7">
-        <v>1.01697501212713</v>
+        <v>1.015649882704697</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033481571555759</v>
+        <v>1.011802716820428</v>
       </c>
       <c r="D8">
-        <v>1.042883231395439</v>
+        <v>1.030802095530489</v>
       </c>
       <c r="E8">
-        <v>1.051906092566975</v>
+        <v>1.029307326015331</v>
       </c>
       <c r="F8">
-        <v>1.057044710064492</v>
+        <v>1.03824036597158</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039544419233081</v>
+        <v>1.048283473486475</v>
       </c>
       <c r="J8">
-        <v>1.038487160893309</v>
+        <v>1.033074000508965</v>
       </c>
       <c r="K8">
-        <v>1.045595652061739</v>
+        <v>1.041580391271784</v>
       </c>
       <c r="L8">
-        <v>1.05459388987013</v>
+        <v>1.040104421706247</v>
       </c>
       <c r="M8">
-        <v>1.059718687325565</v>
+        <v>1.048926111371134</v>
       </c>
       <c r="N8">
-        <v>1.016812857623974</v>
+        <v>1.014933200440674</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031803204751315</v>
+        <v>1.003711703485495</v>
       </c>
       <c r="D9">
-        <v>1.041579195740075</v>
+        <v>1.024854695228068</v>
       </c>
       <c r="E9">
-        <v>1.050077821461379</v>
+        <v>1.021448065322021</v>
       </c>
       <c r="F9">
-        <v>1.055342408695926</v>
+        <v>1.030770598515455</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039200384398546</v>
+        <v>1.046174280764035</v>
       </c>
       <c r="J9">
-        <v>1.037628919926467</v>
+        <v>1.029134069351632</v>
       </c>
       <c r="K9">
-        <v>1.044723680236104</v>
+        <v>1.037556994129504</v>
       </c>
       <c r="L9">
-        <v>1.053195149252653</v>
+        <v>1.034202489579655</v>
       </c>
       <c r="M9">
-        <v>1.058443153737695</v>
+        <v>1.043383419429993</v>
       </c>
       <c r="N9">
-        <v>1.016527005448728</v>
+        <v>1.013616418613983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030688141287255</v>
+        <v>0.9981035167820969</v>
       </c>
       <c r="D10">
-        <v>1.040713438854014</v>
+        <v>1.02075306129287</v>
       </c>
       <c r="E10">
-        <v>1.048866849520593</v>
+        <v>1.016046023977343</v>
       </c>
       <c r="F10">
-        <v>1.054213744385397</v>
+        <v>1.025627269425585</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038967022047901</v>
+        <v>1.044675069736311</v>
       </c>
       <c r="J10">
-        <v>1.037056888658564</v>
+        <v>1.026392581250888</v>
       </c>
       <c r="K10">
-        <v>1.044142280965547</v>
+        <v>1.034757456913733</v>
       </c>
       <c r="L10">
-        <v>1.052267097588147</v>
+        <v>1.030131482796876</v>
       </c>
       <c r="M10">
-        <v>1.057595505138311</v>
+        <v>1.039548734749742</v>
       </c>
       <c r="N10">
-        <v>1.016336387681764</v>
+        <v>1.01270005845908</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030206244801616</v>
+        <v>0.9956204749528261</v>
       </c>
       <c r="D11">
-        <v>1.040339435580239</v>
+        <v>1.018942484657749</v>
       </c>
       <c r="E11">
-        <v>1.048344382001881</v>
+        <v>1.013665373162234</v>
       </c>
       <c r="F11">
-        <v>1.053726520157134</v>
+        <v>1.023358577052411</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038865033306206</v>
+        <v>1.044002848641422</v>
       </c>
       <c r="J11">
-        <v>1.036809240176841</v>
+        <v>1.025176589108224</v>
       </c>
       <c r="K11">
-        <v>1.043890526322737</v>
+        <v>1.033515801540039</v>
       </c>
       <c r="L11">
-        <v>1.051866318144268</v>
+        <v>1.028334101324162</v>
       </c>
       <c r="M11">
-        <v>1.057229128994575</v>
+        <v>1.037853031404006</v>
       </c>
       <c r="N11">
-        <v>1.016253842211098</v>
+        <v>1.012293595648674</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03002738930533</v>
+        <v>0.9946896051247154</v>
       </c>
       <c r="D12">
-        <v>1.040200647648386</v>
+        <v>1.018264577803798</v>
       </c>
       <c r="E12">
-        <v>1.048150600809922</v>
+        <v>1.012774588942344</v>
       </c>
       <c r="F12">
-        <v>1.053545770309299</v>
+        <v>1.022509383343946</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038827009515918</v>
+        <v>1.043749604939746</v>
       </c>
       <c r="J12">
-        <v>1.036717260595125</v>
+        <v>1.024720423291091</v>
       </c>
       <c r="K12">
-        <v>1.04379701414246</v>
+        <v>1.033050027987182</v>
       </c>
       <c r="L12">
-        <v>1.051717613955572</v>
+        <v>1.02766107316905</v>
       </c>
       <c r="M12">
-        <v>1.057093141807602</v>
+        <v>1.03721768201969</v>
       </c>
       <c r="N12">
-        <v>1.0162231806179</v>
+        <v>1.012141115741245</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030065747942825</v>
+        <v>0.994889672854118</v>
       </c>
       <c r="D13">
-        <v>1.040230412055187</v>
+        <v>1.018410237621383</v>
       </c>
       <c r="E13">
-        <v>1.048192154530514</v>
+        <v>1.012965963916241</v>
       </c>
       <c r="F13">
-        <v>1.053584531458931</v>
+        <v>1.022691836591968</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038835172099148</v>
+        <v>1.043804088710384</v>
       </c>
       <c r="J13">
-        <v>1.036736990139753</v>
+        <v>1.024818478161561</v>
       </c>
       <c r="K13">
-        <v>1.043817072767579</v>
+        <v>1.033150147087996</v>
       </c>
       <c r="L13">
-        <v>1.051749504095408</v>
+        <v>1.027805687718699</v>
       </c>
       <c r="M13">
-        <v>1.057122306910082</v>
+        <v>1.037354218228862</v>
       </c>
       <c r="N13">
-        <v>1.016229757650019</v>
+        <v>1.012173891948623</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030191457635234</v>
+        <v>0.9955437055937683</v>
       </c>
       <c r="D14">
-        <v>1.040327960590544</v>
+        <v>1.018886559498355</v>
       </c>
       <c r="E14">
-        <v>1.048328358129817</v>
+        <v>1.013591874926136</v>
       </c>
       <c r="F14">
-        <v>1.053711574675636</v>
+        <v>1.023288516532937</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038861893112089</v>
+        <v>1.043981988395556</v>
       </c>
       <c r="J14">
-        <v>1.036801636943037</v>
+        <v>1.025138974825723</v>
       </c>
       <c r="K14">
-        <v>1.043882796554056</v>
+        <v>1.033477394590329</v>
       </c>
       <c r="L14">
-        <v>1.051854022870466</v>
+        <v>1.028278579974666</v>
       </c>
       <c r="M14">
-        <v>1.057217886175476</v>
+        <v>1.037800626357508</v>
       </c>
       <c r="N14">
-        <v>1.016251307722282</v>
+        <v>1.01228102253037</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030268930446278</v>
+        <v>0.995945532161068</v>
       </c>
       <c r="D15">
-        <v>1.040388081218867</v>
+        <v>1.019179318690721</v>
       </c>
       <c r="E15">
-        <v>1.048412315698113</v>
+        <v>1.013976649313911</v>
       </c>
       <c r="F15">
-        <v>1.053789880333926</v>
+        <v>1.02365528167507</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038878338198793</v>
+        <v>1.044091125050362</v>
       </c>
       <c r="J15">
-        <v>1.036841469084805</v>
+        <v>1.025335843561493</v>
       </c>
       <c r="K15">
-        <v>1.04392329128441</v>
+        <v>1.033678412891361</v>
       </c>
       <c r="L15">
-        <v>1.051918442012789</v>
+        <v>1.028569222687881</v>
       </c>
       <c r="M15">
-        <v>1.057276789184806</v>
+        <v>1.038074939798211</v>
       </c>
       <c r="N15">
-        <v>1.016264585377137</v>
+        <v>1.012346828765765</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030720143012913</v>
+        <v>0.9982671273792267</v>
       </c>
       <c r="D16">
-        <v>1.040738278833649</v>
+        <v>1.020872479650783</v>
       </c>
       <c r="E16">
-        <v>1.048901564018387</v>
+        <v>1.01620312258533</v>
       </c>
       <c r="F16">
-        <v>1.054246111547493</v>
+        <v>1.025776937521178</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038973770939984</v>
+        <v>1.044719189777657</v>
       </c>
       <c r="J16">
-        <v>1.03707332533297</v>
+        <v>1.0264726610152</v>
       </c>
       <c r="K16">
-        <v>1.044158989111553</v>
+        <v>1.034839229080293</v>
       </c>
       <c r="L16">
-        <v>1.052293718772437</v>
+        <v>1.030250022972395</v>
       </c>
       <c r="M16">
-        <v>1.057619834409021</v>
+        <v>1.03966051391169</v>
       </c>
       <c r="N16">
-        <v>1.016341865852166</v>
+        <v>1.012726826195441</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031003428094779</v>
+        <v>0.9997085302981817</v>
       </c>
       <c r="D17">
-        <v>1.04095818430335</v>
+        <v>1.021925176589232</v>
       </c>
       <c r="E17">
-        <v>1.049208964589614</v>
+        <v>1.017588428193163</v>
       </c>
       <c r="F17">
-        <v>1.054532695203348</v>
+        <v>1.027096486069222</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039033381920508</v>
+        <v>1.045106925947892</v>
       </c>
       <c r="J17">
-        <v>1.037218775591881</v>
+        <v>1.027177913866566</v>
       </c>
       <c r="K17">
-        <v>1.044306835832711</v>
+        <v>1.035559397175947</v>
       </c>
       <c r="L17">
-        <v>1.052529408616603</v>
+        <v>1.031294939860322</v>
       </c>
       <c r="M17">
-        <v>1.057835195985354</v>
+        <v>1.040645529779063</v>
       </c>
       <c r="N17">
-        <v>1.01639034039209</v>
+        <v>1.01296256552382</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031168753405084</v>
+        <v>1.000544026583335</v>
       </c>
       <c r="D18">
-        <v>1.041086535747256</v>
+        <v>1.022535877285933</v>
       </c>
       <c r="E18">
-        <v>1.04938844846924</v>
+        <v>1.018392464878032</v>
       </c>
       <c r="F18">
-        <v>1.054699998677498</v>
+        <v>1.0278621604614</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039068061121703</v>
+        <v>1.045330867767379</v>
       </c>
       <c r="J18">
-        <v>1.03730361850189</v>
+        <v>1.027586496992345</v>
       </c>
       <c r="K18">
-        <v>1.044393071752197</v>
+        <v>1.035976628921182</v>
       </c>
       <c r="L18">
-        <v>1.052666985919819</v>
+        <v>1.031901097036392</v>
       </c>
       <c r="M18">
-        <v>1.057960876428841</v>
+        <v>1.041216684293666</v>
       </c>
       <c r="N18">
-        <v>1.016418614090632</v>
+        <v>1.013099138386694</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031225140251073</v>
+        <v>1.000828028995001</v>
       </c>
       <c r="D19">
-        <v>1.041130314509649</v>
+        <v>1.022743552954494</v>
       </c>
       <c r="E19">
-        <v>1.049449678688025</v>
+        <v>1.018665951907624</v>
       </c>
       <c r="F19">
-        <v>1.054757069205363</v>
+        <v>1.028122565283684</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039079870395101</v>
+        <v>1.045406852489579</v>
       </c>
       <c r="J19">
-        <v>1.03733254841871</v>
+        <v>1.027725346321952</v>
       </c>
       <c r="K19">
-        <v>1.044422475831336</v>
+        <v>1.036118418407636</v>
       </c>
       <c r="L19">
-        <v>1.052713913705458</v>
+        <v>1.03210722291311</v>
       </c>
       <c r="M19">
-        <v>1.058003740956338</v>
+        <v>1.041410864150229</v>
       </c>
       <c r="N19">
-        <v>1.01642825456116</v>
+        <v>1.013145549902919</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030973024971107</v>
+        <v>0.9995544268433156</v>
       </c>
       <c r="D20">
-        <v>1.040934581792871</v>
+        <v>1.021812576868442</v>
       </c>
       <c r="E20">
-        <v>1.049175964541581</v>
+        <v>1.01744021245099</v>
       </c>
       <c r="F20">
-        <v>1.054501932569941</v>
+        <v>1.026955326094059</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039026995620413</v>
+        <v>1.045065555575845</v>
       </c>
       <c r="J20">
-        <v>1.037203169707832</v>
+        <v>1.02710253540017</v>
       </c>
       <c r="K20">
-        <v>1.044290973327461</v>
+        <v>1.035482423712026</v>
       </c>
       <c r="L20">
-        <v>1.052504110617348</v>
+        <v>1.031183175528221</v>
       </c>
       <c r="M20">
-        <v>1.057812083126186</v>
+        <v>1.040540198755829</v>
       </c>
       <c r="N20">
-        <v>1.016385139599642</v>
+        <v>1.012937369450075</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030154435318683</v>
+        <v>0.9953513483475586</v>
       </c>
       <c r="D21">
-        <v>1.040299231275496</v>
+        <v>1.018746444598178</v>
       </c>
       <c r="E21">
-        <v>1.04828824163668</v>
+        <v>1.013407741480821</v>
       </c>
       <c r="F21">
-        <v>1.053674157331808</v>
+        <v>1.023112990678405</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038854028315526</v>
+        <v>1.043929700117919</v>
       </c>
       <c r="J21">
-        <v>1.03678259983652</v>
+        <v>1.025044721785921</v>
       </c>
       <c r="K21">
-        <v>1.043863442506062</v>
+        <v>1.033381155641042</v>
       </c>
       <c r="L21">
-        <v>1.051823240177297</v>
+        <v>1.028139475739289</v>
       </c>
       <c r="M21">
-        <v>1.057189737654703</v>
+        <v>1.037669323422726</v>
       </c>
       <c r="N21">
-        <v>1.016244961773907</v>
+        <v>1.012249517093749</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029640579939189</v>
+        <v>0.9926590106075558</v>
       </c>
       <c r="D22">
-        <v>1.039900534801826</v>
+        <v>1.016787429696874</v>
       </c>
       <c r="E22">
-        <v>1.047731753821288</v>
+        <v>1.010834593500075</v>
       </c>
       <c r="F22">
-        <v>1.053155016253701</v>
+        <v>1.020659419916177</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038744463652549</v>
+        <v>1.043194951984848</v>
       </c>
       <c r="J22">
-        <v>1.036518218347854</v>
+        <v>1.023724823031005</v>
       </c>
       <c r="K22">
-        <v>1.043594641693069</v>
+        <v>1.032033502079857</v>
       </c>
       <c r="L22">
-        <v>1.051396094747153</v>
+        <v>1.026194427790501</v>
       </c>
       <c r="M22">
-        <v>1.056799030943012</v>
+        <v>1.035832426631815</v>
       </c>
       <c r="N22">
-        <v>1.016156823581315</v>
+        <v>1.011808323956634</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029912905554641</v>
+        <v>0.9940911004025366</v>
       </c>
       <c r="D23">
-        <v>1.040111817332465</v>
+        <v>1.017828964778515</v>
       </c>
       <c r="E23">
-        <v>1.048026600518817</v>
+        <v>1.01220234015482</v>
       </c>
       <c r="F23">
-        <v>1.053430097423406</v>
+        <v>1.021963768606968</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038802622776425</v>
+        <v>1.04358643799988</v>
       </c>
       <c r="J23">
-        <v>1.036658367024233</v>
+        <v>1.024427049109457</v>
       </c>
       <c r="K23">
-        <v>1.043737137155093</v>
+        <v>1.03275048115488</v>
       </c>
       <c r="L23">
-        <v>1.051622442418444</v>
+        <v>1.027228576081972</v>
       </c>
       <c r="M23">
-        <v>1.057006095736349</v>
+        <v>1.036809287323037</v>
       </c>
       <c r="N23">
-        <v>1.016203547413156</v>
+        <v>1.012043051454491</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030986762556471</v>
+        <v>0.9996240757597674</v>
       </c>
       <c r="D24">
-        <v>1.040945246491198</v>
+        <v>1.021863466081086</v>
       </c>
       <c r="E24">
-        <v>1.049190875279784</v>
+        <v>1.01750719707271</v>
       </c>
       <c r="F24">
-        <v>1.054515832434969</v>
+        <v>1.027019122541957</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039029881595428</v>
+        <v>1.045084255914704</v>
       </c>
       <c r="J24">
-        <v>1.037210221322188</v>
+        <v>1.027136604261792</v>
       </c>
       <c r="K24">
-        <v>1.044298140912755</v>
+        <v>1.035517213442892</v>
       </c>
       <c r="L24">
-        <v>1.052515541375036</v>
+        <v>1.031233687280847</v>
       </c>
       <c r="M24">
-        <v>1.057822526635862</v>
+        <v>1.040587803769637</v>
       </c>
       <c r="N24">
-        <v>1.016387489616052</v>
+        <v>1.012948757341536</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032236433472838</v>
+        <v>1.005839935110044</v>
       </c>
       <c r="D25">
-        <v>1.041915694281897</v>
+        <v>1.026415654763462</v>
       </c>
       <c r="E25">
-        <v>1.05054909515263</v>
+        <v>1.02350756169765</v>
       </c>
       <c r="F25">
-        <v>1.055781410858242</v>
+        <v>1.032729620759098</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03929003510362</v>
+        <v>1.046735651550595</v>
       </c>
       <c r="J25">
-        <v>1.037850778737814</v>
+        <v>1.030172347934041</v>
       </c>
       <c r="K25">
-        <v>1.044949126904552</v>
+        <v>1.038617288299254</v>
       </c>
       <c r="L25">
-        <v>1.053555982396828</v>
+        <v>1.035751592847548</v>
       </c>
       <c r="M25">
-        <v>1.058772440502859</v>
+        <v>1.044840242428494</v>
       </c>
       <c r="N25">
-        <v>1.016600915873663</v>
+        <v>1.013963452059476</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.010644247177338</v>
+        <v>1.029518390266413</v>
       </c>
       <c r="D2">
-        <v>1.029948380203854</v>
+        <v>1.046410546573008</v>
       </c>
       <c r="E2">
-        <v>1.02817700331364</v>
+        <v>1.038324310200534</v>
       </c>
       <c r="F2">
-        <v>1.037167112725723</v>
+        <v>1.050582862606444</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047985824786164</v>
+        <v>1.062711921316719</v>
       </c>
       <c r="J2">
-        <v>1.032511185702202</v>
+        <v>1.050850683502677</v>
       </c>
       <c r="K2">
-        <v>1.041005676611103</v>
+        <v>1.057259066847876</v>
       </c>
       <c r="L2">
-        <v>1.039257263282265</v>
+        <v>1.049274348792181</v>
       </c>
       <c r="M2">
-        <v>1.048131840978821</v>
+        <v>1.061379762374469</v>
       </c>
       <c r="N2">
-        <v>1.014745118856842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.020400767205987</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.057150167353836</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.051557256973085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014049039973789</v>
+        <v>1.033346305967365</v>
       </c>
       <c r="D3">
-        <v>1.032459555583943</v>
+        <v>1.049046800950467</v>
       </c>
       <c r="E3">
-        <v>1.031504120077433</v>
+        <v>1.041410454625062</v>
       </c>
       <c r="F3">
-        <v>1.040325148193743</v>
+        <v>1.053406387315646</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048856087561325</v>
+        <v>1.063888603365002</v>
       </c>
       <c r="J3">
-        <v>1.034163905527779</v>
+        <v>1.052967428109172</v>
       </c>
       <c r="K3">
-        <v>1.042693295840243</v>
+        <v>1.059088344388046</v>
       </c>
       <c r="L3">
-        <v>1.041749164182909</v>
+        <v>1.051539540914796</v>
       </c>
       <c r="M3">
-        <v>1.050466805305405</v>
+        <v>1.063398653729044</v>
       </c>
       <c r="N3">
-        <v>1.015297400304759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.021137266917236</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.05874794701586</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.052848052813913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016215183243701</v>
+        <v>1.035779309098975</v>
       </c>
       <c r="D4">
-        <v>1.034060445424525</v>
+        <v>1.050726408727603</v>
       </c>
       <c r="E4">
-        <v>1.0336290049913</v>
+        <v>1.043381984558547</v>
       </c>
       <c r="F4">
-        <v>1.042340246197802</v>
+        <v>1.055208471580479</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049402289139076</v>
+        <v>1.064627801776929</v>
       </c>
       <c r="J4">
-        <v>1.035213005301839</v>
+        <v>1.054310038135402</v>
       </c>
       <c r="K4">
-        <v>1.043764461337298</v>
+        <v>1.060248859084005</v>
       </c>
       <c r="L4">
-        <v>1.043337816801977</v>
+        <v>1.05298357085242</v>
       </c>
       <c r="M4">
-        <v>1.051953168010025</v>
+        <v>1.064683290096971</v>
       </c>
       <c r="N4">
-        <v>1.015647928808613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.021604452931906</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.059764624990741</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.053669487617647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017117213079454</v>
+        <v>1.036796147534723</v>
       </c>
       <c r="D5">
-        <v>1.034727843403066</v>
+        <v>1.051431158513318</v>
       </c>
       <c r="E5">
-        <v>1.034515793809918</v>
+        <v>1.04420834321517</v>
       </c>
       <c r="F5">
-        <v>1.043180779262734</v>
+        <v>1.055963646960642</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049627921966306</v>
+        <v>1.064936217500396</v>
       </c>
       <c r="J5">
-        <v>1.035649284517358</v>
+        <v>1.054872260975315</v>
       </c>
       <c r="K5">
-        <v>1.04420989088877</v>
+        <v>1.060736036014879</v>
       </c>
       <c r="L5">
-        <v>1.04400013556987</v>
+        <v>1.053588981316673</v>
       </c>
       <c r="M5">
-        <v>1.052572299841734</v>
+        <v>1.065221628507947</v>
       </c>
       <c r="N5">
-        <v>1.015793687912169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.021801018344207</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.060190672631742</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.054020988358409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017268169307787</v>
+        <v>1.036971412269165</v>
       </c>
       <c r="D6">
-        <v>1.034839576869563</v>
+        <v>1.051554928475793</v>
       </c>
       <c r="E6">
-        <v>1.034664312937837</v>
+        <v>1.0443509436799</v>
       </c>
       <c r="F6">
-        <v>1.043321525607056</v>
+        <v>1.056094229992043</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049665574405019</v>
+        <v>1.06499119819896</v>
       </c>
       <c r="J6">
-        <v>1.035722261359222</v>
+        <v>1.054971302448605</v>
       </c>
       <c r="K6">
-        <v>1.044284396649896</v>
+        <v>1.06082325512723</v>
       </c>
       <c r="L6">
-        <v>1.044111020305859</v>
+        <v>1.053694488330934</v>
       </c>
       <c r="M6">
-        <v>1.052675922302285</v>
+        <v>1.06531580362566</v>
       </c>
       <c r="N6">
-        <v>1.015818068441253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.021836767009729</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.060265203954309</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.054091239668551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016227269759444</v>
+        <v>1.035806736779385</v>
       </c>
       <c r="D7">
-        <v>1.034069385124551</v>
+        <v>1.050751418685835</v>
       </c>
       <c r="E7">
-        <v>1.033640879654738</v>
+        <v>1.043404391784132</v>
       </c>
       <c r="F7">
-        <v>1.042351503201273</v>
+        <v>1.05522968259596</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04940531965737</v>
+        <v>1.064641350954771</v>
       </c>
       <c r="J7">
-        <v>1.035218853465179</v>
+        <v>1.054331055093502</v>
       </c>
       <c r="K7">
-        <v>1.043770432266402</v>
+        <v>1.060270792824442</v>
       </c>
       <c r="L7">
-        <v>1.043346688364873</v>
+        <v>1.053002899235493</v>
       </c>
       <c r="M7">
-        <v>1.051961463239782</v>
+        <v>1.064701483596243</v>
       </c>
       <c r="N7">
-        <v>1.015649882704697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.021614856812907</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.059779023553712</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.053704737996954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011802716820428</v>
+        <v>1.030838679558412</v>
       </c>
       <c r="D8">
-        <v>1.030802095530489</v>
+        <v>1.047326408646645</v>
       </c>
       <c r="E8">
-        <v>1.029307326015331</v>
+        <v>1.039387098507908</v>
       </c>
       <c r="F8">
-        <v>1.03824036597158</v>
+        <v>1.051556260434629</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048283473486475</v>
+        <v>1.06312597266406</v>
       </c>
       <c r="J8">
-        <v>1.033074000508965</v>
+        <v>1.051588628560649</v>
       </c>
       <c r="K8">
-        <v>1.041580391271784</v>
+        <v>1.057901316497591</v>
       </c>
       <c r="L8">
-        <v>1.040104421706247</v>
+        <v>1.050058722379703</v>
       </c>
       <c r="M8">
-        <v>1.048926111371134</v>
+        <v>1.062080380197708</v>
       </c>
       <c r="N8">
-        <v>1.014933200440674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.020661538245753</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.057704646755234</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.052033870822629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003711703485495</v>
+        <v>1.021711148179122</v>
       </c>
       <c r="D9">
-        <v>1.024854695228068</v>
+        <v>1.041057789264896</v>
       </c>
       <c r="E9">
-        <v>1.021448065322021</v>
+        <v>1.032086980882357</v>
       </c>
       <c r="F9">
-        <v>1.030770598515455</v>
+        <v>1.044866948633967</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046174280764035</v>
+        <v>1.060266183721027</v>
       </c>
       <c r="J9">
-        <v>1.029134069351632</v>
+        <v>1.046519855421743</v>
       </c>
       <c r="K9">
-        <v>1.037556994129504</v>
+        <v>1.053518090493153</v>
       </c>
       <c r="L9">
-        <v>1.034202489579655</v>
+        <v>1.044680069052442</v>
       </c>
       <c r="M9">
-        <v>1.043383419429993</v>
+        <v>1.057271740667849</v>
       </c>
       <c r="N9">
-        <v>1.013616418613983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.018894785287159</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.053899009558526</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.048931615596914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9981035167820969</v>
+        <v>1.015436414249465</v>
       </c>
       <c r="D10">
-        <v>1.02075306129287</v>
+        <v>1.036795082147451</v>
       </c>
       <c r="E10">
-        <v>1.016046023977343</v>
+        <v>1.02717953034327</v>
       </c>
       <c r="F10">
-        <v>1.025627269425585</v>
+        <v>1.040374788962855</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044675069736311</v>
+        <v>1.058281074298509</v>
       </c>
       <c r="J10">
-        <v>1.026392581250888</v>
+        <v>1.043050692574578</v>
       </c>
       <c r="K10">
-        <v>1.034757456913733</v>
+        <v>1.050530318767635</v>
       </c>
       <c r="L10">
-        <v>1.030131482796876</v>
+        <v>1.041074798449021</v>
       </c>
       <c r="M10">
-        <v>1.039548734749742</v>
+        <v>1.054051419520472</v>
       </c>
       <c r="N10">
-        <v>1.01270005845908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.017700021447286</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.051401027491702</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.046835683867453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9956204749528261</v>
+        <v>1.013178628826546</v>
       </c>
       <c r="D11">
-        <v>1.018942484657749</v>
+        <v>1.035433118450748</v>
       </c>
       <c r="E11">
-        <v>1.013665373162234</v>
+        <v>1.025859893983908</v>
       </c>
       <c r="F11">
-        <v>1.023358577052411</v>
+        <v>1.039271118296715</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044002848641422</v>
+        <v>1.057741440932458</v>
       </c>
       <c r="J11">
-        <v>1.025176589108224</v>
+        <v>1.04201325566876</v>
       </c>
       <c r="K11">
-        <v>1.033515801540039</v>
+        <v>1.049716386495734</v>
       </c>
       <c r="L11">
-        <v>1.028334101324162</v>
+        <v>1.040310070400142</v>
       </c>
       <c r="M11">
-        <v>1.037853031404006</v>
+        <v>1.053488586515017</v>
       </c>
       <c r="N11">
-        <v>1.012293595648674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.017452997067113</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.051385421378867</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.046292563798078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9946896051247154</v>
+        <v>1.012513353801481</v>
       </c>
       <c r="D12">
-        <v>1.018264577803798</v>
+        <v>1.035101352719027</v>
       </c>
       <c r="E12">
-        <v>1.012774588942344</v>
+        <v>1.025670307746502</v>
       </c>
       <c r="F12">
-        <v>1.022509383343946</v>
+        <v>1.039172503432834</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043749604939746</v>
+        <v>1.057658265686165</v>
       </c>
       <c r="J12">
-        <v>1.024720423291091</v>
+        <v>1.041797407942556</v>
       </c>
       <c r="K12">
-        <v>1.033050027987182</v>
+        <v>1.049585608768263</v>
       </c>
       <c r="L12">
-        <v>1.02766107316905</v>
+        <v>1.04032169388264</v>
       </c>
       <c r="M12">
-        <v>1.03721768201969</v>
+        <v>1.0535858265589</v>
       </c>
       <c r="N12">
-        <v>1.012141115741245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.017462330966669</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.051784381736105</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.046200102288912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.994889672854118</v>
+        <v>1.01304997470217</v>
       </c>
       <c r="D13">
-        <v>1.018410237621383</v>
+        <v>1.035562184210205</v>
       </c>
       <c r="E13">
-        <v>1.012965963916241</v>
+        <v>1.026356130216921</v>
       </c>
       <c r="F13">
-        <v>1.022691836591968</v>
+        <v>1.039864479801095</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043804088710384</v>
+        <v>1.057939045244998</v>
       </c>
       <c r="J13">
-        <v>1.024818478161561</v>
+        <v>1.042221482855512</v>
       </c>
       <c r="K13">
-        <v>1.033150147087996</v>
+        <v>1.049996517803596</v>
       </c>
       <c r="L13">
-        <v>1.027805687718699</v>
+        <v>1.04095282860546</v>
       </c>
       <c r="M13">
-        <v>1.037354218228862</v>
+        <v>1.054224209707953</v>
       </c>
       <c r="N13">
-        <v>1.012173891948623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01768135501416</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.052562533531157</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.0464881652382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9955437055937683</v>
+        <v>1.013970776411401</v>
       </c>
       <c r="D14">
-        <v>1.018886559498355</v>
+        <v>1.036244932173647</v>
       </c>
       <c r="E14">
-        <v>1.013591874926136</v>
+        <v>1.027231310773122</v>
       </c>
       <c r="F14">
-        <v>1.023288516532937</v>
+        <v>1.040706871060101</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043981988395556</v>
+        <v>1.058300652398949</v>
       </c>
       <c r="J14">
-        <v>1.025138974825723</v>
+        <v>1.042808527948857</v>
       </c>
       <c r="K14">
-        <v>1.033477394590329</v>
+        <v>1.050530346288485</v>
       </c>
       <c r="L14">
-        <v>1.028278579974666</v>
+        <v>1.041673649635562</v>
       </c>
       <c r="M14">
-        <v>1.037800626357508</v>
+        <v>1.054915902922592</v>
       </c>
       <c r="N14">
-        <v>1.01228102253037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.017929693968201</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.053280830836351</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.04686699180577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.995945532161068</v>
+        <v>1.014463403149506</v>
       </c>
       <c r="D15">
-        <v>1.019179318690721</v>
+        <v>1.036592747548638</v>
       </c>
       <c r="E15">
-        <v>1.013976649313911</v>
+        <v>1.02764699360878</v>
       </c>
       <c r="F15">
-        <v>1.02365528167507</v>
+        <v>1.041097998707918</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044091125050362</v>
+        <v>1.058473951094943</v>
       </c>
       <c r="J15">
-        <v>1.025335843561493</v>
+        <v>1.043099097674943</v>
       </c>
       <c r="K15">
-        <v>1.033678412891361</v>
+        <v>1.050787783944271</v>
       </c>
       <c r="L15">
-        <v>1.028569222687881</v>
+        <v>1.041996565811945</v>
       </c>
       <c r="M15">
-        <v>1.038074939798211</v>
+        <v>1.055216505287361</v>
       </c>
       <c r="N15">
-        <v>1.012346828765765</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.018040124865826</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.053555609094983</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.047054783927105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9982671273792267</v>
+        <v>1.017022466489654</v>
       </c>
       <c r="D16">
-        <v>1.020872479650783</v>
+        <v>1.038317357398813</v>
       </c>
       <c r="E16">
-        <v>1.01620312258533</v>
+        <v>1.029600213581652</v>
       </c>
       <c r="F16">
-        <v>1.025776937521178</v>
+        <v>1.04289224098553</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044719189777657</v>
+        <v>1.059280764970831</v>
       </c>
       <c r="J16">
-        <v>1.0264726610152</v>
+        <v>1.044501936944206</v>
       </c>
       <c r="K16">
-        <v>1.034839229080293</v>
+        <v>1.051992857584089</v>
       </c>
       <c r="L16">
-        <v>1.030250022972395</v>
+        <v>1.043419660486111</v>
       </c>
       <c r="M16">
-        <v>1.03966051391169</v>
+        <v>1.056493431779385</v>
       </c>
       <c r="N16">
-        <v>1.012726826195441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.018509923519851</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.054526564086062</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.047909904766216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9997085302981817</v>
+        <v>1.018504810103676</v>
       </c>
       <c r="D17">
-        <v>1.021925176589232</v>
+        <v>1.039284021381169</v>
       </c>
       <c r="E17">
-        <v>1.017588428193163</v>
+        <v>1.030641493452784</v>
       </c>
       <c r="F17">
-        <v>1.027096486069222</v>
+        <v>1.043824732692775</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045106925947892</v>
+        <v>1.059707764672898</v>
       </c>
       <c r="J17">
-        <v>1.027177913866566</v>
+        <v>1.045269989913275</v>
       </c>
       <c r="K17">
-        <v>1.035559397175947</v>
+        <v>1.05263661925548</v>
       </c>
       <c r="L17">
-        <v>1.031294939860322</v>
+        <v>1.044132781350087</v>
       </c>
       <c r="M17">
-        <v>1.040645529779063</v>
+        <v>1.057105641476192</v>
       </c>
       <c r="N17">
-        <v>1.01296256552382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01874019186583</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.05488280648309</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.048367600649496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000544026583335</v>
+        <v>1.01918347295838</v>
       </c>
       <c r="D18">
-        <v>1.022535877285933</v>
+        <v>1.039663627221676</v>
       </c>
       <c r="E18">
-        <v>1.018392464878032</v>
+        <v>1.030955995489522</v>
       </c>
       <c r="F18">
-        <v>1.0278621604614</v>
+        <v>1.044059631342467</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045330867767379</v>
+        <v>1.059832640950076</v>
       </c>
       <c r="J18">
-        <v>1.027586496992345</v>
+        <v>1.045540840581083</v>
       </c>
       <c r="K18">
-        <v>1.035976628921182</v>
+        <v>1.0528311206802</v>
       </c>
       <c r="L18">
-        <v>1.031901097036392</v>
+        <v>1.044260957232339</v>
       </c>
       <c r="M18">
-        <v>1.041216684293666</v>
+        <v>1.057158837028299</v>
       </c>
       <c r="N18">
-        <v>1.013099138386694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.018772682747227</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.05469003493755</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.048493665099044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000828028995001</v>
+        <v>1.019149600694207</v>
       </c>
       <c r="D19">
-        <v>1.022743552954494</v>
+        <v>1.039529680150415</v>
       </c>
       <c r="E19">
-        <v>1.018665951907624</v>
+        <v>1.030621224985729</v>
       </c>
       <c r="F19">
-        <v>1.028122565283684</v>
+        <v>1.043672199330063</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045406852489579</v>
+        <v>1.059696583955822</v>
       </c>
       <c r="J19">
-        <v>1.027725346321952</v>
+        <v>1.045377662986966</v>
       </c>
       <c r="K19">
-        <v>1.036118418407636</v>
+        <v>1.052638188376566</v>
       </c>
       <c r="L19">
-        <v>1.03210722291311</v>
+        <v>1.043869705709758</v>
       </c>
       <c r="M19">
-        <v>1.041410864150229</v>
+        <v>1.056716657932413</v>
       </c>
       <c r="N19">
-        <v>1.013145549902919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.018639106891788</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.05401935766029</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.048363553011848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9995544268433156</v>
+        <v>1.017100190072914</v>
       </c>
       <c r="D20">
-        <v>1.021812576868442</v>
+        <v>1.037939426456303</v>
       </c>
       <c r="E20">
-        <v>1.01744021245099</v>
+        <v>1.028481554648948</v>
       </c>
       <c r="F20">
-        <v>1.026955326094059</v>
+        <v>1.041568582999014</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045065555575845</v>
+        <v>1.058824135691026</v>
       </c>
       <c r="J20">
-        <v>1.02710253540017</v>
+        <v>1.043987478803045</v>
       </c>
       <c r="K20">
-        <v>1.035482423712026</v>
+        <v>1.051346422916269</v>
       </c>
       <c r="L20">
-        <v>1.031183175528221</v>
+        <v>1.042041419470009</v>
       </c>
       <c r="M20">
-        <v>1.040540198755829</v>
+        <v>1.054917865003604</v>
       </c>
       <c r="N20">
-        <v>1.012937369450075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.018032346435623</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.052076329989473</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.047454115003782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9953513483475586</v>
+        <v>1.012285670609669</v>
       </c>
       <c r="D21">
-        <v>1.018746444598178</v>
+        <v>1.034643671941863</v>
       </c>
       <c r="E21">
-        <v>1.013407741480821</v>
+        <v>1.024654383452969</v>
       </c>
       <c r="F21">
-        <v>1.023112990678405</v>
+        <v>1.038040137219199</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043929700117919</v>
+        <v>1.057249103528739</v>
       </c>
       <c r="J21">
-        <v>1.025044721785921</v>
+        <v>1.041278564436018</v>
       </c>
       <c r="K21">
-        <v>1.033381155641042</v>
+        <v>1.048997147426179</v>
       </c>
       <c r="L21">
-        <v>1.028139475739289</v>
+        <v>1.039183255652204</v>
       </c>
       <c r="M21">
-        <v>1.037669323422726</v>
+        <v>1.052334970149036</v>
       </c>
       <c r="N21">
-        <v>1.012249517093749</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.017078336602834</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.049991947451469</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.045796320924392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9926590106075558</v>
+        <v>1.009214419956965</v>
       </c>
       <c r="D22">
-        <v>1.016787429696874</v>
+        <v>1.03255145779433</v>
       </c>
       <c r="E22">
-        <v>1.010834593500075</v>
+        <v>1.022251661663244</v>
       </c>
       <c r="F22">
-        <v>1.020659419916177</v>
+        <v>1.035829944228502</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043194951984848</v>
+        <v>1.056242185182988</v>
       </c>
       <c r="J22">
-        <v>1.023724823031005</v>
+        <v>1.039555443653899</v>
       </c>
       <c r="K22">
-        <v>1.032033502079857</v>
+        <v>1.04750451652556</v>
       </c>
       <c r="L22">
-        <v>1.026194427790501</v>
+        <v>1.037394831915943</v>
       </c>
       <c r="M22">
-        <v>1.035832426631815</v>
+        <v>1.050723520683116</v>
       </c>
       <c r="N22">
-        <v>1.011808323956634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.016474082240222</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.048716608660402</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.044727686564977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,81 +1546,105 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9940911004025366</v>
+        <v>1.010835193828503</v>
       </c>
       <c r="D23">
-        <v>1.017828964778515</v>
+        <v>1.033649631015552</v>
       </c>
       <c r="E23">
-        <v>1.01220234015482</v>
+        <v>1.023517240059599</v>
       </c>
       <c r="F23">
-        <v>1.021963768606968</v>
+        <v>1.036994347487753</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04358643799988</v>
+        <v>1.056769955137719</v>
       </c>
       <c r="J23">
-        <v>1.024427049109457</v>
+        <v>1.040459661918526</v>
       </c>
       <c r="K23">
-        <v>1.03275048115488</v>
+        <v>1.048284629205992</v>
       </c>
       <c r="L23">
-        <v>1.027228576081972</v>
+        <v>1.038334412486264</v>
       </c>
       <c r="M23">
-        <v>1.036809287323037</v>
+        <v>1.051570222821064</v>
       </c>
       <c r="N23">
-        <v>1.012043051454491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.016787742464607</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.049386708804934</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.04526974626638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9996240757597674</v>
+        <v>1.017108741252174</v>
       </c>
       <c r="D24">
-        <v>1.021863466081086</v>
+        <v>1.037921153495476</v>
       </c>
       <c r="E24">
-        <v>1.01750719707271</v>
+        <v>1.028444990283925</v>
       </c>
       <c r="F24">
-        <v>1.027019122541957</v>
+        <v>1.04152393277119</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045084255914704</v>
+        <v>1.05880242431281</v>
       </c>
       <c r="J24">
-        <v>1.027136604261792</v>
+        <v>1.043963746310297</v>
       </c>
       <c r="K24">
-        <v>1.035517213442892</v>
+        <v>1.051313523165476</v>
       </c>
       <c r="L24">
-        <v>1.031233687280847</v>
+        <v>1.041990338802068</v>
       </c>
       <c r="M24">
-        <v>1.040587803769637</v>
+        <v>1.054859076063802</v>
       </c>
       <c r="N24">
-        <v>1.012948757341536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.018009142151821</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.05198957952039</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.047403868130151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005839935110044</v>
+        <v>1.024136926823368</v>
       </c>
       <c r="D25">
-        <v>1.026415654763462</v>
+        <v>1.042728921885878</v>
       </c>
       <c r="E25">
-        <v>1.02350756169765</v>
+        <v>1.034018341565154</v>
       </c>
       <c r="F25">
-        <v>1.032729620759098</v>
+        <v>1.04663879357186</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046735651550595</v>
+        <v>1.061041813239018</v>
       </c>
       <c r="J25">
-        <v>1.030172347934041</v>
+        <v>1.047878423611512</v>
       </c>
       <c r="K25">
-        <v>1.038617288299254</v>
+        <v>1.054698256750056</v>
       </c>
       <c r="L25">
-        <v>1.035751592847548</v>
+        <v>1.046110559959689</v>
       </c>
       <c r="M25">
-        <v>1.044840242428494</v>
+        <v>1.058553809081806</v>
       </c>
       <c r="N25">
-        <v>1.013963452059476</v>
+        <v>1.019373633414324</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.054913661657592</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.049794157561875</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029518390266413</v>
+        <v>1.027085568084717</v>
       </c>
       <c r="D2">
-        <v>1.046410546573008</v>
+        <v>1.043373273012497</v>
       </c>
       <c r="E2">
-        <v>1.038324310200534</v>
+        <v>1.036884397559765</v>
       </c>
       <c r="F2">
-        <v>1.050582862606444</v>
+        <v>1.048619719682038</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.062711921316719</v>
+        <v>1.06094222149366</v>
       </c>
       <c r="J2">
-        <v>1.050850683502677</v>
+        <v>1.048485270631925</v>
       </c>
       <c r="K2">
-        <v>1.057259066847876</v>
+        <v>1.054259694561554</v>
       </c>
       <c r="L2">
-        <v>1.049274348792181</v>
+        <v>1.047852720871535</v>
       </c>
       <c r="M2">
-        <v>1.061379762374469</v>
+        <v>1.059440844039404</v>
       </c>
       <c r="N2">
-        <v>1.020400767205987</v>
+        <v>1.019780390579748</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.057150167353836</v>
+        <v>1.055615676350509</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.051557256973085</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049445139279269</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026283827371462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033346305967365</v>
+        <v>1.030709022112406</v>
       </c>
       <c r="D3">
-        <v>1.049046800950467</v>
+        <v>1.045783342597728</v>
       </c>
       <c r="E3">
-        <v>1.041410454625062</v>
+        <v>1.039840717172983</v>
       </c>
       <c r="F3">
-        <v>1.053406387315646</v>
+        <v>1.051290244327951</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.063888603365002</v>
+        <v>1.061978463634387</v>
       </c>
       <c r="J3">
-        <v>1.052967428109172</v>
+        <v>1.050396150742053</v>
       </c>
       <c r="K3">
-        <v>1.059088344388046</v>
+        <v>1.055862105158653</v>
       </c>
       <c r="L3">
-        <v>1.051539540914796</v>
+        <v>1.049987995792994</v>
       </c>
       <c r="M3">
-        <v>1.063398653729044</v>
+        <v>1.061306366903358</v>
       </c>
       <c r="N3">
-        <v>1.021137266917236</v>
+        <v>1.020302123092858</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.05874794701586</v>
+        <v>1.057092081059408</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.052848052813913</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050575251446288</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026620881679759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035779309098975</v>
+        <v>1.033013298813437</v>
       </c>
       <c r="D4">
-        <v>1.050726408727603</v>
+        <v>1.04731996320507</v>
       </c>
       <c r="E4">
-        <v>1.043381984558547</v>
+        <v>1.041730762023914</v>
       </c>
       <c r="F4">
-        <v>1.055208471580479</v>
+        <v>1.052995826224354</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.064627801776929</v>
+        <v>1.062628757911931</v>
       </c>
       <c r="J4">
-        <v>1.054310038135402</v>
+        <v>1.051608628448135</v>
       </c>
       <c r="K4">
-        <v>1.060248859084005</v>
+        <v>1.056878948742208</v>
       </c>
       <c r="L4">
-        <v>1.05298357085242</v>
+        <v>1.051350328749329</v>
       </c>
       <c r="M4">
-        <v>1.064683290096971</v>
+        <v>1.062494096970936</v>
       </c>
       <c r="N4">
-        <v>1.021604452931906</v>
+        <v>1.020633348374792</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.059764624990741</v>
+        <v>1.058032068195617</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.053669487617647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.051295186747229</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026832506444415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036796147534723</v>
+        <v>1.033976432738232</v>
       </c>
       <c r="D5">
-        <v>1.051431158513318</v>
+        <v>1.047965058395198</v>
       </c>
       <c r="E5">
-        <v>1.04420834321517</v>
+        <v>1.042523091282781</v>
       </c>
       <c r="F5">
-        <v>1.055963646960642</v>
+        <v>1.053710711827445</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.064936217500396</v>
+        <v>1.062900025739047</v>
       </c>
       <c r="J5">
-        <v>1.054872260975315</v>
+        <v>1.052116456998803</v>
       </c>
       <c r="K5">
-        <v>1.060736036014879</v>
+        <v>1.057306132782238</v>
       </c>
       <c r="L5">
-        <v>1.053588981316673</v>
+        <v>1.051921590924721</v>
       </c>
       <c r="M5">
-        <v>1.065221628507947</v>
+        <v>1.062991942110646</v>
       </c>
       <c r="N5">
-        <v>1.021801018344207</v>
+        <v>1.020772747607258</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.060190672631742</v>
+        <v>1.058426069857409</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.054020988358409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051604984720633</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026921574291831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036971412269165</v>
+        <v>1.034142232560867</v>
       </c>
       <c r="D6">
-        <v>1.051554928475793</v>
+        <v>1.048078466472886</v>
       </c>
       <c r="E6">
-        <v>1.0443509436799</v>
+        <v>1.04265957859367</v>
       </c>
       <c r="F6">
-        <v>1.056094229992043</v>
+        <v>1.053834203033155</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.06499119819896</v>
+        <v>1.062948518441655</v>
       </c>
       <c r="J6">
-        <v>1.054971302448605</v>
+        <v>1.052205922086468</v>
       </c>
       <c r="K6">
-        <v>1.06082325512723</v>
+        <v>1.057382933752001</v>
       </c>
       <c r="L6">
-        <v>1.053694488330934</v>
+        <v>1.052020967327926</v>
       </c>
       <c r="M6">
-        <v>1.06531580362566</v>
+        <v>1.063078992649675</v>
       </c>
       <c r="N6">
-        <v>1.021836767009729</v>
+        <v>1.020798070522988</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.060265203954309</v>
+        <v>1.058494962860421</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.054091239668551</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051668743518955</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026938418803743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035806736779385</v>
+        <v>1.033048000071264</v>
       </c>
       <c r="D7">
-        <v>1.050751418685835</v>
+        <v>1.04734969658763</v>
       </c>
       <c r="E7">
-        <v>1.043404391784132</v>
+        <v>1.041756791548443</v>
       </c>
       <c r="F7">
-        <v>1.05522968259596</v>
+        <v>1.053020776026312</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.064641350954771</v>
+        <v>1.062645911612952</v>
       </c>
       <c r="J7">
-        <v>1.054331055093502</v>
+        <v>1.051636720573787</v>
       </c>
       <c r="K7">
-        <v>1.060270792824442</v>
+        <v>1.056905540810432</v>
       </c>
       <c r="L7">
-        <v>1.053002899235493</v>
+        <v>1.051373233002706</v>
       </c>
       <c r="M7">
-        <v>1.064701483596243</v>
+        <v>1.062515980617246</v>
       </c>
       <c r="N7">
-        <v>1.021614856812907</v>
+        <v>1.020669646607413</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.059779023553712</v>
+        <v>1.05804938722605</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.053704737996954</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.051335740407604</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026841497636202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030838679558412</v>
+        <v>1.028362834933474</v>
       </c>
       <c r="D8">
-        <v>1.047326408646645</v>
+        <v>1.044230803581204</v>
       </c>
       <c r="E8">
-        <v>1.039387098507908</v>
+        <v>1.037917668393876</v>
       </c>
       <c r="F8">
-        <v>1.051556260434629</v>
+        <v>1.049555762101529</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.06312597266406</v>
+        <v>1.061322261674483</v>
       </c>
       <c r="J8">
-        <v>1.051588628560649</v>
+        <v>1.049179105354865</v>
       </c>
       <c r="K8">
-        <v>1.057901316497591</v>
+        <v>1.054843204491012</v>
       </c>
       <c r="L8">
-        <v>1.050058722379703</v>
+        <v>1.048607394680262</v>
       </c>
       <c r="M8">
-        <v>1.062080380197708</v>
+        <v>1.060103838665974</v>
       </c>
       <c r="N8">
-        <v>1.020661538245753</v>
+        <v>1.020053321571155</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.057704646755234</v>
+        <v>1.056140381256553</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.052033870822629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049882499710655</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026413470074237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021711148179122</v>
+        <v>1.019735405183585</v>
       </c>
       <c r="D9">
-        <v>1.041057789264896</v>
+        <v>1.038509573084823</v>
       </c>
       <c r="E9">
-        <v>1.032086980882357</v>
+        <v>1.030937189419067</v>
       </c>
       <c r="F9">
-        <v>1.044866948633967</v>
+        <v>1.043238843958164</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.060266183721027</v>
+        <v>1.058801969121661</v>
       </c>
       <c r="J9">
-        <v>1.046519855421743</v>
+        <v>1.044609999527053</v>
       </c>
       <c r="K9">
-        <v>1.053518090493153</v>
+        <v>1.05100729703071</v>
       </c>
       <c r="L9">
-        <v>1.044680069052442</v>
+        <v>1.043547509569321</v>
       </c>
       <c r="M9">
-        <v>1.057271740667849</v>
+        <v>1.055667298727106</v>
       </c>
       <c r="N9">
-        <v>1.018894785287159</v>
+        <v>1.018814634085615</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.053899009558526</v>
+        <v>1.052629223310164</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.048931615596914</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.047166938119827</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025592007273841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015436414249465</v>
+        <v>1.013847013154501</v>
       </c>
       <c r="D10">
-        <v>1.036795082147451</v>
+        <v>1.034651606850374</v>
       </c>
       <c r="E10">
-        <v>1.02717953034327</v>
+        <v>1.026273012449694</v>
       </c>
       <c r="F10">
-        <v>1.040374788962855</v>
+        <v>1.039025689492934</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I10">
-        <v>1.058281074298509</v>
+        <v>1.057070020242906</v>
       </c>
       <c r="J10">
-        <v>1.043050692574578</v>
+        <v>1.041521813974947</v>
       </c>
       <c r="K10">
-        <v>1.050530318767635</v>
+        <v>1.048422185726882</v>
       </c>
       <c r="L10">
-        <v>1.041074798449021</v>
+        <v>1.040183567270209</v>
       </c>
       <c r="M10">
-        <v>1.054051419520472</v>
+        <v>1.052724346219505</v>
       </c>
       <c r="N10">
-        <v>1.017700021447286</v>
+        <v>1.018101403891197</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.051401027491702</v>
+        <v>1.050350816337339</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.046835683867453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.045357388131156</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025040865173437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013178628826546</v>
+        <v>1.011741619782227</v>
       </c>
       <c r="D11">
-        <v>1.035433118450748</v>
+        <v>1.03343649495449</v>
       </c>
       <c r="E11">
-        <v>1.025859893983908</v>
+        <v>1.025016480472618</v>
       </c>
       <c r="F11">
-        <v>1.039271118296715</v>
+        <v>1.038017434133774</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.057741440932458</v>
+        <v>1.056625071962809</v>
       </c>
       <c r="J11">
-        <v>1.04201325566876</v>
+        <v>1.040633962109375</v>
       </c>
       <c r="K11">
-        <v>1.049716386495734</v>
+        <v>1.047754243758544</v>
       </c>
       <c r="L11">
-        <v>1.040310070400142</v>
+        <v>1.039481555547876</v>
       </c>
       <c r="M11">
-        <v>1.053488586515017</v>
+        <v>1.052256326747421</v>
       </c>
       <c r="N11">
-        <v>1.017452997067113</v>
+        <v>1.01816288733731</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.051385421378867</v>
+        <v>1.050410719578715</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.046292563798078</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044920712532191</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024969858698011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012513353801481</v>
+        <v>1.011108171126352</v>
       </c>
       <c r="D12">
-        <v>1.035101352719027</v>
+        <v>1.033134438056087</v>
       </c>
       <c r="E12">
-        <v>1.025670307746502</v>
+        <v>1.024819871999428</v>
       </c>
       <c r="F12">
-        <v>1.039172503432834</v>
+        <v>1.037932962164618</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.057658265686165</v>
+        <v>1.056561500300324</v>
       </c>
       <c r="J12">
-        <v>1.041797407942556</v>
+        <v>1.040449741474867</v>
       </c>
       <c r="K12">
-        <v>1.049585608768263</v>
+        <v>1.047653223895684</v>
       </c>
       <c r="L12">
-        <v>1.04032169388264</v>
+        <v>1.039486525400125</v>
       </c>
       <c r="M12">
-        <v>1.0535858265589</v>
+        <v>1.052367805933844</v>
       </c>
       <c r="N12">
-        <v>1.017462330966669</v>
+        <v>1.018266102015593</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.051784381736105</v>
+        <v>1.050821260634602</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.046200102288912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044849291429504</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024997278467145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01304997470217</v>
+        <v>1.011570740674061</v>
       </c>
       <c r="D13">
-        <v>1.035562184210205</v>
+        <v>1.033526309245106</v>
       </c>
       <c r="E13">
-        <v>1.026356130216921</v>
+        <v>1.025437824821137</v>
       </c>
       <c r="F13">
-        <v>1.039864479801095</v>
+        <v>1.038569979763615</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.057939045244998</v>
+        <v>1.056797787759805</v>
       </c>
       <c r="J13">
-        <v>1.042221482855512</v>
+        <v>1.040802490803626</v>
       </c>
       <c r="K13">
-        <v>1.049996517803596</v>
+        <v>1.047996226297041</v>
       </c>
       <c r="L13">
-        <v>1.04095282860546</v>
+        <v>1.040050926786224</v>
       </c>
       <c r="M13">
-        <v>1.054224209707953</v>
+        <v>1.05295207276174</v>
       </c>
       <c r="N13">
-        <v>1.01768135501416</v>
+        <v>1.018379560487351</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.052562533531157</v>
+        <v>1.051556868420725</v>
       </c>
       <c r="Q13">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R13">
-        <v>1.0464881652382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045089096093666</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025108935034928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013970776411401</v>
+        <v>1.012392710146095</v>
       </c>
       <c r="D14">
-        <v>1.036244932173647</v>
+        <v>1.034117089331793</v>
       </c>
       <c r="E14">
-        <v>1.027231310773122</v>
+        <v>1.026240604017427</v>
       </c>
       <c r="F14">
-        <v>1.040706871060101</v>
+        <v>1.039343914748815</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.058300652398949</v>
+        <v>1.057099804153694</v>
       </c>
       <c r="J14">
-        <v>1.042808527948857</v>
+        <v>1.041293804742815</v>
       </c>
       <c r="K14">
-        <v>1.050530346288485</v>
+        <v>1.048439229490547</v>
       </c>
       <c r="L14">
-        <v>1.041673649635562</v>
+        <v>1.040700408850413</v>
       </c>
       <c r="M14">
-        <v>1.054915902922592</v>
+        <v>1.05357618867701</v>
       </c>
       <c r="N14">
-        <v>1.017929693968201</v>
+        <v>1.018465789666866</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.053280830836351</v>
+        <v>1.052221884167509</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04686699180577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045403841828607</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025226194398135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014463403149506</v>
+        <v>1.012838148304429</v>
       </c>
       <c r="D15">
-        <v>1.036592747548638</v>
+        <v>1.034420874218046</v>
       </c>
       <c r="E15">
-        <v>1.02764699360878</v>
+        <v>1.026625871634218</v>
       </c>
       <c r="F15">
-        <v>1.041097998707918</v>
+        <v>1.039703341306685</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.058473951094943</v>
+        <v>1.057244529111676</v>
       </c>
       <c r="J15">
-        <v>1.043099097674943</v>
+        <v>1.041538509508563</v>
       </c>
       <c r="K15">
-        <v>1.050787783944271</v>
+        <v>1.048653111628049</v>
       </c>
       <c r="L15">
-        <v>1.041996565811945</v>
+        <v>1.040993305344295</v>
       </c>
       <c r="M15">
-        <v>1.055216505287361</v>
+        <v>1.053845447175533</v>
       </c>
       <c r="N15">
-        <v>1.018040124865826</v>
+        <v>1.018495314246878</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.053555609094983</v>
+        <v>1.052471915491267</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.047054783927105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045561410482774</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025276708177491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017022466489654</v>
+        <v>1.015185819966119</v>
       </c>
       <c r="D16">
-        <v>1.038317357398813</v>
+        <v>1.035944438155993</v>
       </c>
       <c r="E16">
-        <v>1.029600213581652</v>
+        <v>1.028460140294137</v>
       </c>
       <c r="F16">
-        <v>1.04289224098553</v>
+        <v>1.041358036642487</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.059280764970831</v>
+        <v>1.057921362184957</v>
       </c>
       <c r="J16">
-        <v>1.044501936944206</v>
+        <v>1.04273472225758</v>
       </c>
       <c r="K16">
-        <v>1.051992857584089</v>
+        <v>1.049658813878207</v>
       </c>
       <c r="L16">
-        <v>1.043419660486111</v>
+        <v>1.042298645846177</v>
       </c>
       <c r="M16">
-        <v>1.056493431779385</v>
+        <v>1.054984053932051</v>
       </c>
       <c r="N16">
-        <v>1.018509923519851</v>
+        <v>1.018600194397953</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.054526564086062</v>
+        <v>1.053333507934613</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047909904766216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.046275872732459</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025482897218537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018504810103676</v>
+        <v>1.016568033692915</v>
       </c>
       <c r="D17">
-        <v>1.039284021381169</v>
+        <v>1.036811819130269</v>
       </c>
       <c r="E17">
-        <v>1.030641493452784</v>
+        <v>1.029451225138998</v>
       </c>
       <c r="F17">
-        <v>1.043824732692775</v>
+        <v>1.042223919434736</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.059707764672898</v>
+        <v>1.058284883338924</v>
       </c>
       <c r="J17">
-        <v>1.045269989913275</v>
+        <v>1.043404085291108</v>
       </c>
       <c r="K17">
-        <v>1.05263661925548</v>
+        <v>1.050203786736138</v>
       </c>
       <c r="L17">
-        <v>1.044132781350087</v>
+        <v>1.042961848091734</v>
       </c>
       <c r="M17">
-        <v>1.057105641476192</v>
+        <v>1.055530010727357</v>
       </c>
       <c r="N17">
-        <v>1.01874019186583</v>
+        <v>1.018664877851604</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05488280648309</v>
+        <v>1.053637260093359</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.048367600649496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.0466639718292</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025580618035776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01918347295838</v>
+        <v>1.01722303147213</v>
       </c>
       <c r="D18">
-        <v>1.039663627221676</v>
+        <v>1.037164333785859</v>
       </c>
       <c r="E18">
-        <v>1.030955995489522</v>
+        <v>1.029766042184039</v>
       </c>
       <c r="F18">
-        <v>1.044059631342467</v>
+        <v>1.042444316782851</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.059832640950076</v>
+        <v>1.05839299395945</v>
       </c>
       <c r="J18">
-        <v>1.045540840581083</v>
+        <v>1.043650800382332</v>
       </c>
       <c r="K18">
-        <v>1.0528311206802</v>
+        <v>1.050370981647466</v>
       </c>
       <c r="L18">
-        <v>1.044260957232339</v>
+        <v>1.043090021347433</v>
       </c>
       <c r="M18">
-        <v>1.057158837028299</v>
+        <v>1.055568529340863</v>
       </c>
       <c r="N18">
-        <v>1.018772682747227</v>
+        <v>1.01865306630404</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.05469003493755</v>
+        <v>1.053432629984342</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.048493665099044</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046769589957613</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025582235312152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019149600694207</v>
+        <v>1.017225819295716</v>
       </c>
       <c r="D19">
-        <v>1.039529680150415</v>
+        <v>1.037062569135271</v>
       </c>
       <c r="E19">
-        <v>1.030621224985729</v>
+        <v>1.02947246071899</v>
       </c>
       <c r="F19">
-        <v>1.043672199330063</v>
+        <v>1.042084886529265</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.059696583955822</v>
+        <v>1.058278028719595</v>
       </c>
       <c r="J19">
-        <v>1.045377662986966</v>
+        <v>1.043522567335856</v>
       </c>
       <c r="K19">
-        <v>1.052638188376566</v>
+        <v>1.050209533508089</v>
       </c>
       <c r="L19">
-        <v>1.043869705709758</v>
+        <v>1.042739217158997</v>
       </c>
       <c r="M19">
-        <v>1.056716657932413</v>
+        <v>1.055153810548497</v>
       </c>
       <c r="N19">
-        <v>1.018639106891788</v>
+        <v>1.018559941554938</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.05401935766029</v>
+        <v>1.052783271397633</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.048363553011848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.046662365348936</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025502801027437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017100190072914</v>
+        <v>1.015379672691471</v>
       </c>
       <c r="D20">
-        <v>1.037939426456303</v>
+        <v>1.035668681262813</v>
       </c>
       <c r="E20">
-        <v>1.028481554648948</v>
+        <v>1.027491375956766</v>
       </c>
       <c r="F20">
-        <v>1.041568582999014</v>
+        <v>1.040128561387824</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.058824135691026</v>
+        <v>1.057531398190713</v>
       </c>
       <c r="J20">
-        <v>1.043987478803045</v>
+        <v>1.042330341704421</v>
       </c>
       <c r="K20">
-        <v>1.051346422916269</v>
+        <v>1.049112053244711</v>
       </c>
       <c r="L20">
-        <v>1.042041419470009</v>
+        <v>1.041067454352662</v>
       </c>
       <c r="M20">
-        <v>1.054917865003604</v>
+        <v>1.053500682299397</v>
       </c>
       <c r="N20">
-        <v>1.018032346435623</v>
+        <v>1.018224198038074</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.052076329989473</v>
+        <v>1.050954795612461</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.047454115003782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045890682638553</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025191933489219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012285670609669</v>
+        <v>1.010998860512719</v>
       </c>
       <c r="D21">
-        <v>1.034643671941863</v>
+        <v>1.032782225204467</v>
       </c>
       <c r="E21">
-        <v>1.024654383452969</v>
+        <v>1.023942981741334</v>
       </c>
       <c r="F21">
-        <v>1.038040137219199</v>
+        <v>1.036895192757435</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.057249103528739</v>
+        <v>1.056221267327983</v>
       </c>
       <c r="J21">
-        <v>1.041278564436018</v>
+        <v>1.040043814538749</v>
       </c>
       <c r="K21">
-        <v>1.048997147426179</v>
+        <v>1.047168051828121</v>
       </c>
       <c r="L21">
-        <v>1.039183255652204</v>
+        <v>1.038484514518816</v>
       </c>
       <c r="M21">
-        <v>1.052334970149036</v>
+        <v>1.051209738512172</v>
       </c>
       <c r="N21">
-        <v>1.017078336602834</v>
+        <v>1.018027607023432</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.049991947451469</v>
+        <v>1.049101413050787</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045796320924392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044519754668455</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024777257573466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.009214419956965</v>
+        <v>1.008201318282327</v>
       </c>
       <c r="D22">
-        <v>1.03255145779433</v>
+        <v>1.030948537719056</v>
       </c>
       <c r="E22">
-        <v>1.022251661663244</v>
+        <v>1.021718941240757</v>
       </c>
       <c r="F22">
-        <v>1.035829944228502</v>
+        <v>1.034871749658757</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.056242185182988</v>
+        <v>1.05538104634099</v>
       </c>
       <c r="J22">
-        <v>1.039555443653899</v>
+        <v>1.038585720521114</v>
       </c>
       <c r="K22">
-        <v>1.04750451652556</v>
+        <v>1.045930857859229</v>
       </c>
       <c r="L22">
-        <v>1.037394831915943</v>
+        <v>1.036872080441244</v>
       </c>
       <c r="M22">
-        <v>1.050723520683116</v>
+        <v>1.049782660148184</v>
       </c>
       <c r="N22">
-        <v>1.016474082240222</v>
+        <v>1.017897050134906</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.048716608660402</v>
+        <v>1.047971988618962</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044727686564977</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043630417352559</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024513399049153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,105 +1741,123 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010835193828503</v>
+        <v>1.009663509726055</v>
       </c>
       <c r="D23">
-        <v>1.033649631015552</v>
+        <v>1.031900059758538</v>
       </c>
       <c r="E23">
-        <v>1.023517240059599</v>
+        <v>1.022881374161667</v>
       </c>
       <c r="F23">
-        <v>1.036994347487753</v>
+        <v>1.03592964365603</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.056769955137719</v>
+        <v>1.055813556060182</v>
       </c>
       <c r="J23">
-        <v>1.040459661918526</v>
+        <v>1.039336672864273</v>
       </c>
       <c r="K23">
-        <v>1.048284629205992</v>
+        <v>1.046566182437433</v>
       </c>
       <c r="L23">
-        <v>1.038334412486264</v>
+        <v>1.037710135724882</v>
       </c>
       <c r="M23">
-        <v>1.051570222821064</v>
+        <v>1.050524285507521</v>
       </c>
       <c r="N23">
-        <v>1.016787742464607</v>
+        <v>1.017916708796573</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.049386708804934</v>
+        <v>1.048558929131388</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04526974626638</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.04406916270296</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024644638378155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017108741252174</v>
+        <v>1.01539307128638</v>
       </c>
       <c r="D24">
-        <v>1.037921153495476</v>
+        <v>1.035654197349612</v>
       </c>
       <c r="E24">
-        <v>1.028444990283925</v>
+        <v>1.027461235527951</v>
       </c>
       <c r="F24">
-        <v>1.04152393277119</v>
+        <v>1.040087907245915</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05880242431281</v>
+        <v>1.057512311334071</v>
       </c>
       <c r="J24">
-        <v>1.043963746310297</v>
+        <v>1.042311187774349</v>
       </c>
       <c r="K24">
-        <v>1.051313523165476</v>
+        <v>1.049082836984472</v>
       </c>
       <c r="L24">
-        <v>1.041990338802068</v>
+        <v>1.041022673172652</v>
       </c>
       <c r="M24">
-        <v>1.054859076063802</v>
+        <v>1.053445799432158</v>
       </c>
       <c r="N24">
-        <v>1.018009142151821</v>
+        <v>1.018205669434565</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.05198957952039</v>
+        <v>1.050871082452822</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.047403868130151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045840357310499</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02517603148159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024136926823368</v>
+        <v>1.022014314867672</v>
       </c>
       <c r="D25">
-        <v>1.042728921885878</v>
+        <v>1.040025730923573</v>
       </c>
       <c r="E25">
-        <v>1.034018341565154</v>
+        <v>1.032774266632592</v>
       </c>
       <c r="F25">
-        <v>1.04663879357186</v>
+        <v>1.044903495065155</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.061041813239018</v>
+        <v>1.059480542109987</v>
       </c>
       <c r="J25">
-        <v>1.047878423611512</v>
+        <v>1.045822862457901</v>
       </c>
       <c r="K25">
-        <v>1.054698256750056</v>
+        <v>1.052032922496342</v>
       </c>
       <c r="L25">
-        <v>1.046110559959689</v>
+        <v>1.044884249775004</v>
       </c>
       <c r="M25">
-        <v>1.058553809081806</v>
+        <v>1.056842555567394</v>
       </c>
       <c r="N25">
-        <v>1.019373633414324</v>
+        <v>1.019115456147568</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.054913661657592</v>
+        <v>1.053559344414474</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049794157561875</v>
+        <v>1.04792302994493</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025816021291342</v>
       </c>
     </row>
   </sheetData>
